--- a/raw_data/IVM6311_rev0_regmap.xlsx
+++ b/raw_data/IVM6311_rev0_regmap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harkum\Documents\6311\Software\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849620BE-D502-49C8-9FE0-BE867F4D72D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424689D3-4ED9-40CC-9077-25222700917D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PAG0" sheetId="1" r:id="rId1"/>
@@ -6406,16 +6406,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="55" applyBorder="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="55">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="18" xfId="55" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="55" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="10" fillId="43" borderId="1" xfId="50">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="39" borderId="3" xfId="54" applyBorder="1">
@@ -6430,13 +6426,15 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="55" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="18" xfId="55" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="55">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="55" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -6452,16 +6450,35 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="43" borderId="1" xfId="50">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="52" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="39" borderId="1" xfId="54">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="52" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="52">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="18" xfId="52" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="61" borderId="3" xfId="52" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="61" borderId="18" xfId="52" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="61" borderId="2" xfId="52" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="38" fillId="43" borderId="3" xfId="50" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -6483,73 +6500,15 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="52" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="52" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="61" borderId="3" xfId="52" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="61" borderId="18" xfId="52" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="61" borderId="2" xfId="52" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="52">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="18" xfId="52" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="46" borderId="3" xfId="55" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="10" fillId="39" borderId="1" xfId="54">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="46" borderId="2" xfId="55" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="42" borderId="3" xfId="55" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="42" borderId="2" xfId="55" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="42" borderId="18" xfId="55" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="46" borderId="18" xfId="55" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="64" borderId="3" xfId="52" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="64" borderId="18" xfId="52" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="64" borderId="2" xfId="52" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="21" xfId="55" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="24" xfId="55" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="52" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6560,16 +6519,63 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="52" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="63" borderId="3" xfId="52" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="10" fillId="63" borderId="3" xfId="55" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="63" borderId="18" xfId="52" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="10" fillId="63" borderId="18" xfId="55" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="63" borderId="2" xfId="52" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="10" fillId="63" borderId="2" xfId="55" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="42" borderId="3" xfId="55" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="42" borderId="18" xfId="55" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="42" borderId="2" xfId="55" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="61" borderId="3" xfId="55" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="61" borderId="18" xfId="55" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="61" borderId="2" xfId="55" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="46" borderId="3" xfId="55" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="46" borderId="18" xfId="55" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="46" borderId="2" xfId="55" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="29" xfId="55" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="21" xfId="55" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="24" xfId="55" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -6585,29 +6591,26 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="63" borderId="3" xfId="55" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="63" borderId="3" xfId="52" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="63" borderId="18" xfId="55" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="63" borderId="18" xfId="52" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="63" borderId="2" xfId="55" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="63" borderId="2" xfId="52" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="61" borderId="3" xfId="55" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="64" borderId="3" xfId="52" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="61" borderId="18" xfId="55" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="64" borderId="18" xfId="52" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="61" borderId="2" xfId="55" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="64" borderId="2" xfId="52" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="69" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6616,9 +6619,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="68" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="66" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9260,9 +9260,9 @@
   </sheetPr>
   <dimension ref="A1:V524"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A403" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A427" sqref="A427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" outlineLevelRow="2" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -9349,25 +9349,25 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="104"/>
-      <c r="Q2" s="104"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="117"/>
+      <c r="O2" s="117"/>
+      <c r="P2" s="117"/>
+      <c r="Q2" s="117"/>
       <c r="R2" s="26"/>
       <c r="S2" s="26"/>
       <c r="T2" s="26"/>
@@ -10569,19 +10569,19 @@
       <c r="F27" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G27" s="100" t="s">
+      <c r="G27" s="99" t="s">
         <v>149</v>
       </c>
-      <c r="H27" s="101"/>
-      <c r="I27" s="102"/>
+      <c r="H27" s="100"/>
+      <c r="I27" s="101"/>
       <c r="J27" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K27" s="100" t="s">
+      <c r="K27" s="99" t="s">
         <v>150</v>
       </c>
-      <c r="L27" s="101"/>
-      <c r="M27" s="102"/>
+      <c r="L27" s="100"/>
+      <c r="M27" s="101"/>
       <c r="N27" s="25" t="s">
         <v>151</v>
       </c>
@@ -10613,17 +10613,17 @@
       <c r="D28" s="20"/>
       <c r="E28" s="16"/>
       <c r="F28" s="29"/>
-      <c r="G28" s="109" t="s">
+      <c r="G28" s="98" t="s">
         <v>154</v>
       </c>
-      <c r="H28" s="109"/>
-      <c r="I28" s="109"/>
+      <c r="H28" s="98"/>
+      <c r="I28" s="98"/>
       <c r="J28" s="30"/>
-      <c r="K28" s="109" t="s">
+      <c r="K28" s="98" t="s">
         <v>155</v>
       </c>
-      <c r="L28" s="109"/>
-      <c r="M28" s="109"/>
+      <c r="L28" s="98"/>
+      <c r="M28" s="98"/>
       <c r="N28" s="25"/>
       <c r="O28" s="12"/>
       <c r="P28" s="12"/>
@@ -10661,10 +10661,10 @@
       <c r="G29" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="100" t="s">
+      <c r="H29" s="99" t="s">
         <v>156</v>
       </c>
-      <c r="I29" s="102"/>
+      <c r="I29" s="101"/>
       <c r="J29" s="7" t="s">
         <v>23</v>
       </c>
@@ -10762,12 +10762,12 @@
       <c r="I31" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J31" s="100" t="s">
+      <c r="J31" s="99" t="s">
         <v>164</v>
       </c>
-      <c r="K31" s="101"/>
-      <c r="L31" s="101"/>
-      <c r="M31" s="102"/>
+      <c r="K31" s="100"/>
+      <c r="L31" s="100"/>
+      <c r="M31" s="101"/>
       <c r="N31" s="25" t="s">
         <v>165</v>
       </c>
@@ -10843,16 +10843,16 @@
         <f>BIN2HEX(P33,2)</f>
         <v>00</v>
       </c>
-      <c r="F33" s="100" t="s">
+      <c r="F33" s="99" t="s">
         <v>170</v>
       </c>
-      <c r="G33" s="101"/>
-      <c r="H33" s="101"/>
-      <c r="I33" s="101"/>
-      <c r="J33" s="101"/>
-      <c r="K33" s="101"/>
-      <c r="L33" s="101"/>
-      <c r="M33" s="102"/>
+      <c r="G33" s="100"/>
+      <c r="H33" s="100"/>
+      <c r="I33" s="100"/>
+      <c r="J33" s="100"/>
+      <c r="K33" s="100"/>
+      <c r="L33" s="100"/>
+      <c r="M33" s="101"/>
       <c r="N33" s="25" t="s">
         <v>171</v>
       </c>
@@ -10904,25 +10904,25 @@
       <c r="V34" s="9"/>
     </row>
     <row r="35" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="104" t="s">
+      <c r="A35" s="117" t="s">
         <v>173</v>
       </c>
-      <c r="B35" s="104"/>
-      <c r="C35" s="104"/>
-      <c r="D35" s="104"/>
-      <c r="E35" s="104"/>
-      <c r="F35" s="104"/>
-      <c r="G35" s="104"/>
-      <c r="H35" s="104"/>
-      <c r="I35" s="104"/>
-      <c r="J35" s="104"/>
-      <c r="K35" s="104"/>
-      <c r="L35" s="104"/>
-      <c r="M35" s="104"/>
-      <c r="N35" s="104"/>
-      <c r="O35" s="104"/>
-      <c r="P35" s="104"/>
-      <c r="Q35" s="104"/>
+      <c r="B35" s="117"/>
+      <c r="C35" s="117"/>
+      <c r="D35" s="117"/>
+      <c r="E35" s="117"/>
+      <c r="F35" s="117"/>
+      <c r="G35" s="117"/>
+      <c r="H35" s="117"/>
+      <c r="I35" s="117"/>
+      <c r="J35" s="117"/>
+      <c r="K35" s="117"/>
+      <c r="L35" s="117"/>
+      <c r="M35" s="117"/>
+      <c r="N35" s="117"/>
+      <c r="O35" s="117"/>
+      <c r="P35" s="117"/>
+      <c r="Q35" s="117"/>
       <c r="R35" s="26"/>
       <c r="S35" s="26"/>
       <c r="T35" s="26"/>
@@ -11065,14 +11065,14 @@
       <c r="I38" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J38" s="97" t="s">
+      <c r="J38" s="102" t="s">
         <v>188</v>
       </c>
-      <c r="K38" s="99"/>
-      <c r="L38" s="97" t="s">
+      <c r="K38" s="104"/>
+      <c r="L38" s="102" t="s">
         <v>189</v>
       </c>
-      <c r="M38" s="99"/>
+      <c r="M38" s="104"/>
       <c r="N38" s="24" t="s">
         <v>190</v>
       </c>
@@ -11152,18 +11152,18 @@
       <c r="G40" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="H40" s="105" t="s">
+      <c r="H40" s="97" t="s">
         <v>194</v>
       </c>
-      <c r="I40" s="105"/>
-      <c r="J40" s="105" t="s">
+      <c r="I40" s="97"/>
+      <c r="J40" s="97" t="s">
         <v>195</v>
       </c>
-      <c r="K40" s="105"/>
-      <c r="L40" s="105" t="s">
+      <c r="K40" s="97"/>
+      <c r="L40" s="97" t="s">
         <v>196</v>
       </c>
-      <c r="M40" s="105"/>
+      <c r="M40" s="97"/>
       <c r="N40" s="24" t="s">
         <v>197</v>
       </c>
@@ -11242,10 +11242,10 @@
       <c r="F42" s="32" t="s">
         <v>202</v>
       </c>
-      <c r="G42" s="97" t="s">
+      <c r="G42" s="102" t="s">
         <v>203</v>
       </c>
-      <c r="H42" s="99"/>
+      <c r="H42" s="104"/>
       <c r="I42" s="32" t="s">
         <v>204</v>
       </c>
@@ -11458,11 +11458,11 @@
       <c r="J46" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K46" s="97" t="s">
+      <c r="K46" s="102" t="s">
         <v>227</v>
       </c>
-      <c r="L46" s="98"/>
-      <c r="M46" s="99"/>
+      <c r="L46" s="103"/>
+      <c r="M46" s="104"/>
       <c r="N46" s="24" t="s">
         <v>228</v>
       </c>
@@ -11534,16 +11534,16 @@
         <f t="shared" si="0"/>
         <v>AE</v>
       </c>
-      <c r="F48" s="97" t="s">
+      <c r="F48" s="102" t="s">
         <v>232</v>
       </c>
-      <c r="G48" s="98"/>
-      <c r="H48" s="98"/>
-      <c r="I48" s="98"/>
-      <c r="J48" s="98"/>
-      <c r="K48" s="98"/>
-      <c r="L48" s="98"/>
-      <c r="M48" s="99"/>
+      <c r="G48" s="103"/>
+      <c r="H48" s="103"/>
+      <c r="I48" s="103"/>
+      <c r="J48" s="103"/>
+      <c r="K48" s="103"/>
+      <c r="L48" s="103"/>
+      <c r="M48" s="104"/>
       <c r="N48" s="24" t="s">
         <v>233</v>
       </c>
@@ -11624,13 +11624,13 @@
       <c r="H50" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I50" s="100" t="s">
+      <c r="I50" s="99" t="s">
         <v>235</v>
       </c>
-      <c r="J50" s="101"/>
-      <c r="K50" s="101"/>
-      <c r="L50" s="101"/>
-      <c r="M50" s="102"/>
+      <c r="J50" s="100"/>
+      <c r="K50" s="100"/>
+      <c r="L50" s="100"/>
+      <c r="M50" s="101"/>
       <c r="N50" s="24" t="s">
         <v>236</v>
       </c>
@@ -12399,25 +12399,25 @@
       <c r="V67" s="9"/>
     </row>
     <row r="68" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="104" t="s">
+      <c r="A68" s="117" t="s">
         <v>259</v>
       </c>
-      <c r="B68" s="104"/>
-      <c r="C68" s="104"/>
-      <c r="D68" s="104"/>
-      <c r="E68" s="104"/>
-      <c r="F68" s="104"/>
-      <c r="G68" s="104"/>
-      <c r="H68" s="104"/>
-      <c r="I68" s="104"/>
-      <c r="J68" s="104"/>
-      <c r="K68" s="104"/>
-      <c r="L68" s="104"/>
-      <c r="M68" s="104"/>
-      <c r="N68" s="104"/>
-      <c r="O68" s="104"/>
-      <c r="P68" s="104"/>
-      <c r="Q68" s="104"/>
+      <c r="B68" s="117"/>
+      <c r="C68" s="117"/>
+      <c r="D68" s="117"/>
+      <c r="E68" s="117"/>
+      <c r="F68" s="117"/>
+      <c r="G68" s="117"/>
+      <c r="H68" s="117"/>
+      <c r="I68" s="117"/>
+      <c r="J68" s="117"/>
+      <c r="K68" s="117"/>
+      <c r="L68" s="117"/>
+      <c r="M68" s="117"/>
+      <c r="N68" s="117"/>
+      <c r="O68" s="117"/>
+      <c r="P68" s="117"/>
+      <c r="Q68" s="117"/>
       <c r="R68" s="26"/>
       <c r="S68" s="26"/>
       <c r="T68" s="26"/>
@@ -12445,18 +12445,18 @@
         <f>BIN2HEX(P69,2)</f>
         <v>55</v>
       </c>
-      <c r="F69" s="119" t="s">
+      <c r="F69" s="114" t="s">
         <v>260</v>
       </c>
-      <c r="G69" s="120"/>
-      <c r="H69" s="120"/>
-      <c r="I69" s="121"/>
-      <c r="J69" s="119" t="s">
+      <c r="G69" s="115"/>
+      <c r="H69" s="115"/>
+      <c r="I69" s="116"/>
+      <c r="J69" s="114" t="s">
         <v>261</v>
       </c>
-      <c r="K69" s="120"/>
-      <c r="L69" s="120"/>
-      <c r="M69" s="121"/>
+      <c r="K69" s="115"/>
+      <c r="L69" s="115"/>
+      <c r="M69" s="116"/>
       <c r="N69" s="10" t="s">
         <v>262</v>
       </c>
@@ -13695,25 +13695,25 @@
       <c r="V100" s="9"/>
     </row>
     <row r="101" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="104" t="s">
+      <c r="A101" s="117" t="s">
         <v>265</v>
       </c>
-      <c r="B101" s="104"/>
-      <c r="C101" s="104"/>
-      <c r="D101" s="104"/>
-      <c r="E101" s="104"/>
-      <c r="F101" s="104"/>
-      <c r="G101" s="104"/>
-      <c r="H101" s="104"/>
-      <c r="I101" s="104"/>
-      <c r="J101" s="104"/>
-      <c r="K101" s="104"/>
-      <c r="L101" s="104"/>
-      <c r="M101" s="104"/>
-      <c r="N101" s="104"/>
-      <c r="O101" s="104"/>
-      <c r="P101" s="104"/>
-      <c r="Q101" s="104"/>
+      <c r="B101" s="117"/>
+      <c r="C101" s="117"/>
+      <c r="D101" s="117"/>
+      <c r="E101" s="117"/>
+      <c r="F101" s="117"/>
+      <c r="G101" s="117"/>
+      <c r="H101" s="117"/>
+      <c r="I101" s="117"/>
+      <c r="J101" s="117"/>
+      <c r="K101" s="117"/>
+      <c r="L101" s="117"/>
+      <c r="M101" s="117"/>
+      <c r="N101" s="117"/>
+      <c r="O101" s="117"/>
+      <c r="P101" s="117"/>
+      <c r="Q101" s="117"/>
       <c r="R101" s="26"/>
       <c r="S101" s="26"/>
       <c r="T101" s="26"/>
@@ -13938,19 +13938,19 @@
       <c r="F106" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G106" s="97" t="s">
+      <c r="G106" s="102" t="s">
         <v>278</v>
       </c>
-      <c r="H106" s="98"/>
-      <c r="I106" s="99"/>
+      <c r="H106" s="103"/>
+      <c r="I106" s="104"/>
       <c r="J106" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K106" s="97" t="s">
+      <c r="K106" s="102" t="s">
         <v>279</v>
       </c>
-      <c r="L106" s="98"/>
-      <c r="M106" s="99"/>
+      <c r="L106" s="103"/>
+      <c r="M106" s="104"/>
       <c r="N106" s="25" t="s">
         <v>280</v>
       </c>
@@ -13982,17 +13982,17 @@
       <c r="D107" s="20"/>
       <c r="E107" s="16"/>
       <c r="F107" s="31"/>
-      <c r="G107" s="109" t="s">
+      <c r="G107" s="98" t="s">
         <v>154</v>
       </c>
-      <c r="H107" s="109"/>
-      <c r="I107" s="109"/>
+      <c r="H107" s="98"/>
+      <c r="I107" s="98"/>
       <c r="J107" s="30"/>
-      <c r="K107" s="109" t="s">
+      <c r="K107" s="98" t="s">
         <v>155</v>
       </c>
-      <c r="L107" s="109"/>
-      <c r="M107" s="109"/>
+      <c r="L107" s="98"/>
+      <c r="M107" s="98"/>
       <c r="N107" s="10"/>
       <c r="O107" s="9"/>
       <c r="P107" s="9"/>
@@ -14030,14 +14030,14 @@
       <c r="G108" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H108" s="105" t="s">
+      <c r="H108" s="97" t="s">
         <v>282</v>
       </c>
-      <c r="I108" s="105"/>
-      <c r="J108" s="105"/>
-      <c r="K108" s="105"/>
-      <c r="L108" s="105"/>
-      <c r="M108" s="105"/>
+      <c r="I108" s="97"/>
+      <c r="J108" s="97"/>
+      <c r="K108" s="97"/>
+      <c r="L108" s="97"/>
+      <c r="M108" s="97"/>
       <c r="N108" s="25" t="s">
         <v>283</v>
       </c>
@@ -14070,14 +14070,14 @@
       <c r="E109" s="16"/>
       <c r="F109" s="31"/>
       <c r="G109" s="31"/>
-      <c r="H109" s="109" t="s">
+      <c r="H109" s="98" t="s">
         <v>285</v>
       </c>
-      <c r="I109" s="109"/>
-      <c r="J109" s="109"/>
-      <c r="K109" s="109"/>
-      <c r="L109" s="109"/>
-      <c r="M109" s="109"/>
+      <c r="I109" s="98"/>
+      <c r="J109" s="98"/>
+      <c r="K109" s="98"/>
+      <c r="L109" s="98"/>
+      <c r="M109" s="98"/>
       <c r="N109" s="10"/>
       <c r="O109" s="9"/>
       <c r="P109" s="9"/>
@@ -14188,20 +14188,20 @@
         <f>BIN2HEX(P112,2)</f>
         <v>01</v>
       </c>
-      <c r="F112" s="105" t="s">
+      <c r="F112" s="97" t="s">
         <v>286</v>
       </c>
-      <c r="G112" s="105"/>
+      <c r="G112" s="97"/>
       <c r="H112" s="32" t="s">
         <v>287</v>
       </c>
-      <c r="I112" s="105" t="s">
+      <c r="I112" s="97" t="s">
         <v>288</v>
       </c>
-      <c r="J112" s="105"/>
-      <c r="K112" s="105"/>
-      <c r="L112" s="105"/>
-      <c r="M112" s="105"/>
+      <c r="J112" s="97"/>
+      <c r="K112" s="97"/>
+      <c r="L112" s="97"/>
+      <c r="M112" s="97"/>
       <c r="N112" s="25" t="s">
         <v>289</v>
       </c>
@@ -14232,20 +14232,20 @@
       <c r="C113" s="19"/>
       <c r="D113" s="20"/>
       <c r="E113" s="16"/>
-      <c r="F113" s="109" t="s">
+      <c r="F113" s="98" t="s">
         <v>291</v>
       </c>
-      <c r="G113" s="109"/>
+      <c r="G113" s="98"/>
       <c r="H113" s="30" t="s">
         <v>292</v>
       </c>
-      <c r="I113" s="109" t="s">
+      <c r="I113" s="98" t="s">
         <v>293</v>
       </c>
-      <c r="J113" s="109"/>
-      <c r="K113" s="109"/>
-      <c r="L113" s="109"/>
-      <c r="M113" s="109"/>
+      <c r="J113" s="98"/>
+      <c r="K113" s="98"/>
+      <c r="L113" s="98"/>
+      <c r="M113" s="98"/>
       <c r="N113" s="10"/>
       <c r="O113" s="9"/>
       <c r="P113" s="9"/>
@@ -14517,16 +14517,16 @@
       <c r="G120" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="H120" s="105" t="s">
+      <c r="H120" s="97" t="s">
         <v>296</v>
       </c>
-      <c r="I120" s="105"/>
-      <c r="J120" s="105" t="s">
+      <c r="I120" s="97"/>
+      <c r="J120" s="97" t="s">
         <v>297</v>
       </c>
-      <c r="K120" s="105"/>
-      <c r="L120" s="105"/>
-      <c r="M120" s="105"/>
+      <c r="K120" s="97"/>
+      <c r="L120" s="97"/>
+      <c r="M120" s="97"/>
       <c r="N120" s="25" t="s">
         <v>298</v>
       </c>
@@ -14563,16 +14563,16 @@
       <c r="G121" s="31" t="s">
         <v>301</v>
       </c>
-      <c r="H121" s="109" t="s">
+      <c r="H121" s="98" t="s">
         <v>302</v>
       </c>
-      <c r="I121" s="109"/>
-      <c r="J121" s="109" t="s">
+      <c r="I121" s="98"/>
+      <c r="J121" s="98" t="s">
         <v>303</v>
       </c>
-      <c r="K121" s="109"/>
-      <c r="L121" s="109"/>
-      <c r="M121" s="109"/>
+      <c r="K121" s="98"/>
+      <c r="L121" s="98"/>
+      <c r="M121" s="98"/>
       <c r="N121" s="10"/>
       <c r="O121" s="9"/>
       <c r="P121" s="9"/>
@@ -15035,16 +15035,16 @@
         <f>BIN2HEX(P132,2)</f>
         <v>00</v>
       </c>
-      <c r="F132" s="100" t="s">
+      <c r="F132" s="99" t="s">
         <v>315</v>
       </c>
-      <c r="G132" s="101"/>
-      <c r="H132" s="101"/>
-      <c r="I132" s="101"/>
-      <c r="J132" s="101"/>
-      <c r="K132" s="101"/>
-      <c r="L132" s="101"/>
-      <c r="M132" s="102"/>
+      <c r="G132" s="100"/>
+      <c r="H132" s="100"/>
+      <c r="I132" s="100"/>
+      <c r="J132" s="100"/>
+      <c r="K132" s="100"/>
+      <c r="L132" s="100"/>
+      <c r="M132" s="101"/>
       <c r="N132" s="10" t="s">
         <v>316</v>
       </c>
@@ -16360,30 +16360,30 @@
       <c r="V165" s="9"/>
     </row>
     <row r="166" spans="1:22" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="123" t="s">
+      <c r="A166" s="111" t="s">
         <v>319</v>
       </c>
-      <c r="B166" s="123"/>
-      <c r="C166" s="123"/>
-      <c r="D166" s="123"/>
-      <c r="E166" s="123"/>
-      <c r="F166" s="123"/>
-      <c r="G166" s="123"/>
-      <c r="H166" s="123"/>
-      <c r="I166" s="123"/>
-      <c r="J166" s="123"/>
-      <c r="K166" s="123"/>
-      <c r="L166" s="123"/>
-      <c r="M166" s="123"/>
-      <c r="N166" s="123"/>
-      <c r="O166" s="123"/>
-      <c r="P166" s="123"/>
-      <c r="Q166" s="123"/>
-      <c r="R166" s="123"/>
-      <c r="S166" s="123"/>
-      <c r="T166" s="123"/>
-      <c r="U166" s="123"/>
-      <c r="V166" s="123"/>
+      <c r="B166" s="111"/>
+      <c r="C166" s="111"/>
+      <c r="D166" s="111"/>
+      <c r="E166" s="111"/>
+      <c r="F166" s="111"/>
+      <c r="G166" s="111"/>
+      <c r="H166" s="111"/>
+      <c r="I166" s="111"/>
+      <c r="J166" s="111"/>
+      <c r="K166" s="111"/>
+      <c r="L166" s="111"/>
+      <c r="M166" s="111"/>
+      <c r="N166" s="111"/>
+      <c r="O166" s="111"/>
+      <c r="P166" s="111"/>
+      <c r="Q166" s="111"/>
+      <c r="R166" s="111"/>
+      <c r="S166" s="111"/>
+      <c r="T166" s="111"/>
+      <c r="U166" s="111"/>
+      <c r="V166" s="111"/>
     </row>
     <row r="167" spans="1:22" ht="20.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A167" s="16" t="str">
@@ -16406,14 +16406,14 @@
         <f>BIN2HEX(P167,2)</f>
         <v>0B</v>
       </c>
-      <c r="F167" s="117" t="s">
+      <c r="F167" s="108" t="s">
         <v>320</v>
       </c>
-      <c r="G167" s="118"/>
-      <c r="H167" s="117" t="s">
+      <c r="G167" s="109"/>
+      <c r="H167" s="108" t="s">
         <v>321</v>
       </c>
-      <c r="I167" s="118"/>
+      <c r="I167" s="109"/>
       <c r="J167" s="9" t="s">
         <v>322</v>
       </c>
@@ -16456,14 +16456,14 @@
       <c r="C168" s="19"/>
       <c r="D168" s="20"/>
       <c r="E168" s="16"/>
-      <c r="F168" s="109" t="s">
+      <c r="F168" s="98" t="s">
         <v>329</v>
       </c>
-      <c r="G168" s="109"/>
-      <c r="H168" s="109" t="s">
+      <c r="G168" s="98"/>
+      <c r="H168" s="98" t="s">
         <v>330</v>
       </c>
-      <c r="I168" s="109"/>
+      <c r="I168" s="98"/>
       <c r="J168" s="31" t="s">
         <v>331</v>
       </c>
@@ -16514,13 +16514,13 @@
       <c r="H169" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="I169" s="117" t="s">
+      <c r="I169" s="108" t="s">
         <v>334</v>
       </c>
-      <c r="J169" s="125"/>
-      <c r="K169" s="125"/>
-      <c r="L169" s="125"/>
-      <c r="M169" s="118"/>
+      <c r="J169" s="113"/>
+      <c r="K169" s="113"/>
+      <c r="L169" s="113"/>
+      <c r="M169" s="109"/>
       <c r="N169" s="25" t="s">
         <v>335</v>
       </c>
@@ -16592,16 +16592,16 @@
         <f>BIN2HEX(P171,2)</f>
         <v>00</v>
       </c>
-      <c r="F171" s="124" t="s">
+      <c r="F171" s="112" t="s">
         <v>337</v>
       </c>
-      <c r="G171" s="124"/>
-      <c r="H171" s="124"/>
-      <c r="I171" s="124"/>
-      <c r="J171" s="124"/>
-      <c r="K171" s="124"/>
-      <c r="L171" s="124"/>
-      <c r="M171" s="124"/>
+      <c r="G171" s="112"/>
+      <c r="H171" s="112"/>
+      <c r="I171" s="112"/>
+      <c r="J171" s="112"/>
+      <c r="K171" s="112"/>
+      <c r="L171" s="112"/>
+      <c r="M171" s="112"/>
       <c r="N171" s="25" t="s">
         <v>338</v>
       </c>
@@ -16632,16 +16632,16 @@
       <c r="C172" s="19"/>
       <c r="D172" s="20"/>
       <c r="E172" s="16"/>
-      <c r="F172" s="109" t="s">
+      <c r="F172" s="98" t="s">
         <v>336</v>
       </c>
-      <c r="G172" s="109"/>
-      <c r="H172" s="109"/>
-      <c r="I172" s="109"/>
-      <c r="J172" s="109"/>
-      <c r="K172" s="109"/>
-      <c r="L172" s="109"/>
-      <c r="M172" s="109"/>
+      <c r="G172" s="98"/>
+      <c r="H172" s="98"/>
+      <c r="I172" s="98"/>
+      <c r="J172" s="98"/>
+      <c r="K172" s="98"/>
+      <c r="L172" s="98"/>
+      <c r="M172" s="98"/>
       <c r="N172" s="10"/>
       <c r="O172" s="9"/>
       <c r="P172" s="9"/>
@@ -18944,30 +18944,30 @@
       <c r="V230" s="9"/>
     </row>
     <row r="231" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="122" t="s">
+      <c r="A231" s="110" t="s">
         <v>339</v>
       </c>
-      <c r="B231" s="122"/>
-      <c r="C231" s="122"/>
-      <c r="D231" s="122"/>
-      <c r="E231" s="122"/>
-      <c r="F231" s="122"/>
-      <c r="G231" s="122"/>
-      <c r="H231" s="122"/>
-      <c r="I231" s="122"/>
-      <c r="J231" s="122"/>
-      <c r="K231" s="122"/>
-      <c r="L231" s="122"/>
-      <c r="M231" s="122"/>
-      <c r="N231" s="122"/>
-      <c r="O231" s="122"/>
-      <c r="P231" s="122"/>
-      <c r="Q231" s="122"/>
-      <c r="R231" s="122"/>
-      <c r="S231" s="122"/>
-      <c r="T231" s="122"/>
-      <c r="U231" s="122"/>
-      <c r="V231" s="122"/>
+      <c r="B231" s="110"/>
+      <c r="C231" s="110"/>
+      <c r="D231" s="110"/>
+      <c r="E231" s="110"/>
+      <c r="F231" s="110"/>
+      <c r="G231" s="110"/>
+      <c r="H231" s="110"/>
+      <c r="I231" s="110"/>
+      <c r="J231" s="110"/>
+      <c r="K231" s="110"/>
+      <c r="L231" s="110"/>
+      <c r="M231" s="110"/>
+      <c r="N231" s="110"/>
+      <c r="O231" s="110"/>
+      <c r="P231" s="110"/>
+      <c r="Q231" s="110"/>
+      <c r="R231" s="110"/>
+      <c r="S231" s="110"/>
+      <c r="T231" s="110"/>
+      <c r="U231" s="110"/>
+      <c r="V231" s="110"/>
     </row>
     <row r="232" spans="1:22" ht="20.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A232" s="21" t="str">
@@ -18996,16 +18996,16 @@
       <c r="G232" s="32" t="s">
         <v>341</v>
       </c>
-      <c r="H232" s="105" t="s">
+      <c r="H232" s="97" t="s">
         <v>342</v>
       </c>
-      <c r="I232" s="105"/>
-      <c r="J232" s="105" t="s">
+      <c r="I232" s="97"/>
+      <c r="J232" s="97" t="s">
         <v>343</v>
       </c>
-      <c r="K232" s="105"/>
-      <c r="L232" s="105"/>
-      <c r="M232" s="105"/>
+      <c r="K232" s="97"/>
+      <c r="L232" s="97"/>
+      <c r="M232" s="97"/>
       <c r="N232" s="10" t="s">
         <v>344</v>
       </c>
@@ -19045,16 +19045,16 @@
       <c r="G233" s="31" t="s">
         <v>346</v>
       </c>
-      <c r="H233" s="109" t="s">
+      <c r="H233" s="98" t="s">
         <v>347</v>
       </c>
-      <c r="I233" s="109"/>
-      <c r="J233" s="109" t="s">
+      <c r="I233" s="98"/>
+      <c r="J233" s="98" t="s">
         <v>348</v>
       </c>
-      <c r="K233" s="109"/>
-      <c r="L233" s="109"/>
-      <c r="M233" s="109"/>
+      <c r="K233" s="98"/>
+      <c r="L233" s="98"/>
+      <c r="M233" s="98"/>
       <c r="N233" s="10"/>
       <c r="O233" s="10"/>
       <c r="P233" s="10"/>
@@ -19092,16 +19092,16 @@
       <c r="G234" s="32" t="s">
         <v>350</v>
       </c>
-      <c r="H234" s="105" t="s">
+      <c r="H234" s="97" t="s">
         <v>351</v>
       </c>
-      <c r="I234" s="105"/>
-      <c r="J234" s="105" t="s">
+      <c r="I234" s="97"/>
+      <c r="J234" s="97" t="s">
         <v>352</v>
       </c>
-      <c r="K234" s="105"/>
-      <c r="L234" s="105"/>
-      <c r="M234" s="105"/>
+      <c r="K234" s="97"/>
+      <c r="L234" s="97"/>
+      <c r="M234" s="97"/>
       <c r="N234" s="10" t="s">
         <v>353</v>
       </c>
@@ -19141,16 +19141,16 @@
       <c r="G235" s="31" t="s">
         <v>355</v>
       </c>
-      <c r="H235" s="109" t="s">
+      <c r="H235" s="98" t="s">
         <v>356</v>
       </c>
-      <c r="I235" s="109"/>
-      <c r="J235" s="109" t="s">
+      <c r="I235" s="98"/>
+      <c r="J235" s="98" t="s">
         <v>357</v>
       </c>
-      <c r="K235" s="109"/>
-      <c r="L235" s="109"/>
-      <c r="M235" s="109"/>
+      <c r="K235" s="98"/>
+      <c r="L235" s="98"/>
+      <c r="M235" s="98"/>
       <c r="N235" s="10"/>
       <c r="O235" s="10"/>
       <c r="P235" s="10"/>
@@ -19188,16 +19188,16 @@
       <c r="G236" s="32" t="s">
         <v>359</v>
       </c>
-      <c r="H236" s="105" t="s">
+      <c r="H236" s="97" t="s">
         <v>360</v>
       </c>
-      <c r="I236" s="105"/>
-      <c r="J236" s="105" t="s">
+      <c r="I236" s="97"/>
+      <c r="J236" s="97" t="s">
         <v>361</v>
       </c>
-      <c r="K236" s="105"/>
-      <c r="L236" s="105"/>
-      <c r="M236" s="105"/>
+      <c r="K236" s="97"/>
+      <c r="L236" s="97"/>
+      <c r="M236" s="97"/>
       <c r="N236" s="10" t="s">
         <v>362</v>
       </c>
@@ -19237,16 +19237,16 @@
       <c r="G237" s="31" t="s">
         <v>364</v>
       </c>
-      <c r="H237" s="109" t="s">
+      <c r="H237" s="98" t="s">
         <v>365</v>
       </c>
-      <c r="I237" s="109"/>
-      <c r="J237" s="109" t="s">
+      <c r="I237" s="98"/>
+      <c r="J237" s="98" t="s">
         <v>366</v>
       </c>
-      <c r="K237" s="109"/>
-      <c r="L237" s="109"/>
-      <c r="M237" s="109"/>
+      <c r="K237" s="98"/>
+      <c r="L237" s="98"/>
+      <c r="M237" s="98"/>
       <c r="N237" s="10"/>
       <c r="O237" s="10"/>
       <c r="P237" s="10"/>
@@ -19442,14 +19442,14 @@
         <f t="shared" si="1"/>
         <v>00</v>
       </c>
-      <c r="F242" s="105" t="s">
+      <c r="F242" s="97" t="s">
         <v>367</v>
       </c>
-      <c r="G242" s="105"/>
-      <c r="H242" s="105" t="s">
+      <c r="G242" s="97"/>
+      <c r="H242" s="97" t="s">
         <v>368</v>
       </c>
-      <c r="I242" s="105"/>
+      <c r="I242" s="97"/>
       <c r="J242" s="32" t="s">
         <v>369</v>
       </c>
@@ -19495,14 +19495,14 @@
         <f t="shared" si="1"/>
         <v>00</v>
       </c>
-      <c r="F243" s="109" t="s">
+      <c r="F243" s="98" t="s">
         <v>374</v>
       </c>
-      <c r="G243" s="109"/>
-      <c r="H243" s="109" t="s">
+      <c r="G243" s="98"/>
+      <c r="H243" s="98" t="s">
         <v>375</v>
       </c>
-      <c r="I243" s="109"/>
+      <c r="I243" s="98"/>
       <c r="J243" s="31" t="s">
         <v>376</v>
       </c>
@@ -19546,22 +19546,22 @@
         <f>BIN2HEX(P244,2)</f>
         <v>00</v>
       </c>
-      <c r="F244" s="105" t="s">
+      <c r="F244" s="97" t="s">
         <v>380</v>
       </c>
-      <c r="G244" s="105"/>
-      <c r="H244" s="105" t="s">
+      <c r="G244" s="97"/>
+      <c r="H244" s="97" t="s">
         <v>381</v>
       </c>
-      <c r="I244" s="105"/>
-      <c r="J244" s="105" t="s">
+      <c r="I244" s="97"/>
+      <c r="J244" s="97" t="s">
         <v>382</v>
       </c>
-      <c r="K244" s="105"/>
-      <c r="L244" s="105" t="s">
+      <c r="K244" s="97"/>
+      <c r="L244" s="97" t="s">
         <v>383</v>
       </c>
-      <c r="M244" s="105"/>
+      <c r="M244" s="97"/>
       <c r="N244" s="10" t="s">
         <v>384</v>
       </c>
@@ -19595,22 +19595,22 @@
         <f t="shared" si="1"/>
         <v>00</v>
       </c>
-      <c r="F245" s="109" t="s">
+      <c r="F245" s="98" t="s">
         <v>385</v>
       </c>
-      <c r="G245" s="109"/>
-      <c r="H245" s="109" t="s">
+      <c r="G245" s="98"/>
+      <c r="H245" s="98" t="s">
         <v>386</v>
       </c>
-      <c r="I245" s="109"/>
-      <c r="J245" s="109" t="s">
+      <c r="I245" s="98"/>
+      <c r="J245" s="98" t="s">
         <v>387</v>
       </c>
-      <c r="K245" s="109"/>
-      <c r="L245" s="109" t="s">
+      <c r="K245" s="98"/>
+      <c r="L245" s="98" t="s">
         <v>388</v>
       </c>
-      <c r="M245" s="109"/>
+      <c r="M245" s="98"/>
       <c r="N245" s="10"/>
       <c r="O245" s="9"/>
       <c r="P245" s="10"/>
@@ -19642,20 +19642,20 @@
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="F246" s="97" t="s">
+      <c r="F246" s="102" t="s">
         <v>389</v>
       </c>
-      <c r="G246" s="99"/>
+      <c r="G246" s="104"/>
       <c r="H246" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="I246" s="105" t="s">
+      <c r="I246" s="97" t="s">
         <v>390</v>
       </c>
-      <c r="J246" s="105"/>
-      <c r="K246" s="105"/>
-      <c r="L246" s="105"/>
-      <c r="M246" s="105"/>
+      <c r="J246" s="97"/>
+      <c r="K246" s="97"/>
+      <c r="L246" s="97"/>
+      <c r="M246" s="97"/>
       <c r="N246" s="10" t="s">
         <v>391</v>
       </c>
@@ -19694,13 +19694,13 @@
       </c>
       <c r="G247" s="96"/>
       <c r="H247" s="30"/>
-      <c r="I247" s="109" t="s">
+      <c r="I247" s="98" t="s">
         <v>394</v>
       </c>
-      <c r="J247" s="109"/>
-      <c r="K247" s="109"/>
-      <c r="L247" s="109"/>
-      <c r="M247" s="109"/>
+      <c r="J247" s="98"/>
+      <c r="K247" s="98"/>
+      <c r="L247" s="98"/>
+      <c r="M247" s="98"/>
       <c r="N247" s="10"/>
       <c r="O247" s="9"/>
       <c r="P247" s="10"/>
@@ -19732,20 +19732,20 @@
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
-      <c r="F248" s="97" t="s">
+      <c r="F248" s="102" t="s">
         <v>395</v>
       </c>
-      <c r="G248" s="99"/>
+      <c r="G248" s="104"/>
       <c r="H248" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="I248" s="105" t="s">
+      <c r="I248" s="97" t="s">
         <v>396</v>
       </c>
-      <c r="J248" s="105"/>
-      <c r="K248" s="105"/>
-      <c r="L248" s="105"/>
-      <c r="M248" s="105"/>
+      <c r="J248" s="97"/>
+      <c r="K248" s="97"/>
+      <c r="L248" s="97"/>
+      <c r="M248" s="97"/>
       <c r="N248" s="10" t="s">
         <v>397</v>
       </c>
@@ -19784,13 +19784,13 @@
       </c>
       <c r="G249" s="96"/>
       <c r="H249" s="30"/>
-      <c r="I249" s="109" t="s">
+      <c r="I249" s="98" t="s">
         <v>400</v>
       </c>
-      <c r="J249" s="109"/>
-      <c r="K249" s="109"/>
-      <c r="L249" s="109"/>
-      <c r="M249" s="109"/>
+      <c r="J249" s="98"/>
+      <c r="K249" s="98"/>
+      <c r="L249" s="98"/>
+      <c r="M249" s="98"/>
       <c r="N249" s="10"/>
       <c r="O249" s="9"/>
       <c r="P249" s="10"/>
@@ -19822,18 +19822,18 @@
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="F250" s="97" t="s">
+      <c r="F250" s="102" t="s">
         <v>401</v>
       </c>
-      <c r="G250" s="99"/>
-      <c r="H250" s="97" t="s">
+      <c r="G250" s="104"/>
+      <c r="H250" s="102" t="s">
         <v>402</v>
       </c>
-      <c r="I250" s="98"/>
-      <c r="J250" s="98"/>
-      <c r="K250" s="98"/>
-      <c r="L250" s="98"/>
-      <c r="M250" s="99"/>
+      <c r="I250" s="103"/>
+      <c r="J250" s="103"/>
+      <c r="K250" s="103"/>
+      <c r="L250" s="103"/>
+      <c r="M250" s="104"/>
       <c r="N250" s="10" t="s">
         <v>403</v>
       </c>
@@ -19916,14 +19916,14 @@
       <c r="G252" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H252" s="97" t="s">
+      <c r="H252" s="102" t="s">
         <v>407</v>
       </c>
-      <c r="I252" s="98"/>
-      <c r="J252" s="98"/>
-      <c r="K252" s="98"/>
-      <c r="L252" s="98"/>
-      <c r="M252" s="99"/>
+      <c r="I252" s="103"/>
+      <c r="J252" s="103"/>
+      <c r="K252" s="103"/>
+      <c r="L252" s="103"/>
+      <c r="M252" s="104"/>
       <c r="N252" s="10" t="s">
         <v>408</v>
       </c>
@@ -20003,14 +20003,14 @@
       <c r="G254" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H254" s="97" t="s">
+      <c r="H254" s="102" t="s">
         <v>413</v>
       </c>
-      <c r="I254" s="98"/>
-      <c r="J254" s="98"/>
-      <c r="K254" s="98"/>
-      <c r="L254" s="98"/>
-      <c r="M254" s="99"/>
+      <c r="I254" s="103"/>
+      <c r="J254" s="103"/>
+      <c r="K254" s="103"/>
+      <c r="L254" s="103"/>
+      <c r="M254" s="104"/>
       <c r="N254" s="10" t="s">
         <v>414</v>
       </c>
@@ -20090,14 +20090,14 @@
       <c r="G256" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H256" s="97" t="s">
+      <c r="H256" s="102" t="s">
         <v>418</v>
       </c>
-      <c r="I256" s="98"/>
-      <c r="J256" s="98"/>
-      <c r="K256" s="98"/>
-      <c r="L256" s="98"/>
-      <c r="M256" s="99"/>
+      <c r="I256" s="103"/>
+      <c r="J256" s="103"/>
+      <c r="K256" s="103"/>
+      <c r="L256" s="103"/>
+      <c r="M256" s="104"/>
       <c r="N256" s="10" t="s">
         <v>419</v>
       </c>
@@ -20329,16 +20329,16 @@
         <f>BIN2HEX(P262,2)</f>
         <v>00</v>
       </c>
-      <c r="F262" s="100" t="s">
+      <c r="F262" s="99" t="s">
         <v>422</v>
       </c>
-      <c r="G262" s="101"/>
-      <c r="H262" s="101"/>
-      <c r="I262" s="101"/>
-      <c r="J262" s="101"/>
-      <c r="K262" s="101"/>
-      <c r="L262" s="101"/>
-      <c r="M262" s="102"/>
+      <c r="G262" s="100"/>
+      <c r="H262" s="100"/>
+      <c r="I262" s="100"/>
+      <c r="J262" s="100"/>
+      <c r="K262" s="100"/>
+      <c r="L262" s="100"/>
+      <c r="M262" s="101"/>
       <c r="N262" s="10" t="s">
         <v>423</v>
       </c>
@@ -20390,30 +20390,30 @@
       <c r="V263" s="9"/>
     </row>
     <row r="264" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="104" t="s">
+      <c r="A264" s="117" t="s">
         <v>425</v>
       </c>
-      <c r="B264" s="104"/>
-      <c r="C264" s="104"/>
-      <c r="D264" s="104"/>
-      <c r="E264" s="104"/>
-      <c r="F264" s="104"/>
-      <c r="G264" s="104"/>
-      <c r="H264" s="104"/>
-      <c r="I264" s="104"/>
-      <c r="J264" s="104"/>
-      <c r="K264" s="104"/>
-      <c r="L264" s="104"/>
-      <c r="M264" s="104"/>
-      <c r="N264" s="104"/>
-      <c r="O264" s="104"/>
-      <c r="P264" s="104"/>
-      <c r="Q264" s="104"/>
-      <c r="R264" s="104"/>
-      <c r="S264" s="104"/>
-      <c r="T264" s="104"/>
-      <c r="U264" s="104"/>
-      <c r="V264" s="104"/>
+      <c r="B264" s="117"/>
+      <c r="C264" s="117"/>
+      <c r="D264" s="117"/>
+      <c r="E264" s="117"/>
+      <c r="F264" s="117"/>
+      <c r="G264" s="117"/>
+      <c r="H264" s="117"/>
+      <c r="I264" s="117"/>
+      <c r="J264" s="117"/>
+      <c r="K264" s="117"/>
+      <c r="L264" s="117"/>
+      <c r="M264" s="117"/>
+      <c r="N264" s="117"/>
+      <c r="O264" s="117"/>
+      <c r="P264" s="117"/>
+      <c r="Q264" s="117"/>
+      <c r="R264" s="117"/>
+      <c r="S264" s="117"/>
+      <c r="T264" s="117"/>
+      <c r="U264" s="117"/>
+      <c r="V264" s="117"/>
     </row>
     <row r="265" spans="1:22" ht="20.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A265" s="16" t="str">
@@ -20436,22 +20436,22 @@
         <f>BIN2HEX(P265,2)</f>
         <v>08</v>
       </c>
-      <c r="F265" s="105" t="s">
+      <c r="F265" s="97" t="s">
         <v>426</v>
       </c>
-      <c r="G265" s="105"/>
-      <c r="H265" s="105"/>
-      <c r="I265" s="105"/>
+      <c r="G265" s="97"/>
+      <c r="H265" s="97"/>
+      <c r="I265" s="97"/>
       <c r="J265" s="32" t="s">
         <v>427</v>
       </c>
       <c r="K265" s="32" t="s">
         <v>428</v>
       </c>
-      <c r="L265" s="105" t="s">
+      <c r="L265" s="97" t="s">
         <v>429</v>
       </c>
-      <c r="M265" s="105"/>
+      <c r="M265" s="97"/>
       <c r="N265" s="10" t="s">
         <v>430</v>
       </c>
@@ -20494,10 +20494,10 @@
       <c r="K266" s="31" t="s">
         <v>434</v>
       </c>
-      <c r="L266" s="112" t="s">
+      <c r="L266" s="118" t="s">
         <v>433</v>
       </c>
-      <c r="M266" s="113"/>
+      <c r="M266" s="119"/>
       <c r="N266" s="10"/>
       <c r="O266" s="10"/>
       <c r="P266" s="10"/>
@@ -20547,10 +20547,10 @@
       <c r="K267" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L267" s="105" t="s">
+      <c r="L267" s="97" t="s">
         <v>435</v>
       </c>
-      <c r="M267" s="105"/>
+      <c r="M267" s="97"/>
       <c r="N267" s="10" t="s">
         <v>436</v>
       </c>
@@ -20716,11 +20716,11 @@
       <c r="J271" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K271" s="97" t="s">
+      <c r="K271" s="102" t="s">
         <v>439</v>
       </c>
-      <c r="L271" s="98"/>
-      <c r="M271" s="99"/>
+      <c r="L271" s="103"/>
+      <c r="M271" s="104"/>
       <c r="N271" s="10" t="s">
         <v>440</v>
       </c>
@@ -20795,11 +20795,11 @@
       <c r="F273" s="32" t="s">
         <v>442</v>
       </c>
-      <c r="G273" s="97" t="s">
+      <c r="G273" s="102" t="s">
         <v>443</v>
       </c>
-      <c r="H273" s="98"/>
-      <c r="I273" s="99"/>
+      <c r="H273" s="103"/>
+      <c r="I273" s="104"/>
       <c r="J273" s="28" t="s">
         <v>38</v>
       </c>
@@ -20845,11 +20845,11 @@
       <c r="F274" s="31" t="s">
         <v>447</v>
       </c>
-      <c r="G274" s="109" t="s">
+      <c r="G274" s="98" t="s">
         <v>448</v>
       </c>
-      <c r="H274" s="109"/>
-      <c r="I274" s="109"/>
+      <c r="H274" s="98"/>
+      <c r="I274" s="98"/>
       <c r="J274" s="31"/>
       <c r="K274" s="31"/>
       <c r="L274" s="31"/>
@@ -20887,16 +20887,16 @@
         <f>BIN2HEX(P275,2)</f>
         <v>75</v>
       </c>
-      <c r="F275" s="105" t="s">
+      <c r="F275" s="97" t="s">
         <v>450</v>
       </c>
-      <c r="G275" s="105"/>
-      <c r="H275" s="105"/>
-      <c r="I275" s="105"/>
-      <c r="J275" s="105"/>
-      <c r="K275" s="105"/>
-      <c r="L275" s="105"/>
-      <c r="M275" s="105"/>
+      <c r="G275" s="97"/>
+      <c r="H275" s="97"/>
+      <c r="I275" s="97"/>
+      <c r="J275" s="97"/>
+      <c r="K275" s="97"/>
+      <c r="L275" s="97"/>
+      <c r="M275" s="97"/>
       <c r="N275" s="25" t="s">
         <v>451</v>
       </c>
@@ -20927,16 +20927,16 @@
       <c r="C276" s="19"/>
       <c r="D276" s="20"/>
       <c r="E276" s="16"/>
-      <c r="F276" s="109" t="s">
+      <c r="F276" s="98" t="s">
         <v>453</v>
       </c>
-      <c r="G276" s="109"/>
-      <c r="H276" s="109"/>
-      <c r="I276" s="109"/>
-      <c r="J276" s="109"/>
-      <c r="K276" s="109"/>
-      <c r="L276" s="109"/>
-      <c r="M276" s="109"/>
+      <c r="G276" s="98"/>
+      <c r="H276" s="98"/>
+      <c r="I276" s="98"/>
+      <c r="J276" s="98"/>
+      <c r="K276" s="98"/>
+      <c r="L276" s="98"/>
+      <c r="M276" s="98"/>
       <c r="N276" s="10"/>
       <c r="O276" s="9"/>
       <c r="P276" s="9"/>
@@ -21078,13 +21078,13 @@
       <c r="H279" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I279" s="98" t="s">
+      <c r="I279" s="103" t="s">
         <v>463</v>
       </c>
-      <c r="J279" s="98"/>
-      <c r="K279" s="98"/>
-      <c r="L279" s="98"/>
-      <c r="M279" s="99"/>
+      <c r="J279" s="103"/>
+      <c r="K279" s="103"/>
+      <c r="L279" s="103"/>
+      <c r="M279" s="104"/>
       <c r="N279" s="25" t="s">
         <v>464</v>
       </c>
@@ -21118,13 +21118,13 @@
       <c r="F280" s="31"/>
       <c r="G280" s="31"/>
       <c r="H280" s="31"/>
-      <c r="I280" s="114" t="s">
+      <c r="I280" s="120" t="s">
         <v>433</v>
       </c>
-      <c r="J280" s="115"/>
-      <c r="K280" s="115"/>
-      <c r="L280" s="115"/>
-      <c r="M280" s="116"/>
+      <c r="J280" s="121"/>
+      <c r="K280" s="121"/>
+      <c r="L280" s="121"/>
+      <c r="M280" s="122"/>
       <c r="N280" s="10"/>
       <c r="O280" s="10"/>
       <c r="P280" s="10"/>
@@ -21165,13 +21165,13 @@
       <c r="H281" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I281" s="98" t="s">
+      <c r="I281" s="103" t="s">
         <v>466</v>
       </c>
-      <c r="J281" s="98"/>
-      <c r="K281" s="98"/>
-      <c r="L281" s="98"/>
-      <c r="M281" s="99"/>
+      <c r="J281" s="103"/>
+      <c r="K281" s="103"/>
+      <c r="L281" s="103"/>
+      <c r="M281" s="104"/>
       <c r="N281" s="25" t="s">
         <v>467</v>
       </c>
@@ -21205,13 +21205,13 @@
       <c r="F282" s="31"/>
       <c r="G282" s="31"/>
       <c r="H282" s="31"/>
-      <c r="I282" s="114" t="s">
+      <c r="I282" s="120" t="s">
         <v>433</v>
       </c>
-      <c r="J282" s="115"/>
-      <c r="K282" s="115"/>
-      <c r="L282" s="115"/>
-      <c r="M282" s="116"/>
+      <c r="J282" s="121"/>
+      <c r="K282" s="121"/>
+      <c r="L282" s="121"/>
+      <c r="M282" s="122"/>
       <c r="N282" s="10"/>
       <c r="O282" s="10"/>
       <c r="P282" s="10"/>
@@ -21717,16 +21717,16 @@
         <f>BIN2HEX(P295,2)</f>
         <v>00</v>
       </c>
-      <c r="F295" s="100" t="s">
+      <c r="F295" s="99" t="s">
         <v>468</v>
       </c>
-      <c r="G295" s="101"/>
-      <c r="H295" s="101"/>
-      <c r="I295" s="101"/>
-      <c r="J295" s="101"/>
-      <c r="K295" s="101"/>
-      <c r="L295" s="101"/>
-      <c r="M295" s="102"/>
+      <c r="G295" s="100"/>
+      <c r="H295" s="100"/>
+      <c r="I295" s="100"/>
+      <c r="J295" s="100"/>
+      <c r="K295" s="100"/>
+      <c r="L295" s="100"/>
+      <c r="M295" s="101"/>
       <c r="N295" s="10" t="s">
         <v>469</v>
       </c>
@@ -24306,30 +24306,30 @@
       <c r="V360" s="9"/>
     </row>
     <row r="361" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A361" s="104" t="s">
+      <c r="A361" s="117" t="s">
         <v>471</v>
       </c>
-      <c r="B361" s="104"/>
-      <c r="C361" s="104"/>
-      <c r="D361" s="104"/>
-      <c r="E361" s="104"/>
-      <c r="F361" s="104"/>
-      <c r="G361" s="104"/>
-      <c r="H361" s="104"/>
-      <c r="I361" s="104"/>
-      <c r="J361" s="104"/>
-      <c r="K361" s="104"/>
-      <c r="L361" s="104"/>
-      <c r="M361" s="104"/>
-      <c r="N361" s="104"/>
-      <c r="O361" s="104"/>
-      <c r="P361" s="104"/>
-      <c r="Q361" s="104"/>
-      <c r="R361" s="104"/>
-      <c r="S361" s="104"/>
-      <c r="T361" s="104"/>
-      <c r="U361" s="104"/>
-      <c r="V361" s="104"/>
+      <c r="B361" s="117"/>
+      <c r="C361" s="117"/>
+      <c r="D361" s="117"/>
+      <c r="E361" s="117"/>
+      <c r="F361" s="117"/>
+      <c r="G361" s="117"/>
+      <c r="H361" s="117"/>
+      <c r="I361" s="117"/>
+      <c r="J361" s="117"/>
+      <c r="K361" s="117"/>
+      <c r="L361" s="117"/>
+      <c r="M361" s="117"/>
+      <c r="N361" s="117"/>
+      <c r="O361" s="117"/>
+      <c r="P361" s="117"/>
+      <c r="Q361" s="117"/>
+      <c r="R361" s="117"/>
+      <c r="S361" s="117"/>
+      <c r="T361" s="117"/>
+      <c r="U361" s="117"/>
+      <c r="V361" s="117"/>
     </row>
     <row r="362" spans="1:22" ht="20.25" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A362" s="16" t="str">
@@ -24568,18 +24568,18 @@
         <f>BIN2HEX(P366,2)</f>
         <v>D4</v>
       </c>
-      <c r="F366" s="97" t="s">
+      <c r="F366" s="102" t="s">
         <v>505</v>
       </c>
-      <c r="G366" s="99"/>
-      <c r="H366" s="97" t="s">
+      <c r="G366" s="104"/>
+      <c r="H366" s="102" t="s">
         <v>506</v>
       </c>
-      <c r="I366" s="99"/>
-      <c r="J366" s="97" t="s">
+      <c r="I366" s="104"/>
+      <c r="J366" s="102" t="s">
         <v>507</v>
       </c>
-      <c r="K366" s="99"/>
+      <c r="K366" s="104"/>
       <c r="L366" s="32" t="s">
         <v>508</v>
       </c>
@@ -24616,18 +24616,18 @@
       <c r="C367" s="19"/>
       <c r="D367" s="20"/>
       <c r="E367" s="16"/>
-      <c r="F367" s="106" t="s">
+      <c r="F367" s="105" t="s">
         <v>512</v>
       </c>
-      <c r="G367" s="108"/>
-      <c r="H367" s="106" t="s">
+      <c r="G367" s="107"/>
+      <c r="H367" s="105" t="s">
         <v>513</v>
       </c>
-      <c r="I367" s="108"/>
-      <c r="J367" s="106" t="s">
+      <c r="I367" s="107"/>
+      <c r="J367" s="105" t="s">
         <v>514</v>
       </c>
-      <c r="K367" s="108"/>
+      <c r="K367" s="107"/>
       <c r="L367" s="31" t="s">
         <v>515</v>
       </c>
@@ -24680,11 +24680,11 @@
       <c r="J368" s="32" t="s">
         <v>519</v>
       </c>
-      <c r="K368" s="97" t="s">
+      <c r="K368" s="102" t="s">
         <v>520</v>
       </c>
-      <c r="L368" s="98"/>
-      <c r="M368" s="99"/>
+      <c r="L368" s="103"/>
+      <c r="M368" s="104"/>
       <c r="N368" s="10" t="s">
         <v>521</v>
       </c>
@@ -24726,11 +24726,11 @@
       <c r="J369" s="31" t="s">
         <v>525</v>
       </c>
-      <c r="K369" s="106" t="s">
+      <c r="K369" s="105" t="s">
         <v>526</v>
       </c>
-      <c r="L369" s="107"/>
-      <c r="M369" s="108"/>
+      <c r="L369" s="106"/>
+      <c r="M369" s="107"/>
       <c r="N369" s="10"/>
       <c r="O369" s="10"/>
       <c r="P369" s="10"/>
@@ -25712,30 +25712,30 @@
       <c r="V393" s="9"/>
     </row>
     <row r="394" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A394" s="104" t="s">
+      <c r="A394" s="117" t="s">
         <v>535</v>
       </c>
-      <c r="B394" s="104"/>
-      <c r="C394" s="104"/>
-      <c r="D394" s="104"/>
-      <c r="E394" s="104"/>
-      <c r="F394" s="104"/>
-      <c r="G394" s="104"/>
-      <c r="H394" s="104"/>
-      <c r="I394" s="104"/>
-      <c r="J394" s="104"/>
-      <c r="K394" s="104"/>
-      <c r="L394" s="104"/>
-      <c r="M394" s="104"/>
-      <c r="N394" s="104"/>
-      <c r="O394" s="104"/>
-      <c r="P394" s="104"/>
-      <c r="Q394" s="104"/>
-      <c r="R394" s="104"/>
-      <c r="S394" s="104"/>
-      <c r="T394" s="104"/>
-      <c r="U394" s="104"/>
-      <c r="V394" s="104"/>
+      <c r="B394" s="117"/>
+      <c r="C394" s="117"/>
+      <c r="D394" s="117"/>
+      <c r="E394" s="117"/>
+      <c r="F394" s="117"/>
+      <c r="G394" s="117"/>
+      <c r="H394" s="117"/>
+      <c r="I394" s="117"/>
+      <c r="J394" s="117"/>
+      <c r="K394" s="117"/>
+      <c r="L394" s="117"/>
+      <c r="M394" s="117"/>
+      <c r="N394" s="117"/>
+      <c r="O394" s="117"/>
+      <c r="P394" s="117"/>
+      <c r="Q394" s="117"/>
+      <c r="R394" s="117"/>
+      <c r="S394" s="117"/>
+      <c r="T394" s="117"/>
+      <c r="U394" s="117"/>
+      <c r="V394" s="117"/>
     </row>
     <row r="395" spans="1:22" ht="20.25" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A395" s="16" t="str">
@@ -25773,11 +25773,11 @@
       <c r="J395" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K395" s="97" t="s">
+      <c r="K395" s="102" t="s">
         <v>536</v>
       </c>
-      <c r="L395" s="98"/>
-      <c r="M395" s="99"/>
+      <c r="L395" s="103"/>
+      <c r="M395" s="104"/>
       <c r="N395" s="10" t="s">
         <v>537</v>
       </c>
@@ -25813,9 +25813,9 @@
       <c r="H396" s="77"/>
       <c r="I396" s="77"/>
       <c r="J396" s="77"/>
-      <c r="K396" s="106"/>
-      <c r="L396" s="107"/>
-      <c r="M396" s="108"/>
+      <c r="K396" s="105"/>
+      <c r="L396" s="106"/>
+      <c r="M396" s="107"/>
       <c r="N396" s="10"/>
       <c r="O396" s="9"/>
       <c r="P396" s="9"/>
@@ -25850,11 +25850,11 @@
       <c r="F397" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="G397" s="97" t="s">
+      <c r="G397" s="102" t="s">
         <v>538</v>
       </c>
-      <c r="H397" s="98"/>
-      <c r="I397" s="99"/>
+      <c r="H397" s="103"/>
+      <c r="I397" s="104"/>
       <c r="J397" s="28" t="s">
         <v>38</v>
       </c>
@@ -25940,16 +25940,16 @@
         <f t="shared" si="3"/>
         <v>00</v>
       </c>
-      <c r="F399" s="97" t="s">
+      <c r="F399" s="102" t="s">
         <v>543</v>
       </c>
-      <c r="G399" s="98"/>
-      <c r="H399" s="98"/>
-      <c r="I399" s="98"/>
-      <c r="J399" s="98"/>
-      <c r="K399" s="98"/>
-      <c r="L399" s="98"/>
-      <c r="M399" s="99"/>
+      <c r="G399" s="103"/>
+      <c r="H399" s="103"/>
+      <c r="I399" s="103"/>
+      <c r="J399" s="103"/>
+      <c r="K399" s="103"/>
+      <c r="L399" s="103"/>
+      <c r="M399" s="104"/>
       <c r="N399" s="10" t="s">
         <v>544</v>
       </c>
@@ -26024,17 +26024,17 @@
       <c r="F401" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="G401" s="97" t="s">
+      <c r="G401" s="102" t="s">
         <v>545</v>
       </c>
-      <c r="H401" s="98"/>
-      <c r="I401" s="99"/>
-      <c r="J401" s="97" t="s">
+      <c r="H401" s="103"/>
+      <c r="I401" s="104"/>
+      <c r="J401" s="102" t="s">
         <v>546</v>
       </c>
-      <c r="K401" s="98"/>
-      <c r="L401" s="98"/>
-      <c r="M401" s="99"/>
+      <c r="K401" s="103"/>
+      <c r="L401" s="103"/>
+      <c r="M401" s="104"/>
       <c r="N401" s="10" t="s">
         <v>547</v>
       </c>
@@ -26108,16 +26108,16 @@
         <f t="shared" si="3"/>
         <v>0A</v>
       </c>
-      <c r="F403" s="97" t="s">
+      <c r="F403" s="102" t="s">
         <v>550</v>
       </c>
-      <c r="G403" s="98"/>
-      <c r="H403" s="98"/>
-      <c r="I403" s="98"/>
-      <c r="J403" s="98"/>
-      <c r="K403" s="98"/>
-      <c r="L403" s="98"/>
-      <c r="M403" s="99"/>
+      <c r="G403" s="103"/>
+      <c r="H403" s="103"/>
+      <c r="I403" s="103"/>
+      <c r="J403" s="103"/>
+      <c r="K403" s="103"/>
+      <c r="L403" s="103"/>
+      <c r="M403" s="104"/>
       <c r="N403" s="10" t="s">
         <v>551</v>
       </c>
@@ -26201,12 +26201,12 @@
       <c r="I405" s="32" t="s">
         <v>553</v>
       </c>
-      <c r="J405" s="97" t="s">
+      <c r="J405" s="102" t="s">
         <v>554</v>
       </c>
-      <c r="K405" s="98"/>
-      <c r="L405" s="98"/>
-      <c r="M405" s="99"/>
+      <c r="K405" s="103"/>
+      <c r="L405" s="103"/>
+      <c r="M405" s="104"/>
       <c r="N405" s="10" t="s">
         <v>555</v>
       </c>
@@ -26280,16 +26280,16 @@
         <f t="shared" si="3"/>
         <v>0A</v>
       </c>
-      <c r="F407" s="97" t="s">
+      <c r="F407" s="102" t="s">
         <v>558</v>
       </c>
-      <c r="G407" s="98"/>
-      <c r="H407" s="98"/>
-      <c r="I407" s="98"/>
-      <c r="J407" s="98"/>
-      <c r="K407" s="98"/>
-      <c r="L407" s="98"/>
-      <c r="M407" s="99"/>
+      <c r="G407" s="103"/>
+      <c r="H407" s="103"/>
+      <c r="I407" s="103"/>
+      <c r="J407" s="103"/>
+      <c r="K407" s="103"/>
+      <c r="L407" s="103"/>
+      <c r="M407" s="104"/>
       <c r="N407" s="10" t="s">
         <v>559</v>
       </c>
@@ -26364,17 +26364,17 @@
       <c r="F409" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G409" s="97" t="s">
+      <c r="G409" s="102" t="s">
         <v>560</v>
       </c>
-      <c r="H409" s="98"/>
-      <c r="I409" s="99"/>
-      <c r="J409" s="97" t="s">
+      <c r="H409" s="103"/>
+      <c r="I409" s="104"/>
+      <c r="J409" s="102" t="s">
         <v>561</v>
       </c>
-      <c r="K409" s="98"/>
-      <c r="L409" s="98"/>
-      <c r="M409" s="99"/>
+      <c r="K409" s="103"/>
+      <c r="L409" s="103"/>
+      <c r="M409" s="104"/>
       <c r="N409" s="10" t="s">
         <v>562</v>
       </c>
@@ -26463,11 +26463,11 @@
       <c r="J411" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K411" s="97" t="s">
+      <c r="K411" s="102" t="s">
         <v>566</v>
       </c>
-      <c r="L411" s="98"/>
-      <c r="M411" s="99"/>
+      <c r="L411" s="103"/>
+      <c r="M411" s="104"/>
       <c r="N411" s="10" t="s">
         <v>567</v>
       </c>
@@ -26541,13 +26541,13 @@
       <c r="H413" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="I413" s="97" t="s">
+      <c r="I413" s="102" t="s">
         <v>569</v>
       </c>
-      <c r="J413" s="98"/>
-      <c r="K413" s="98"/>
-      <c r="L413" s="98"/>
-      <c r="M413" s="99"/>
+      <c r="J413" s="103"/>
+      <c r="K413" s="103"/>
+      <c r="L413" s="103"/>
+      <c r="M413" s="104"/>
       <c r="N413" s="10" t="s">
         <v>570</v>
       </c>
@@ -26581,11 +26581,11 @@
       <c r="F414" s="31"/>
       <c r="G414" s="31"/>
       <c r="H414" s="31"/>
-      <c r="I414" s="106"/>
-      <c r="J414" s="107"/>
-      <c r="K414" s="107"/>
-      <c r="L414" s="107"/>
-      <c r="M414" s="108"/>
+      <c r="I414" s="105"/>
+      <c r="J414" s="106"/>
+      <c r="K414" s="106"/>
+      <c r="L414" s="106"/>
+      <c r="M414" s="107"/>
       <c r="U414" s="9"/>
       <c r="V414" s="9"/>
     </row>
@@ -26613,15 +26613,15 @@
       <c r="F415" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G415" s="97" t="s">
+      <c r="G415" s="102" t="s">
         <v>572</v>
       </c>
-      <c r="H415" s="98"/>
-      <c r="I415" s="98"/>
-      <c r="J415" s="98"/>
-      <c r="K415" s="98"/>
-      <c r="L415" s="98"/>
-      <c r="M415" s="99"/>
+      <c r="H415" s="103"/>
+      <c r="I415" s="103"/>
+      <c r="J415" s="103"/>
+      <c r="K415" s="103"/>
+      <c r="L415" s="103"/>
+      <c r="M415" s="104"/>
       <c r="N415" s="10" t="s">
         <v>573</v>
       </c>
@@ -26696,15 +26696,15 @@
       <c r="F417" s="32" t="s">
         <v>576</v>
       </c>
-      <c r="G417" s="97" t="s">
+      <c r="G417" s="102" t="s">
         <v>577</v>
       </c>
-      <c r="H417" s="98"/>
-      <c r="I417" s="98"/>
-      <c r="J417" s="98"/>
-      <c r="K417" s="98"/>
-      <c r="L417" s="98"/>
-      <c r="M417" s="99"/>
+      <c r="H417" s="103"/>
+      <c r="I417" s="103"/>
+      <c r="J417" s="103"/>
+      <c r="K417" s="103"/>
+      <c r="L417" s="103"/>
+      <c r="M417" s="104"/>
       <c r="N417" s="10" t="s">
         <v>578</v>
       </c>
@@ -26787,13 +26787,13 @@
       <c r="H419" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I419" s="97" t="s">
+      <c r="I419" s="102" t="s">
         <v>581</v>
       </c>
-      <c r="J419" s="98"/>
-      <c r="K419" s="98"/>
-      <c r="L419" s="98"/>
-      <c r="M419" s="99"/>
+      <c r="J419" s="103"/>
+      <c r="K419" s="103"/>
+      <c r="L419" s="103"/>
+      <c r="M419" s="104"/>
       <c r="N419" s="10" t="s">
         <v>582</v>
       </c>
@@ -26874,13 +26874,13 @@
       <c r="H421" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I421" s="97" t="s">
+      <c r="I421" s="102" t="s">
         <v>584</v>
       </c>
-      <c r="J421" s="98"/>
-      <c r="K421" s="98"/>
-      <c r="L421" s="98"/>
-      <c r="M421" s="99"/>
+      <c r="J421" s="103"/>
+      <c r="K421" s="103"/>
+      <c r="L421" s="103"/>
+      <c r="M421" s="104"/>
       <c r="N421" s="10" t="s">
         <v>585</v>
       </c>
@@ -26948,19 +26948,19 @@
       <c r="F423" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G423" s="97" t="s">
+      <c r="G423" s="102" t="s">
         <v>588</v>
       </c>
-      <c r="H423" s="98"/>
-      <c r="I423" s="99"/>
+      <c r="H423" s="103"/>
+      <c r="I423" s="104"/>
       <c r="J423" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K423" s="97" t="s">
+      <c r="K423" s="102" t="s">
         <v>589</v>
       </c>
-      <c r="L423" s="98"/>
-      <c r="M423" s="99"/>
+      <c r="L423" s="103"/>
+      <c r="M423" s="104"/>
       <c r="N423" s="10" t="s">
         <v>590</v>
       </c>
@@ -27046,12 +27046,12 @@
       <c r="I425" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J425" s="100" t="s">
+      <c r="J425" s="99" t="s">
         <v>595</v>
       </c>
-      <c r="K425" s="101"/>
-      <c r="L425" s="101"/>
-      <c r="M425" s="102"/>
+      <c r="K425" s="100"/>
+      <c r="L425" s="100"/>
+      <c r="M425" s="101"/>
       <c r="N425" s="10" t="s">
         <v>596</v>
       </c>
@@ -28308,16 +28308,16 @@
         <f>BIN2HEX(P457,2)</f>
         <v>00</v>
       </c>
-      <c r="F457" s="100" t="s">
+      <c r="F457" s="99" t="s">
         <v>599</v>
       </c>
-      <c r="G457" s="101"/>
-      <c r="H457" s="101"/>
-      <c r="I457" s="101"/>
-      <c r="J457" s="101"/>
-      <c r="K457" s="101"/>
-      <c r="L457" s="101"/>
-      <c r="M457" s="102"/>
+      <c r="G457" s="100"/>
+      <c r="H457" s="100"/>
+      <c r="I457" s="100"/>
+      <c r="J457" s="100"/>
+      <c r="K457" s="100"/>
+      <c r="L457" s="100"/>
+      <c r="M457" s="101"/>
       <c r="N457" s="10" t="s">
         <v>600</v>
       </c>
@@ -28369,30 +28369,30 @@
       <c r="V458" s="9"/>
     </row>
     <row r="459" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A459" s="104" t="s">
+      <c r="A459" s="117" t="s">
         <v>602</v>
       </c>
-      <c r="B459" s="104"/>
-      <c r="C459" s="104"/>
-      <c r="D459" s="104"/>
-      <c r="E459" s="104"/>
-      <c r="F459" s="104"/>
-      <c r="G459" s="104"/>
-      <c r="H459" s="104"/>
-      <c r="I459" s="104"/>
-      <c r="J459" s="104"/>
-      <c r="K459" s="104"/>
-      <c r="L459" s="104"/>
-      <c r="M459" s="104"/>
-      <c r="N459" s="104"/>
-      <c r="O459" s="104"/>
-      <c r="P459" s="104"/>
-      <c r="Q459" s="104"/>
-      <c r="R459" s="104"/>
-      <c r="S459" s="104"/>
-      <c r="T459" s="104"/>
-      <c r="U459" s="104"/>
-      <c r="V459" s="104"/>
+      <c r="B459" s="117"/>
+      <c r="C459" s="117"/>
+      <c r="D459" s="117"/>
+      <c r="E459" s="117"/>
+      <c r="F459" s="117"/>
+      <c r="G459" s="117"/>
+      <c r="H459" s="117"/>
+      <c r="I459" s="117"/>
+      <c r="J459" s="117"/>
+      <c r="K459" s="117"/>
+      <c r="L459" s="117"/>
+      <c r="M459" s="117"/>
+      <c r="N459" s="117"/>
+      <c r="O459" s="117"/>
+      <c r="P459" s="117"/>
+      <c r="Q459" s="117"/>
+      <c r="R459" s="117"/>
+      <c r="S459" s="117"/>
+      <c r="T459" s="117"/>
+      <c r="U459" s="117"/>
+      <c r="V459" s="117"/>
     </row>
     <row r="460" spans="1:22" ht="20.25" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A460" s="16" t="str">
@@ -28427,14 +28427,14 @@
       <c r="I460" s="32" t="s">
         <v>603</v>
       </c>
-      <c r="J460" s="97" t="s">
+      <c r="J460" s="102" t="s">
         <v>604</v>
       </c>
-      <c r="K460" s="103"/>
-      <c r="L460" s="97" t="s">
+      <c r="K460" s="124"/>
+      <c r="L460" s="102" t="s">
         <v>605</v>
       </c>
-      <c r="M460" s="103"/>
+      <c r="M460" s="124"/>
       <c r="N460" s="10" t="s">
         <v>606</v>
       </c>
@@ -28472,11 +28472,11 @@
       <c r="J461" s="94" t="s">
         <v>607</v>
       </c>
-      <c r="K461" s="111"/>
+      <c r="K461" s="125"/>
       <c r="L461" s="94" t="s">
         <v>608</v>
       </c>
-      <c r="M461" s="111"/>
+      <c r="M461" s="125"/>
       <c r="N461" s="10"/>
       <c r="O461" s="9"/>
       <c r="P461" s="9"/>
@@ -28520,14 +28520,14 @@
       <c r="I462" s="32" t="s">
         <v>609</v>
       </c>
-      <c r="J462" s="97" t="s">
+      <c r="J462" s="102" t="s">
         <v>610</v>
       </c>
-      <c r="K462" s="103"/>
-      <c r="L462" s="97" t="s">
+      <c r="K462" s="124"/>
+      <c r="L462" s="102" t="s">
         <v>611</v>
       </c>
-      <c r="M462" s="103"/>
+      <c r="M462" s="124"/>
       <c r="N462" s="10" t="s">
         <v>612</v>
       </c>
@@ -29720,16 +29720,16 @@
         <f>BIN2HEX(P490,2)</f>
         <v>00</v>
       </c>
-      <c r="F490" s="100" t="s">
+      <c r="F490" s="99" t="s">
         <v>647</v>
       </c>
-      <c r="G490" s="101"/>
-      <c r="H490" s="101"/>
-      <c r="I490" s="101"/>
-      <c r="J490" s="101"/>
-      <c r="K490" s="101"/>
-      <c r="L490" s="101"/>
-      <c r="M490" s="102"/>
+      <c r="G490" s="100"/>
+      <c r="H490" s="100"/>
+      <c r="I490" s="100"/>
+      <c r="J490" s="100"/>
+      <c r="K490" s="100"/>
+      <c r="L490" s="100"/>
+      <c r="M490" s="101"/>
       <c r="N490" s="10" t="s">
         <v>648</v>
       </c>
@@ -30413,30 +30413,30 @@
       <c r="V507" s="9"/>
     </row>
     <row r="508" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A508" s="104" t="s">
+      <c r="A508" s="117" t="s">
         <v>650</v>
       </c>
-      <c r="B508" s="104"/>
-      <c r="C508" s="104"/>
-      <c r="D508" s="104"/>
-      <c r="E508" s="104"/>
-      <c r="F508" s="104"/>
-      <c r="G508" s="104"/>
-      <c r="H508" s="104"/>
-      <c r="I508" s="104"/>
-      <c r="J508" s="104"/>
-      <c r="K508" s="104"/>
-      <c r="L508" s="104"/>
-      <c r="M508" s="104"/>
-      <c r="N508" s="104"/>
-      <c r="O508" s="104"/>
-      <c r="P508" s="104"/>
-      <c r="Q508" s="104"/>
-      <c r="R508" s="104"/>
-      <c r="S508" s="104"/>
-      <c r="T508" s="104"/>
-      <c r="U508" s="104"/>
-      <c r="V508" s="104"/>
+      <c r="B508" s="117"/>
+      <c r="C508" s="117"/>
+      <c r="D508" s="117"/>
+      <c r="E508" s="117"/>
+      <c r="F508" s="117"/>
+      <c r="G508" s="117"/>
+      <c r="H508" s="117"/>
+      <c r="I508" s="117"/>
+      <c r="J508" s="117"/>
+      <c r="K508" s="117"/>
+      <c r="L508" s="117"/>
+      <c r="M508" s="117"/>
+      <c r="N508" s="117"/>
+      <c r="O508" s="117"/>
+      <c r="P508" s="117"/>
+      <c r="Q508" s="117"/>
+      <c r="R508" s="117"/>
+      <c r="S508" s="117"/>
+      <c r="T508" s="117"/>
+      <c r="U508" s="117"/>
+      <c r="V508" s="117"/>
     </row>
     <row r="509" spans="1:22" ht="20.25" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A509" s="16" t="str">
@@ -30967,10 +30967,10 @@
       <c r="K521" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L521" s="97" t="s">
+      <c r="L521" s="102" t="s">
         <v>654</v>
       </c>
-      <c r="M521" s="99"/>
+      <c r="M521" s="104"/>
       <c r="N521" s="25" t="s">
         <v>655</v>
       </c>
@@ -31042,18 +31042,18 @@
         <f>BIN2HEX(P523,2)</f>
         <v>F8</v>
       </c>
-      <c r="F523" s="110" t="s">
+      <c r="F523" s="123" t="s">
         <v>658</v>
       </c>
-      <c r="G523" s="110"/>
-      <c r="H523" s="110"/>
-      <c r="I523" s="110"/>
-      <c r="J523" s="110"/>
-      <c r="K523" s="110" t="s">
+      <c r="G523" s="123"/>
+      <c r="H523" s="123"/>
+      <c r="I523" s="123"/>
+      <c r="J523" s="123"/>
+      <c r="K523" s="123" t="s">
         <v>659</v>
       </c>
-      <c r="L523" s="110"/>
-      <c r="M523" s="110"/>
+      <c r="L523" s="123"/>
+      <c r="M523" s="123"/>
       <c r="N523" s="25" t="s">
         <v>660</v>
       </c>
@@ -31084,18 +31084,18 @@
       <c r="C524" s="19"/>
       <c r="D524" s="20"/>
       <c r="E524" s="16"/>
-      <c r="F524" s="109" t="s">
+      <c r="F524" s="98" t="s">
         <v>662</v>
       </c>
-      <c r="G524" s="109"/>
-      <c r="H524" s="109"/>
-      <c r="I524" s="109"/>
-      <c r="J524" s="109"/>
-      <c r="K524" s="109" t="s">
+      <c r="G524" s="98"/>
+      <c r="H524" s="98"/>
+      <c r="I524" s="98"/>
+      <c r="J524" s="98"/>
+      <c r="K524" s="98" t="s">
         <v>663</v>
       </c>
-      <c r="L524" s="109"/>
-      <c r="M524" s="109"/>
+      <c r="L524" s="98"/>
+      <c r="M524" s="98"/>
       <c r="N524" s="10"/>
       <c r="O524" s="9"/>
       <c r="P524" s="9"/>
@@ -31108,6 +31108,176 @@
     </row>
   </sheetData>
   <mergeCells count="194">
+    <mergeCell ref="G424:I424"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="K368:M368"/>
+    <mergeCell ref="G401:I401"/>
+    <mergeCell ref="J401:M401"/>
+    <mergeCell ref="G402:I402"/>
+    <mergeCell ref="J425:M425"/>
+    <mergeCell ref="J460:K460"/>
+    <mergeCell ref="H253:M253"/>
+    <mergeCell ref="F366:G366"/>
+    <mergeCell ref="A361:V361"/>
+    <mergeCell ref="A394:V394"/>
+    <mergeCell ref="L268:M268"/>
+    <mergeCell ref="G398:I398"/>
+    <mergeCell ref="G397:I397"/>
+    <mergeCell ref="F265:I265"/>
+    <mergeCell ref="F275:M275"/>
+    <mergeCell ref="F295:M295"/>
+    <mergeCell ref="A264:V264"/>
+    <mergeCell ref="G273:I273"/>
+    <mergeCell ref="H256:M256"/>
+    <mergeCell ref="H366:I366"/>
+    <mergeCell ref="K396:M396"/>
+    <mergeCell ref="I420:M420"/>
+    <mergeCell ref="I279:M279"/>
+    <mergeCell ref="I281:M281"/>
+    <mergeCell ref="L245:M245"/>
+    <mergeCell ref="H237:I237"/>
+    <mergeCell ref="L244:M244"/>
+    <mergeCell ref="F245:G245"/>
+    <mergeCell ref="I247:M247"/>
+    <mergeCell ref="H244:I244"/>
+    <mergeCell ref="J244:K244"/>
+    <mergeCell ref="F244:G244"/>
+    <mergeCell ref="F249:G249"/>
+    <mergeCell ref="F250:G250"/>
+    <mergeCell ref="H251:M251"/>
+    <mergeCell ref="I248:M248"/>
+    <mergeCell ref="H242:I242"/>
+    <mergeCell ref="F242:G242"/>
+    <mergeCell ref="J237:M237"/>
+    <mergeCell ref="F251:G251"/>
+    <mergeCell ref="J245:K245"/>
+    <mergeCell ref="I246:M246"/>
+    <mergeCell ref="H250:M250"/>
+    <mergeCell ref="F263:M263"/>
+    <mergeCell ref="F399:M399"/>
+    <mergeCell ref="I421:M421"/>
+    <mergeCell ref="G423:I423"/>
+    <mergeCell ref="F403:M403"/>
+    <mergeCell ref="K412:M412"/>
+    <mergeCell ref="K423:M423"/>
+    <mergeCell ref="I419:M419"/>
+    <mergeCell ref="G410:I410"/>
+    <mergeCell ref="J402:M402"/>
+    <mergeCell ref="F404:M404"/>
+    <mergeCell ref="I422:M422"/>
+    <mergeCell ref="J409:M409"/>
+    <mergeCell ref="F524:J524"/>
+    <mergeCell ref="K524:M524"/>
+    <mergeCell ref="F523:J523"/>
+    <mergeCell ref="K523:M523"/>
+    <mergeCell ref="A459:V459"/>
+    <mergeCell ref="A508:V508"/>
+    <mergeCell ref="L521:M521"/>
+    <mergeCell ref="L522:M522"/>
+    <mergeCell ref="L460:M460"/>
+    <mergeCell ref="L461:M461"/>
+    <mergeCell ref="J462:K462"/>
+    <mergeCell ref="L462:M462"/>
+    <mergeCell ref="F491:M491"/>
+    <mergeCell ref="J463:K463"/>
+    <mergeCell ref="L463:M463"/>
+    <mergeCell ref="J461:K461"/>
+    <mergeCell ref="F457:M457"/>
+    <mergeCell ref="I413:M413"/>
+    <mergeCell ref="F407:M407"/>
+    <mergeCell ref="G418:M418"/>
+    <mergeCell ref="J405:M405"/>
+    <mergeCell ref="G415:M415"/>
+    <mergeCell ref="G416:M416"/>
+    <mergeCell ref="L266:M266"/>
+    <mergeCell ref="K272:M272"/>
+    <mergeCell ref="F367:G367"/>
+    <mergeCell ref="H367:I367"/>
+    <mergeCell ref="J367:K367"/>
+    <mergeCell ref="G274:I274"/>
+    <mergeCell ref="F276:M276"/>
+    <mergeCell ref="J366:K366"/>
+    <mergeCell ref="I282:M282"/>
+    <mergeCell ref="I280:M280"/>
+    <mergeCell ref="F296:M296"/>
+    <mergeCell ref="I414:M414"/>
+    <mergeCell ref="J406:M406"/>
+    <mergeCell ref="F408:M408"/>
+    <mergeCell ref="F400:M400"/>
+    <mergeCell ref="J410:M410"/>
+    <mergeCell ref="G409:I409"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="A35:Q35"/>
+    <mergeCell ref="A101:Q101"/>
+    <mergeCell ref="F112:G112"/>
+    <mergeCell ref="F113:G113"/>
+    <mergeCell ref="H108:M108"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="A68:Q68"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="H109:M109"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="K46:M46"/>
+    <mergeCell ref="F48:M48"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="F49:M49"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="I51:M51"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="I113:M113"/>
+    <mergeCell ref="H167:I167"/>
+    <mergeCell ref="H120:I120"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="K107:M107"/>
+    <mergeCell ref="K106:M106"/>
+    <mergeCell ref="H121:I121"/>
+    <mergeCell ref="I50:M50"/>
+    <mergeCell ref="I112:M112"/>
+    <mergeCell ref="F69:I69"/>
+    <mergeCell ref="J69:M69"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="F34:M34"/>
+    <mergeCell ref="F70:I70"/>
+    <mergeCell ref="J70:M70"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="F132:M132"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="F33:M33"/>
+    <mergeCell ref="J232:M232"/>
+    <mergeCell ref="J120:M120"/>
+    <mergeCell ref="J121:M121"/>
+    <mergeCell ref="H255:M255"/>
+    <mergeCell ref="H257:M257"/>
+    <mergeCell ref="F167:G167"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="F243:G243"/>
+    <mergeCell ref="J234:M234"/>
+    <mergeCell ref="H232:I232"/>
+    <mergeCell ref="H233:I233"/>
+    <mergeCell ref="F172:M172"/>
+    <mergeCell ref="J235:M235"/>
+    <mergeCell ref="J233:M233"/>
+    <mergeCell ref="J236:M236"/>
+    <mergeCell ref="A231:V231"/>
+    <mergeCell ref="A166:V166"/>
+    <mergeCell ref="F168:G168"/>
+    <mergeCell ref="H168:I168"/>
+    <mergeCell ref="F171:M171"/>
+    <mergeCell ref="F133:M133"/>
+    <mergeCell ref="I170:M170"/>
+    <mergeCell ref="I169:M169"/>
     <mergeCell ref="F458:M458"/>
     <mergeCell ref="J426:M426"/>
     <mergeCell ref="H236:I236"/>
@@ -31132,176 +31302,6 @@
     <mergeCell ref="F262:M262"/>
     <mergeCell ref="L265:M265"/>
     <mergeCell ref="F246:G246"/>
-    <mergeCell ref="J232:M232"/>
-    <mergeCell ref="J120:M120"/>
-    <mergeCell ref="J121:M121"/>
-    <mergeCell ref="H255:M255"/>
-    <mergeCell ref="H257:M257"/>
-    <mergeCell ref="F167:G167"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="F243:G243"/>
-    <mergeCell ref="J234:M234"/>
-    <mergeCell ref="H232:I232"/>
-    <mergeCell ref="H233:I233"/>
-    <mergeCell ref="F172:M172"/>
-    <mergeCell ref="J235:M235"/>
-    <mergeCell ref="J233:M233"/>
-    <mergeCell ref="J236:M236"/>
-    <mergeCell ref="A231:V231"/>
-    <mergeCell ref="A166:V166"/>
-    <mergeCell ref="F168:G168"/>
-    <mergeCell ref="H168:I168"/>
-    <mergeCell ref="F171:M171"/>
-    <mergeCell ref="F133:M133"/>
-    <mergeCell ref="I170:M170"/>
-    <mergeCell ref="I169:M169"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="I113:M113"/>
-    <mergeCell ref="H167:I167"/>
-    <mergeCell ref="H120:I120"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="K107:M107"/>
-    <mergeCell ref="K106:M106"/>
-    <mergeCell ref="H121:I121"/>
-    <mergeCell ref="I50:M50"/>
-    <mergeCell ref="I112:M112"/>
-    <mergeCell ref="F69:I69"/>
-    <mergeCell ref="J69:M69"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="F34:M34"/>
-    <mergeCell ref="F70:I70"/>
-    <mergeCell ref="J70:M70"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="F132:M132"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="F33:M33"/>
-    <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="A35:Q35"/>
-    <mergeCell ref="A101:Q101"/>
-    <mergeCell ref="F112:G112"/>
-    <mergeCell ref="F113:G113"/>
-    <mergeCell ref="H108:M108"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="A68:Q68"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="H109:M109"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="K46:M46"/>
-    <mergeCell ref="F48:M48"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="F49:M49"/>
-    <mergeCell ref="K47:M47"/>
-    <mergeCell ref="I51:M51"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="F457:M457"/>
-    <mergeCell ref="I413:M413"/>
-    <mergeCell ref="F407:M407"/>
-    <mergeCell ref="G418:M418"/>
-    <mergeCell ref="J405:M405"/>
-    <mergeCell ref="G415:M415"/>
-    <mergeCell ref="G416:M416"/>
-    <mergeCell ref="L266:M266"/>
-    <mergeCell ref="K272:M272"/>
-    <mergeCell ref="F367:G367"/>
-    <mergeCell ref="H367:I367"/>
-    <mergeCell ref="J367:K367"/>
-    <mergeCell ref="G274:I274"/>
-    <mergeCell ref="F276:M276"/>
-    <mergeCell ref="J366:K366"/>
-    <mergeCell ref="I282:M282"/>
-    <mergeCell ref="I280:M280"/>
-    <mergeCell ref="F296:M296"/>
-    <mergeCell ref="I414:M414"/>
-    <mergeCell ref="J406:M406"/>
-    <mergeCell ref="F408:M408"/>
-    <mergeCell ref="F400:M400"/>
-    <mergeCell ref="J410:M410"/>
-    <mergeCell ref="G409:I409"/>
-    <mergeCell ref="F524:J524"/>
-    <mergeCell ref="K524:M524"/>
-    <mergeCell ref="F523:J523"/>
-    <mergeCell ref="K523:M523"/>
-    <mergeCell ref="A459:V459"/>
-    <mergeCell ref="A508:V508"/>
-    <mergeCell ref="L521:M521"/>
-    <mergeCell ref="L522:M522"/>
-    <mergeCell ref="L460:M460"/>
-    <mergeCell ref="L461:M461"/>
-    <mergeCell ref="J462:K462"/>
-    <mergeCell ref="L462:M462"/>
-    <mergeCell ref="F491:M491"/>
-    <mergeCell ref="J463:K463"/>
-    <mergeCell ref="L463:M463"/>
-    <mergeCell ref="J461:K461"/>
-    <mergeCell ref="F399:M399"/>
-    <mergeCell ref="I421:M421"/>
-    <mergeCell ref="G423:I423"/>
-    <mergeCell ref="F403:M403"/>
-    <mergeCell ref="K412:M412"/>
-    <mergeCell ref="K423:M423"/>
-    <mergeCell ref="I419:M419"/>
-    <mergeCell ref="G410:I410"/>
-    <mergeCell ref="J402:M402"/>
-    <mergeCell ref="F404:M404"/>
-    <mergeCell ref="I422:M422"/>
-    <mergeCell ref="J409:M409"/>
-    <mergeCell ref="I279:M279"/>
-    <mergeCell ref="I281:M281"/>
-    <mergeCell ref="L245:M245"/>
-    <mergeCell ref="H237:I237"/>
-    <mergeCell ref="L244:M244"/>
-    <mergeCell ref="F245:G245"/>
-    <mergeCell ref="I247:M247"/>
-    <mergeCell ref="H244:I244"/>
-    <mergeCell ref="J244:K244"/>
-    <mergeCell ref="F244:G244"/>
-    <mergeCell ref="F249:G249"/>
-    <mergeCell ref="F250:G250"/>
-    <mergeCell ref="H251:M251"/>
-    <mergeCell ref="I248:M248"/>
-    <mergeCell ref="H242:I242"/>
-    <mergeCell ref="F242:G242"/>
-    <mergeCell ref="J237:M237"/>
-    <mergeCell ref="F251:G251"/>
-    <mergeCell ref="J245:K245"/>
-    <mergeCell ref="I246:M246"/>
-    <mergeCell ref="H250:M250"/>
-    <mergeCell ref="F263:M263"/>
-    <mergeCell ref="G424:I424"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="K368:M368"/>
-    <mergeCell ref="G401:I401"/>
-    <mergeCell ref="J401:M401"/>
-    <mergeCell ref="G402:I402"/>
-    <mergeCell ref="J425:M425"/>
-    <mergeCell ref="J460:K460"/>
-    <mergeCell ref="H253:M253"/>
-    <mergeCell ref="F366:G366"/>
-    <mergeCell ref="A361:V361"/>
-    <mergeCell ref="A394:V394"/>
-    <mergeCell ref="L268:M268"/>
-    <mergeCell ref="G398:I398"/>
-    <mergeCell ref="G397:I397"/>
-    <mergeCell ref="F265:I265"/>
-    <mergeCell ref="F275:M275"/>
-    <mergeCell ref="F295:M295"/>
-    <mergeCell ref="A264:V264"/>
-    <mergeCell ref="G273:I273"/>
-    <mergeCell ref="H256:M256"/>
-    <mergeCell ref="H366:I366"/>
-    <mergeCell ref="K396:M396"/>
-    <mergeCell ref="I420:M420"/>
   </mergeCells>
   <conditionalFormatting sqref="A4 A6 A8 A10 A12 A14 A16 A18 A20 A22 A24 A26 A28 A30 A32">
     <cfRule type="expression" dxfId="436" priority="5545">
@@ -32647,9 +32647,9 @@
   </sheetPr>
   <dimension ref="A1:V515"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N33" sqref="N33"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A416" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F422" sqref="F422:I422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" outlineLevelRow="2" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -32742,25 +32742,25 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="104"/>
-      <c r="Q2" s="104"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="117"/>
+      <c r="O2" s="117"/>
+      <c r="P2" s="117"/>
+      <c r="Q2" s="117"/>
       <c r="R2" s="26"/>
       <c r="S2" s="26"/>
       <c r="T2" s="26"/>
@@ -32802,11 +32802,11 @@
       <c r="J3" s="32" t="s">
         <v>664</v>
       </c>
-      <c r="K3" s="143" t="s">
+      <c r="K3" s="141" t="s">
         <v>665</v>
       </c>
-      <c r="L3" s="135"/>
-      <c r="M3" s="136"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="143"/>
       <c r="N3" s="25" t="s">
         <v>666</v>
       </c>
@@ -32895,11 +32895,11 @@
       <c r="J5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="97" t="s">
+      <c r="K5" s="102" t="s">
         <v>670</v>
       </c>
-      <c r="L5" s="98"/>
-      <c r="M5" s="99"/>
+      <c r="L5" s="103"/>
+      <c r="M5" s="104"/>
       <c r="N5" s="25" t="s">
         <v>671</v>
       </c>
@@ -32984,13 +32984,13 @@
       <c r="H7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="100" t="s">
+      <c r="I7" s="99" t="s">
         <v>675</v>
       </c>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="102"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="101"/>
       <c r="N7" s="25" t="s">
         <v>676</v>
       </c>
@@ -33075,13 +33075,13 @@
       <c r="H9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="97" t="s">
+      <c r="I9" s="102" t="s">
         <v>680</v>
       </c>
-      <c r="J9" s="98"/>
-      <c r="K9" s="98"/>
-      <c r="L9" s="98"/>
-      <c r="M9" s="99"/>
+      <c r="J9" s="103"/>
+      <c r="K9" s="103"/>
+      <c r="L9" s="103"/>
+      <c r="M9" s="104"/>
       <c r="N9" s="25" t="s">
         <v>681</v>
       </c>
@@ -33161,16 +33161,16 @@
         <f>BIN2HEX(P11,2)</f>
         <v>00</v>
       </c>
-      <c r="F11" s="97" t="s">
+      <c r="F11" s="102" t="s">
         <v>687</v>
       </c>
-      <c r="G11" s="98"/>
-      <c r="H11" s="98"/>
-      <c r="I11" s="98"/>
-      <c r="J11" s="98"/>
-      <c r="K11" s="98"/>
-      <c r="L11" s="98"/>
-      <c r="M11" s="99"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="103"/>
+      <c r="J11" s="103"/>
+      <c r="K11" s="103"/>
+      <c r="L11" s="103"/>
+      <c r="M11" s="104"/>
       <c r="N11" s="25" t="s">
         <v>688</v>
       </c>
@@ -33203,12 +33203,12 @@
       <c r="E12" s="16"/>
       <c r="F12" s="31"/>
       <c r="G12" s="31"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="107"/>
-      <c r="K12" s="107"/>
-      <c r="L12" s="107"/>
-      <c r="M12" s="108"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="106"/>
+      <c r="J12" s="106"/>
+      <c r="K12" s="106"/>
+      <c r="L12" s="106"/>
+      <c r="M12" s="107"/>
       <c r="N12" s="10"/>
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
@@ -33389,8 +33389,8 @@
       <c r="C16" s="19"/>
       <c r="D16" s="20"/>
       <c r="E16" s="16"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="109"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="98"/>
       <c r="H16" s="31" t="s">
         <v>707</v>
       </c>
@@ -33454,10 +33454,10 @@
       <c r="K17" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L17" s="97" t="s">
+      <c r="L17" s="102" t="s">
         <v>711</v>
       </c>
-      <c r="M17" s="99"/>
+      <c r="M17" s="104"/>
       <c r="N17" s="25" t="s">
         <v>712</v>
       </c>
@@ -33489,13 +33489,13 @@
       <c r="D18" s="20"/>
       <c r="E18" s="16"/>
       <c r="F18" s="31"/>
-      <c r="G18" s="109"/>
-      <c r="H18" s="109"/>
-      <c r="I18" s="109"/>
-      <c r="J18" s="109"/>
-      <c r="K18" s="109"/>
-      <c r="L18" s="109"/>
-      <c r="M18" s="109"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="98"/>
+      <c r="J18" s="98"/>
+      <c r="K18" s="98"/>
+      <c r="L18" s="98"/>
+      <c r="M18" s="98"/>
       <c r="N18" s="10"/>
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
@@ -33530,15 +33530,15 @@
       <c r="F19" s="53" t="s">
         <v>713</v>
       </c>
-      <c r="G19" s="97" t="s">
+      <c r="G19" s="102" t="s">
         <v>714</v>
       </c>
-      <c r="H19" s="98"/>
-      <c r="I19" s="98"/>
-      <c r="J19" s="98"/>
-      <c r="K19" s="98"/>
-      <c r="L19" s="98"/>
-      <c r="M19" s="99"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="103"/>
+      <c r="J19" s="103"/>
+      <c r="K19" s="103"/>
+      <c r="L19" s="103"/>
+      <c r="M19" s="104"/>
       <c r="N19" s="10" t="s">
         <v>715</v>
       </c>
@@ -33570,13 +33570,13 @@
       <c r="D20" s="20"/>
       <c r="E20" s="16"/>
       <c r="F20" s="30"/>
-      <c r="G20" s="106"/>
-      <c r="H20" s="107"/>
-      <c r="I20" s="107"/>
-      <c r="J20" s="107"/>
-      <c r="K20" s="107"/>
-      <c r="L20" s="107"/>
-      <c r="M20" s="108"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="106"/>
+      <c r="I20" s="106"/>
+      <c r="J20" s="106"/>
+      <c r="K20" s="106"/>
+      <c r="L20" s="106"/>
+      <c r="M20" s="107"/>
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
       <c r="P20" s="10"/>
@@ -33614,14 +33614,14 @@
       <c r="G21" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H21" s="97" t="s">
+      <c r="H21" s="102" t="s">
         <v>716</v>
       </c>
-      <c r="I21" s="98"/>
-      <c r="J21" s="98"/>
-      <c r="K21" s="98"/>
-      <c r="L21" s="98"/>
-      <c r="M21" s="99"/>
+      <c r="I21" s="103"/>
+      <c r="J21" s="103"/>
+      <c r="K21" s="103"/>
+      <c r="L21" s="103"/>
+      <c r="M21" s="104"/>
       <c r="N21" s="10" t="s">
         <v>717</v>
       </c>
@@ -33652,14 +33652,14 @@
       <c r="C22" s="19"/>
       <c r="D22" s="20"/>
       <c r="E22" s="16"/>
-      <c r="F22" s="109"/>
-      <c r="G22" s="109"/>
-      <c r="H22" s="109"/>
-      <c r="I22" s="109"/>
-      <c r="J22" s="109"/>
-      <c r="K22" s="109"/>
-      <c r="L22" s="109"/>
-      <c r="M22" s="109"/>
+      <c r="F22" s="98"/>
+      <c r="G22" s="98"/>
+      <c r="H22" s="98"/>
+      <c r="I22" s="98"/>
+      <c r="J22" s="98"/>
+      <c r="K22" s="98"/>
+      <c r="L22" s="98"/>
+      <c r="M22" s="98"/>
       <c r="N22" s="10"/>
       <c r="O22" s="10"/>
       <c r="P22" s="10"/>
@@ -33697,14 +33697,14 @@
       <c r="G23" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="97" t="s">
+      <c r="H23" s="102" t="s">
         <v>718</v>
       </c>
-      <c r="I23" s="98"/>
-      <c r="J23" s="98"/>
-      <c r="K23" s="98"/>
-      <c r="L23" s="98"/>
-      <c r="M23" s="99"/>
+      <c r="I23" s="103"/>
+      <c r="J23" s="103"/>
+      <c r="K23" s="103"/>
+      <c r="L23" s="103"/>
+      <c r="M23" s="104"/>
       <c r="N23" s="10" t="s">
         <v>719</v>
       </c>
@@ -33736,13 +33736,13 @@
       <c r="D24" s="20"/>
       <c r="E24" s="16"/>
       <c r="F24" s="31"/>
-      <c r="G24" s="109"/>
-      <c r="H24" s="109"/>
-      <c r="I24" s="109"/>
-      <c r="J24" s="109"/>
-      <c r="K24" s="109"/>
-      <c r="L24" s="109"/>
-      <c r="M24" s="109"/>
+      <c r="G24" s="98"/>
+      <c r="H24" s="98"/>
+      <c r="I24" s="98"/>
+      <c r="J24" s="98"/>
+      <c r="K24" s="98"/>
+      <c r="L24" s="98"/>
+      <c r="M24" s="98"/>
       <c r="N24" s="10"/>
       <c r="O24" s="10"/>
       <c r="P24" s="10"/>
@@ -33966,10 +33966,10 @@
       <c r="K29" s="32" t="s">
         <v>724</v>
       </c>
-      <c r="L29" s="97" t="s">
+      <c r="L29" s="102" t="s">
         <v>725</v>
       </c>
-      <c r="M29" s="99"/>
+      <c r="M29" s="104"/>
       <c r="N29" s="10" t="s">
         <v>726</v>
       </c>
@@ -34330,14 +34330,14 @@
       <c r="G37" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H37" s="135" t="s">
+      <c r="H37" s="142" t="s">
         <v>751</v>
       </c>
-      <c r="I37" s="135"/>
-      <c r="J37" s="135"/>
-      <c r="K37" s="135"/>
-      <c r="L37" s="135"/>
-      <c r="M37" s="136"/>
+      <c r="I37" s="142"/>
+      <c r="J37" s="142"/>
+      <c r="K37" s="142"/>
+      <c r="L37" s="142"/>
+      <c r="M37" s="143"/>
       <c r="N37" s="25" t="s">
         <v>752</v>
       </c>
@@ -35129,16 +35129,16 @@
         <f>BIN2HEX(P55,2)</f>
         <v>00</v>
       </c>
-      <c r="F55" s="97" t="s">
+      <c r="F55" s="102" t="s">
         <v>814</v>
       </c>
-      <c r="G55" s="98"/>
-      <c r="H55" s="98"/>
-      <c r="I55" s="98"/>
-      <c r="J55" s="98"/>
-      <c r="K55" s="98"/>
-      <c r="L55" s="98"/>
-      <c r="M55" s="99"/>
+      <c r="G55" s="103"/>
+      <c r="H55" s="103"/>
+      <c r="I55" s="103"/>
+      <c r="J55" s="103"/>
+      <c r="K55" s="103"/>
+      <c r="L55" s="103"/>
+      <c r="M55" s="104"/>
       <c r="N55" s="25" t="s">
         <v>815</v>
       </c>
@@ -35169,14 +35169,14 @@
       <c r="C56" s="19"/>
       <c r="D56" s="20"/>
       <c r="E56" s="16"/>
-      <c r="F56" s="106"/>
-      <c r="G56" s="107"/>
-      <c r="H56" s="107"/>
-      <c r="I56" s="107"/>
-      <c r="J56" s="107"/>
-      <c r="K56" s="107"/>
-      <c r="L56" s="107"/>
-      <c r="M56" s="108"/>
+      <c r="F56" s="105"/>
+      <c r="G56" s="106"/>
+      <c r="H56" s="106"/>
+      <c r="I56" s="106"/>
+      <c r="J56" s="106"/>
+      <c r="K56" s="106"/>
+      <c r="L56" s="106"/>
+      <c r="M56" s="107"/>
       <c r="N56" s="10"/>
       <c r="O56" s="10"/>
       <c r="P56" s="10"/>
@@ -35445,20 +35445,20 @@
         <f>BIN2HEX(P63,2)</f>
         <v>00</v>
       </c>
-      <c r="F63" s="97" t="s">
+      <c r="F63" s="102" t="s">
         <v>816</v>
       </c>
-      <c r="G63" s="98"/>
-      <c r="H63" s="98"/>
-      <c r="I63" s="99"/>
+      <c r="G63" s="103"/>
+      <c r="H63" s="103"/>
+      <c r="I63" s="104"/>
       <c r="J63" s="32" t="s">
         <v>817</v>
       </c>
-      <c r="K63" s="97" t="s">
+      <c r="K63" s="102" t="s">
         <v>818</v>
       </c>
-      <c r="L63" s="98"/>
-      <c r="M63" s="99"/>
+      <c r="L63" s="103"/>
+      <c r="M63" s="104"/>
       <c r="N63" s="10" t="s">
         <v>819</v>
       </c>
@@ -35534,16 +35534,16 @@
         <f>BIN2HEX(P65,2)</f>
         <v>00</v>
       </c>
-      <c r="F65" s="97" t="s">
+      <c r="F65" s="102" t="s">
         <v>823</v>
       </c>
-      <c r="G65" s="98"/>
-      <c r="H65" s="98"/>
-      <c r="I65" s="98"/>
-      <c r="J65" s="98"/>
-      <c r="K65" s="98"/>
-      <c r="L65" s="98"/>
-      <c r="M65" s="99"/>
+      <c r="G65" s="103"/>
+      <c r="H65" s="103"/>
+      <c r="I65" s="103"/>
+      <c r="J65" s="103"/>
+      <c r="K65" s="103"/>
+      <c r="L65" s="103"/>
+      <c r="M65" s="104"/>
       <c r="N65" s="10" t="s">
         <v>824</v>
       </c>
@@ -35702,16 +35702,16 @@
         <f>BIN2HEX(P69,2)</f>
         <v>00</v>
       </c>
-      <c r="F69" s="97" t="s">
+      <c r="F69" s="102" t="s">
         <v>828</v>
       </c>
-      <c r="G69" s="98"/>
-      <c r="H69" s="98"/>
-      <c r="I69" s="98"/>
-      <c r="J69" s="98"/>
-      <c r="K69" s="98"/>
-      <c r="L69" s="98"/>
-      <c r="M69" s="99"/>
+      <c r="G69" s="103"/>
+      <c r="H69" s="103"/>
+      <c r="I69" s="103"/>
+      <c r="J69" s="103"/>
+      <c r="K69" s="103"/>
+      <c r="L69" s="103"/>
+      <c r="M69" s="104"/>
       <c r="N69" s="25" t="s">
         <v>829</v>
       </c>
@@ -35861,16 +35861,16 @@
         <f>BIN2HEX(P73,2)</f>
         <v>00</v>
       </c>
-      <c r="F73" s="97" t="s">
+      <c r="F73" s="102" t="s">
         <v>832</v>
       </c>
-      <c r="G73" s="98"/>
-      <c r="H73" s="98"/>
-      <c r="I73" s="98"/>
-      <c r="J73" s="98"/>
-      <c r="K73" s="98"/>
-      <c r="L73" s="98"/>
-      <c r="M73" s="99"/>
+      <c r="G73" s="103"/>
+      <c r="H73" s="103"/>
+      <c r="I73" s="103"/>
+      <c r="J73" s="103"/>
+      <c r="K73" s="103"/>
+      <c r="L73" s="103"/>
+      <c r="M73" s="104"/>
       <c r="N73" s="25" t="s">
         <v>833</v>
       </c>
@@ -36803,20 +36803,20 @@
         <f>BIN2HEX(P99,2)</f>
         <v>C6</v>
       </c>
-      <c r="F99" s="97" t="s">
+      <c r="F99" s="102" t="s">
         <v>840</v>
       </c>
-      <c r="G99" s="99"/>
-      <c r="H99" s="97" t="s">
+      <c r="G99" s="104"/>
+      <c r="H99" s="102" t="s">
         <v>841</v>
       </c>
-      <c r="I99" s="99"/>
-      <c r="J99" s="97" t="s">
+      <c r="I99" s="104"/>
+      <c r="J99" s="102" t="s">
         <v>842</v>
       </c>
-      <c r="K99" s="98"/>
-      <c r="L99" s="98"/>
-      <c r="M99" s="99"/>
+      <c r="K99" s="103"/>
+      <c r="L99" s="103"/>
+      <c r="M99" s="104"/>
       <c r="N99" s="10" t="s">
         <v>843</v>
       </c>
@@ -36847,14 +36847,14 @@
       <c r="C100" s="19"/>
       <c r="D100" s="20"/>
       <c r="E100" s="16"/>
-      <c r="F100" s="109" t="s">
+      <c r="F100" s="98" t="s">
         <v>845</v>
       </c>
-      <c r="G100" s="109"/>
-      <c r="H100" s="109" t="s">
+      <c r="G100" s="98"/>
+      <c r="H100" s="98" t="s">
         <v>846</v>
       </c>
-      <c r="I100" s="109"/>
+      <c r="I100" s="98"/>
       <c r="J100" s="94" t="s">
         <v>847</v>
       </c>
@@ -36998,10 +36998,10 @@
       <c r="K103" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L103" s="97" t="s">
+      <c r="L103" s="102" t="s">
         <v>851</v>
       </c>
-      <c r="M103" s="99"/>
+      <c r="M103" s="104"/>
       <c r="N103" s="10" t="s">
         <v>852</v>
       </c>
@@ -37071,16 +37071,16 @@
         <f t="shared" si="1"/>
         <v>02</v>
       </c>
-      <c r="F105" s="97" t="s">
+      <c r="F105" s="102" t="s">
         <v>854</v>
       </c>
-      <c r="G105" s="98"/>
-      <c r="H105" s="98"/>
-      <c r="I105" s="98"/>
-      <c r="J105" s="98"/>
-      <c r="K105" s="98"/>
-      <c r="L105" s="98"/>
-      <c r="M105" s="99"/>
+      <c r="G105" s="103"/>
+      <c r="H105" s="103"/>
+      <c r="I105" s="103"/>
+      <c r="J105" s="103"/>
+      <c r="K105" s="103"/>
+      <c r="L105" s="103"/>
+      <c r="M105" s="104"/>
       <c r="N105" s="10" t="s">
         <v>855</v>
       </c>
@@ -37168,10 +37168,10 @@
       <c r="K107" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L107" s="97" t="s">
+      <c r="L107" s="102" t="s">
         <v>856</v>
       </c>
-      <c r="M107" s="99"/>
+      <c r="M107" s="104"/>
       <c r="N107" s="10" t="s">
         <v>857</v>
       </c>
@@ -37240,16 +37240,16 @@
         <f t="shared" ref="E109:E171" si="2">BIN2HEX(P109,2)</f>
         <v>0B</v>
       </c>
-      <c r="F109" s="97" t="s">
+      <c r="F109" s="102" t="s">
         <v>858</v>
       </c>
-      <c r="G109" s="98"/>
-      <c r="H109" s="98"/>
-      <c r="I109" s="98"/>
-      <c r="J109" s="98"/>
-      <c r="K109" s="98"/>
-      <c r="L109" s="98"/>
-      <c r="M109" s="99"/>
+      <c r="G109" s="103"/>
+      <c r="H109" s="103"/>
+      <c r="I109" s="103"/>
+      <c r="J109" s="103"/>
+      <c r="K109" s="103"/>
+      <c r="L109" s="103"/>
+      <c r="M109" s="104"/>
       <c r="N109" s="10" t="s">
         <v>859</v>
       </c>
@@ -37337,10 +37337,10 @@
       <c r="K111" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L111" s="97" t="s">
+      <c r="L111" s="102" t="s">
         <v>860</v>
       </c>
-      <c r="M111" s="99"/>
+      <c r="M111" s="104"/>
       <c r="N111" s="10" t="s">
         <v>861</v>
       </c>
@@ -37409,16 +37409,16 @@
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="F113" s="97" t="s">
+      <c r="F113" s="102" t="s">
         <v>862</v>
       </c>
-      <c r="G113" s="98"/>
-      <c r="H113" s="98"/>
-      <c r="I113" s="98"/>
-      <c r="J113" s="98"/>
-      <c r="K113" s="98"/>
-      <c r="L113" s="98"/>
-      <c r="M113" s="99"/>
+      <c r="G113" s="103"/>
+      <c r="H113" s="103"/>
+      <c r="I113" s="103"/>
+      <c r="J113" s="103"/>
+      <c r="K113" s="103"/>
+      <c r="L113" s="103"/>
+      <c r="M113" s="104"/>
       <c r="N113" s="10" t="s">
         <v>863</v>
       </c>
@@ -37506,10 +37506,10 @@
       <c r="K115" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L115" s="97" t="s">
+      <c r="L115" s="102" t="s">
         <v>865</v>
       </c>
-      <c r="M115" s="99"/>
+      <c r="M115" s="104"/>
       <c r="N115" s="10" t="s">
         <v>866</v>
       </c>
@@ -37578,16 +37578,16 @@
         <f t="shared" si="2"/>
         <v>5B</v>
       </c>
-      <c r="F117" s="97" t="s">
+      <c r="F117" s="102" t="s">
         <v>867</v>
       </c>
-      <c r="G117" s="98"/>
-      <c r="H117" s="98"/>
-      <c r="I117" s="98"/>
-      <c r="J117" s="98"/>
-      <c r="K117" s="98"/>
-      <c r="L117" s="98"/>
-      <c r="M117" s="99"/>
+      <c r="G117" s="103"/>
+      <c r="H117" s="103"/>
+      <c r="I117" s="103"/>
+      <c r="J117" s="103"/>
+      <c r="K117" s="103"/>
+      <c r="L117" s="103"/>
+      <c r="M117" s="104"/>
       <c r="N117" s="10" t="s">
         <v>868</v>
       </c>
@@ -37675,10 +37675,10 @@
       <c r="K119" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L119" s="97" t="s">
+      <c r="L119" s="102" t="s">
         <v>870</v>
       </c>
-      <c r="M119" s="99"/>
+      <c r="M119" s="104"/>
       <c r="N119" s="10" t="s">
         <v>871</v>
       </c>
@@ -37747,16 +37747,16 @@
         <f t="shared" si="2"/>
         <v>A3</v>
       </c>
-      <c r="F121" s="97" t="s">
+      <c r="F121" s="102" t="s">
         <v>872</v>
       </c>
-      <c r="G121" s="98"/>
-      <c r="H121" s="98"/>
-      <c r="I121" s="98"/>
-      <c r="J121" s="98"/>
-      <c r="K121" s="98"/>
-      <c r="L121" s="98"/>
-      <c r="M121" s="99"/>
+      <c r="G121" s="103"/>
+      <c r="H121" s="103"/>
+      <c r="I121" s="103"/>
+      <c r="J121" s="103"/>
+      <c r="K121" s="103"/>
+      <c r="L121" s="103"/>
+      <c r="M121" s="104"/>
       <c r="N121" s="10" t="s">
         <v>873</v>
       </c>
@@ -37844,10 +37844,10 @@
       <c r="K123" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L123" s="97" t="s">
+      <c r="L123" s="102" t="s">
         <v>875</v>
       </c>
-      <c r="M123" s="99"/>
+      <c r="M123" s="104"/>
       <c r="N123" s="10" t="s">
         <v>876</v>
       </c>
@@ -37916,16 +37916,16 @@
         <f t="shared" si="2"/>
         <v>F6</v>
       </c>
-      <c r="F125" s="97" t="s">
+      <c r="F125" s="102" t="s">
         <v>877</v>
       </c>
-      <c r="G125" s="98"/>
-      <c r="H125" s="98"/>
-      <c r="I125" s="98"/>
-      <c r="J125" s="98"/>
-      <c r="K125" s="98"/>
-      <c r="L125" s="98"/>
-      <c r="M125" s="99"/>
+      <c r="G125" s="103"/>
+      <c r="H125" s="103"/>
+      <c r="I125" s="103"/>
+      <c r="J125" s="103"/>
+      <c r="K125" s="103"/>
+      <c r="L125" s="103"/>
+      <c r="M125" s="104"/>
       <c r="N125" s="10" t="s">
         <v>878</v>
       </c>
@@ -38013,10 +38013,10 @@
       <c r="K127" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L127" s="97" t="s">
+      <c r="L127" s="102" t="s">
         <v>880</v>
       </c>
-      <c r="M127" s="99"/>
+      <c r="M127" s="104"/>
       <c r="N127" s="10" t="s">
         <v>881</v>
       </c>
@@ -38085,16 +38085,16 @@
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="F129" s="97" t="s">
+      <c r="F129" s="102" t="s">
         <v>882</v>
       </c>
-      <c r="G129" s="98"/>
-      <c r="H129" s="98"/>
-      <c r="I129" s="98"/>
-      <c r="J129" s="98"/>
-      <c r="K129" s="98"/>
-      <c r="L129" s="98"/>
-      <c r="M129" s="99"/>
+      <c r="G129" s="103"/>
+      <c r="H129" s="103"/>
+      <c r="I129" s="103"/>
+      <c r="J129" s="103"/>
+      <c r="K129" s="103"/>
+      <c r="L129" s="103"/>
+      <c r="M129" s="104"/>
       <c r="N129" s="10" t="s">
         <v>883</v>
       </c>
@@ -38182,10 +38182,10 @@
       <c r="K131" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L131" s="97" t="s">
+      <c r="L131" s="102" t="s">
         <v>885</v>
       </c>
-      <c r="M131" s="99"/>
+      <c r="M131" s="104"/>
       <c r="N131" s="10" t="s">
         <v>886</v>
       </c>
@@ -38254,16 +38254,16 @@
         <f t="shared" si="2"/>
         <v>8D</v>
       </c>
-      <c r="F133" s="97" t="s">
+      <c r="F133" s="102" t="s">
         <v>887</v>
       </c>
-      <c r="G133" s="98"/>
-      <c r="H133" s="98"/>
-      <c r="I133" s="98"/>
-      <c r="J133" s="98"/>
-      <c r="K133" s="98"/>
-      <c r="L133" s="98"/>
-      <c r="M133" s="99"/>
+      <c r="G133" s="103"/>
+      <c r="H133" s="103"/>
+      <c r="I133" s="103"/>
+      <c r="J133" s="103"/>
+      <c r="K133" s="103"/>
+      <c r="L133" s="103"/>
+      <c r="M133" s="104"/>
       <c r="N133" s="10" t="s">
         <v>888</v>
       </c>
@@ -38351,10 +38351,10 @@
       <c r="K135" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L135" s="97" t="s">
+      <c r="L135" s="102" t="s">
         <v>890</v>
       </c>
-      <c r="M135" s="99"/>
+      <c r="M135" s="104"/>
       <c r="N135" s="10" t="s">
         <v>891</v>
       </c>
@@ -38423,16 +38423,16 @@
         <f t="shared" si="2"/>
         <v>BE</v>
       </c>
-      <c r="F137" s="97" t="s">
+      <c r="F137" s="102" t="s">
         <v>892</v>
       </c>
-      <c r="G137" s="98"/>
-      <c r="H137" s="98"/>
-      <c r="I137" s="98"/>
-      <c r="J137" s="98"/>
-      <c r="K137" s="98"/>
-      <c r="L137" s="98"/>
-      <c r="M137" s="99"/>
+      <c r="G137" s="103"/>
+      <c r="H137" s="103"/>
+      <c r="I137" s="103"/>
+      <c r="J137" s="103"/>
+      <c r="K137" s="103"/>
+      <c r="L137" s="103"/>
+      <c r="M137" s="104"/>
       <c r="N137" s="10" t="s">
         <v>893</v>
       </c>
@@ -38520,10 +38520,10 @@
       <c r="K139" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L139" s="97" t="s">
+      <c r="L139" s="102" t="s">
         <v>895</v>
       </c>
-      <c r="M139" s="99"/>
+      <c r="M139" s="104"/>
       <c r="N139" s="10" t="s">
         <v>896</v>
       </c>
@@ -38592,16 +38592,16 @@
         <f t="shared" si="2"/>
         <v>D6</v>
       </c>
-      <c r="F141" s="97" t="s">
+      <c r="F141" s="102" t="s">
         <v>897</v>
       </c>
-      <c r="G141" s="98"/>
-      <c r="H141" s="98"/>
-      <c r="I141" s="98"/>
-      <c r="J141" s="98"/>
-      <c r="K141" s="98"/>
-      <c r="L141" s="98"/>
-      <c r="M141" s="99"/>
+      <c r="G141" s="103"/>
+      <c r="H141" s="103"/>
+      <c r="I141" s="103"/>
+      <c r="J141" s="103"/>
+      <c r="K141" s="103"/>
+      <c r="L141" s="103"/>
+      <c r="M141" s="104"/>
       <c r="N141" s="10" t="s">
         <v>898</v>
       </c>
@@ -38689,10 +38689,10 @@
       <c r="K143" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L143" s="97" t="s">
+      <c r="L143" s="102" t="s">
         <v>900</v>
       </c>
-      <c r="M143" s="99"/>
+      <c r="M143" s="104"/>
       <c r="N143" s="10" t="s">
         <v>901</v>
       </c>
@@ -38761,16 +38761,16 @@
         <f t="shared" si="2"/>
         <v>D6</v>
       </c>
-      <c r="F145" s="97" t="s">
+      <c r="F145" s="102" t="s">
         <v>902</v>
       </c>
-      <c r="G145" s="98"/>
-      <c r="H145" s="98"/>
-      <c r="I145" s="98"/>
-      <c r="J145" s="98"/>
-      <c r="K145" s="98"/>
-      <c r="L145" s="98"/>
-      <c r="M145" s="99"/>
+      <c r="G145" s="103"/>
+      <c r="H145" s="103"/>
+      <c r="I145" s="103"/>
+      <c r="J145" s="103"/>
+      <c r="K145" s="103"/>
+      <c r="L145" s="103"/>
+      <c r="M145" s="104"/>
       <c r="N145" s="10" t="s">
         <v>903</v>
       </c>
@@ -38858,10 +38858,10 @@
       <c r="K147" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L147" s="97" t="s">
+      <c r="L147" s="102" t="s">
         <v>904</v>
       </c>
-      <c r="M147" s="99"/>
+      <c r="M147" s="104"/>
       <c r="N147" s="10" t="s">
         <v>905</v>
       </c>
@@ -38930,16 +38930,16 @@
         <f t="shared" si="2"/>
         <v>BD</v>
       </c>
-      <c r="F149" s="97" t="s">
+      <c r="F149" s="102" t="s">
         <v>906</v>
       </c>
-      <c r="G149" s="98"/>
-      <c r="H149" s="98"/>
-      <c r="I149" s="98"/>
-      <c r="J149" s="98"/>
-      <c r="K149" s="98"/>
-      <c r="L149" s="98"/>
-      <c r="M149" s="99"/>
+      <c r="G149" s="103"/>
+      <c r="H149" s="103"/>
+      <c r="I149" s="103"/>
+      <c r="J149" s="103"/>
+      <c r="K149" s="103"/>
+      <c r="L149" s="103"/>
+      <c r="M149" s="104"/>
       <c r="N149" s="10" t="s">
         <v>907</v>
       </c>
@@ -39027,10 +39027,10 @@
       <c r="K151" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L151" s="97" t="s">
+      <c r="L151" s="102" t="s">
         <v>909</v>
       </c>
-      <c r="M151" s="99"/>
+      <c r="M151" s="104"/>
       <c r="N151" s="10" t="s">
         <v>910</v>
       </c>
@@ -39099,16 +39099,16 @@
         <f t="shared" si="2"/>
         <v>8F</v>
       </c>
-      <c r="F153" s="97" t="s">
+      <c r="F153" s="102" t="s">
         <v>911</v>
       </c>
-      <c r="G153" s="98"/>
-      <c r="H153" s="98"/>
-      <c r="I153" s="98"/>
-      <c r="J153" s="98"/>
-      <c r="K153" s="98"/>
-      <c r="L153" s="98"/>
-      <c r="M153" s="99"/>
+      <c r="G153" s="103"/>
+      <c r="H153" s="103"/>
+      <c r="I153" s="103"/>
+      <c r="J153" s="103"/>
+      <c r="K153" s="103"/>
+      <c r="L153" s="103"/>
+      <c r="M153" s="104"/>
       <c r="N153" s="10" t="s">
         <v>912</v>
       </c>
@@ -39196,10 +39196,10 @@
       <c r="K155" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L155" s="97" t="s">
+      <c r="L155" s="102" t="s">
         <v>914</v>
       </c>
-      <c r="M155" s="99"/>
+      <c r="M155" s="104"/>
       <c r="N155" s="10" t="s">
         <v>915</v>
       </c>
@@ -39268,16 +39268,16 @@
         <f t="shared" si="2"/>
         <v>53</v>
       </c>
-      <c r="F157" s="97" t="s">
+      <c r="F157" s="102" t="s">
         <v>916</v>
       </c>
-      <c r="G157" s="98"/>
-      <c r="H157" s="98"/>
-      <c r="I157" s="98"/>
-      <c r="J157" s="98"/>
-      <c r="K157" s="98"/>
-      <c r="L157" s="98"/>
-      <c r="M157" s="99"/>
+      <c r="G157" s="103"/>
+      <c r="H157" s="103"/>
+      <c r="I157" s="103"/>
+      <c r="J157" s="103"/>
+      <c r="K157" s="103"/>
+      <c r="L157" s="103"/>
+      <c r="M157" s="104"/>
       <c r="N157" s="10" t="s">
         <v>917</v>
       </c>
@@ -39365,10 +39365,10 @@
       <c r="K159" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L159" s="97" t="s">
+      <c r="L159" s="102" t="s">
         <v>919</v>
       </c>
-      <c r="M159" s="99"/>
+      <c r="M159" s="104"/>
       <c r="N159" s="10" t="s">
         <v>920</v>
       </c>
@@ -39437,16 +39437,16 @@
         <f t="shared" si="2"/>
         <v>0E</v>
       </c>
-      <c r="F161" s="97" t="s">
+      <c r="F161" s="102" t="s">
         <v>921</v>
       </c>
-      <c r="G161" s="98"/>
-      <c r="H161" s="98"/>
-      <c r="I161" s="98"/>
-      <c r="J161" s="98"/>
-      <c r="K161" s="98"/>
-      <c r="L161" s="98"/>
-      <c r="M161" s="99"/>
+      <c r="G161" s="103"/>
+      <c r="H161" s="103"/>
+      <c r="I161" s="103"/>
+      <c r="J161" s="103"/>
+      <c r="K161" s="103"/>
+      <c r="L161" s="103"/>
+      <c r="M161" s="104"/>
       <c r="N161" s="10" t="s">
         <v>922</v>
       </c>
@@ -39534,10 +39534,10 @@
       <c r="K163" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L163" s="97" t="s">
+      <c r="L163" s="102" t="s">
         <v>923</v>
       </c>
-      <c r="M163" s="99"/>
+      <c r="M163" s="104"/>
       <c r="N163" s="10" t="s">
         <v>924</v>
       </c>
@@ -39606,16 +39606,16 @@
         <f t="shared" si="2"/>
         <v>C5</v>
       </c>
-      <c r="F165" s="97" t="s">
+      <c r="F165" s="102" t="s">
         <v>925</v>
       </c>
-      <c r="G165" s="98"/>
-      <c r="H165" s="98"/>
-      <c r="I165" s="98"/>
-      <c r="J165" s="98"/>
-      <c r="K165" s="98"/>
-      <c r="L165" s="98"/>
-      <c r="M165" s="99"/>
+      <c r="G165" s="103"/>
+      <c r="H165" s="103"/>
+      <c r="I165" s="103"/>
+      <c r="J165" s="103"/>
+      <c r="K165" s="103"/>
+      <c r="L165" s="103"/>
+      <c r="M165" s="104"/>
       <c r="N165" s="10" t="s">
         <v>926</v>
       </c>
@@ -39703,10 +39703,10 @@
       <c r="K167" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L167" s="97" t="s">
+      <c r="L167" s="102" t="s">
         <v>928</v>
       </c>
-      <c r="M167" s="99"/>
+      <c r="M167" s="104"/>
       <c r="N167" s="10" t="s">
         <v>929</v>
       </c>
@@ -39775,16 +39775,16 @@
         <f t="shared" si="2"/>
         <v>79</v>
       </c>
-      <c r="F169" s="97" t="s">
+      <c r="F169" s="102" t="s">
         <v>930</v>
       </c>
-      <c r="G169" s="98"/>
-      <c r="H169" s="98"/>
-      <c r="I169" s="98"/>
-      <c r="J169" s="98"/>
-      <c r="K169" s="98"/>
-      <c r="L169" s="98"/>
-      <c r="M169" s="99"/>
+      <c r="G169" s="103"/>
+      <c r="H169" s="103"/>
+      <c r="I169" s="103"/>
+      <c r="J169" s="103"/>
+      <c r="K169" s="103"/>
+      <c r="L169" s="103"/>
+      <c r="M169" s="104"/>
       <c r="N169" s="10" t="s">
         <v>931</v>
       </c>
@@ -39872,10 +39872,10 @@
       <c r="K171" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L171" s="97" t="s">
+      <c r="L171" s="102" t="s">
         <v>933</v>
       </c>
-      <c r="M171" s="99"/>
+      <c r="M171" s="104"/>
       <c r="N171" s="10" t="s">
         <v>934</v>
       </c>
@@ -39944,16 +39944,16 @@
         <f t="shared" ref="E173:E235" si="3">BIN2HEX(P173,2)</f>
         <v>3F</v>
       </c>
-      <c r="F173" s="97" t="s">
+      <c r="F173" s="102" t="s">
         <v>935</v>
       </c>
-      <c r="G173" s="98"/>
-      <c r="H173" s="98"/>
-      <c r="I173" s="98"/>
-      <c r="J173" s="98"/>
-      <c r="K173" s="98"/>
-      <c r="L173" s="98"/>
-      <c r="M173" s="99"/>
+      <c r="G173" s="103"/>
+      <c r="H173" s="103"/>
+      <c r="I173" s="103"/>
+      <c r="J173" s="103"/>
+      <c r="K173" s="103"/>
+      <c r="L173" s="103"/>
+      <c r="M173" s="104"/>
       <c r="N173" s="10" t="s">
         <v>936</v>
       </c>
@@ -40041,10 +40041,10 @@
       <c r="K175" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L175" s="97" t="s">
+      <c r="L175" s="102" t="s">
         <v>938</v>
       </c>
-      <c r="M175" s="99"/>
+      <c r="M175" s="104"/>
       <c r="N175" s="10" t="s">
         <v>939</v>
       </c>
@@ -40113,16 +40113,16 @@
         <f t="shared" si="3"/>
         <v>09</v>
       </c>
-      <c r="F177" s="97" t="s">
+      <c r="F177" s="102" t="s">
         <v>940</v>
       </c>
-      <c r="G177" s="98"/>
-      <c r="H177" s="98"/>
-      <c r="I177" s="98"/>
-      <c r="J177" s="98"/>
-      <c r="K177" s="98"/>
-      <c r="L177" s="98"/>
-      <c r="M177" s="99"/>
+      <c r="G177" s="103"/>
+      <c r="H177" s="103"/>
+      <c r="I177" s="103"/>
+      <c r="J177" s="103"/>
+      <c r="K177" s="103"/>
+      <c r="L177" s="103"/>
+      <c r="M177" s="104"/>
       <c r="N177" s="10" t="s">
         <v>941</v>
       </c>
@@ -40210,10 +40210,10 @@
       <c r="K179" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L179" s="97" t="s">
+      <c r="L179" s="102" t="s">
         <v>943</v>
       </c>
-      <c r="M179" s="99"/>
+      <c r="M179" s="104"/>
       <c r="N179" s="10" t="s">
         <v>944</v>
       </c>
@@ -40282,16 +40282,16 @@
         <f t="shared" si="3"/>
         <v>E0</v>
       </c>
-      <c r="F181" s="97" t="s">
+      <c r="F181" s="102" t="s">
         <v>945</v>
       </c>
-      <c r="G181" s="98"/>
-      <c r="H181" s="98"/>
-      <c r="I181" s="98"/>
-      <c r="J181" s="98"/>
-      <c r="K181" s="98"/>
-      <c r="L181" s="98"/>
-      <c r="M181" s="99"/>
+      <c r="G181" s="103"/>
+      <c r="H181" s="103"/>
+      <c r="I181" s="103"/>
+      <c r="J181" s="103"/>
+      <c r="K181" s="103"/>
+      <c r="L181" s="103"/>
+      <c r="M181" s="104"/>
       <c r="N181" s="10" t="s">
         <v>946</v>
       </c>
@@ -40379,10 +40379,10 @@
       <c r="K183" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L183" s="97" t="s">
+      <c r="L183" s="102" t="s">
         <v>948</v>
       </c>
-      <c r="M183" s="99"/>
+      <c r="M183" s="104"/>
       <c r="N183" s="10" t="s">
         <v>949</v>
       </c>
@@ -40451,16 +40451,16 @@
         <f t="shared" si="3"/>
         <v>C1</v>
       </c>
-      <c r="F185" s="97" t="s">
+      <c r="F185" s="102" t="s">
         <v>950</v>
       </c>
-      <c r="G185" s="98"/>
-      <c r="H185" s="98"/>
-      <c r="I185" s="98"/>
-      <c r="J185" s="98"/>
-      <c r="K185" s="98"/>
-      <c r="L185" s="98"/>
-      <c r="M185" s="99"/>
+      <c r="G185" s="103"/>
+      <c r="H185" s="103"/>
+      <c r="I185" s="103"/>
+      <c r="J185" s="103"/>
+      <c r="K185" s="103"/>
+      <c r="L185" s="103"/>
+      <c r="M185" s="104"/>
       <c r="N185" s="10" t="s">
         <v>951</v>
       </c>
@@ -40548,10 +40548,10 @@
       <c r="K187" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L187" s="97" t="s">
+      <c r="L187" s="102" t="s">
         <v>952</v>
       </c>
-      <c r="M187" s="99"/>
+      <c r="M187" s="104"/>
       <c r="N187" s="10" t="s">
         <v>953</v>
       </c>
@@ -40620,16 +40620,16 @@
         <f t="shared" si="3"/>
         <v>B0</v>
       </c>
-      <c r="F189" s="97" t="s">
+      <c r="F189" s="102" t="s">
         <v>954</v>
       </c>
-      <c r="G189" s="98"/>
-      <c r="H189" s="98"/>
-      <c r="I189" s="98"/>
-      <c r="J189" s="98"/>
-      <c r="K189" s="98"/>
-      <c r="L189" s="98"/>
-      <c r="M189" s="99"/>
+      <c r="G189" s="103"/>
+      <c r="H189" s="103"/>
+      <c r="I189" s="103"/>
+      <c r="J189" s="103"/>
+      <c r="K189" s="103"/>
+      <c r="L189" s="103"/>
+      <c r="M189" s="104"/>
       <c r="N189" s="10" t="s">
         <v>955</v>
       </c>
@@ -40717,10 +40717,10 @@
       <c r="K191" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L191" s="97" t="s">
+      <c r="L191" s="102" t="s">
         <v>957</v>
       </c>
-      <c r="M191" s="99"/>
+      <c r="M191" s="104"/>
       <c r="N191" s="10" t="s">
         <v>958</v>
       </c>
@@ -40789,16 +40789,16 @@
         <f t="shared" si="3"/>
         <v>AA</v>
       </c>
-      <c r="F193" s="97" t="s">
+      <c r="F193" s="102" t="s">
         <v>959</v>
       </c>
-      <c r="G193" s="98"/>
-      <c r="H193" s="98"/>
-      <c r="I193" s="98"/>
-      <c r="J193" s="98"/>
-      <c r="K193" s="98"/>
-      <c r="L193" s="98"/>
-      <c r="M193" s="99"/>
+      <c r="G193" s="103"/>
+      <c r="H193" s="103"/>
+      <c r="I193" s="103"/>
+      <c r="J193" s="103"/>
+      <c r="K193" s="103"/>
+      <c r="L193" s="103"/>
+      <c r="M193" s="104"/>
       <c r="N193" s="10" t="s">
         <v>960</v>
       </c>
@@ -40886,10 +40886,10 @@
       <c r="K195" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L195" s="97" t="s">
+      <c r="L195" s="102" t="s">
         <v>962</v>
       </c>
-      <c r="M195" s="99"/>
+      <c r="M195" s="104"/>
       <c r="N195" s="10" t="s">
         <v>963</v>
       </c>
@@ -40958,16 +40958,16 @@
         <f t="shared" si="3"/>
         <v>AB</v>
       </c>
-      <c r="F197" s="97" t="s">
+      <c r="F197" s="102" t="s">
         <v>964</v>
       </c>
-      <c r="G197" s="98"/>
-      <c r="H197" s="98"/>
-      <c r="I197" s="98"/>
-      <c r="J197" s="98"/>
-      <c r="K197" s="98"/>
-      <c r="L197" s="98"/>
-      <c r="M197" s="99"/>
+      <c r="G197" s="103"/>
+      <c r="H197" s="103"/>
+      <c r="I197" s="103"/>
+      <c r="J197" s="103"/>
+      <c r="K197" s="103"/>
+      <c r="L197" s="103"/>
+      <c r="M197" s="104"/>
       <c r="N197" s="10" t="s">
         <v>965</v>
       </c>
@@ -41055,10 +41055,10 @@
       <c r="K199" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L199" s="97" t="s">
+      <c r="L199" s="102" t="s">
         <v>967</v>
       </c>
-      <c r="M199" s="99"/>
+      <c r="M199" s="104"/>
       <c r="N199" s="10" t="s">
         <v>968</v>
       </c>
@@ -41127,16 +41127,16 @@
         <f t="shared" si="3"/>
         <v>B5</v>
       </c>
-      <c r="F201" s="97" t="s">
+      <c r="F201" s="102" t="s">
         <v>969</v>
       </c>
-      <c r="G201" s="98"/>
-      <c r="H201" s="98"/>
-      <c r="I201" s="98"/>
-      <c r="J201" s="98"/>
-      <c r="K201" s="98"/>
-      <c r="L201" s="98"/>
-      <c r="M201" s="99"/>
+      <c r="G201" s="103"/>
+      <c r="H201" s="103"/>
+      <c r="I201" s="103"/>
+      <c r="J201" s="103"/>
+      <c r="K201" s="103"/>
+      <c r="L201" s="103"/>
+      <c r="M201" s="104"/>
       <c r="N201" s="10" t="s">
         <v>970</v>
       </c>
@@ -41224,10 +41224,10 @@
       <c r="K203" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L203" s="97" t="s">
+      <c r="L203" s="102" t="s">
         <v>972</v>
       </c>
-      <c r="M203" s="99"/>
+      <c r="M203" s="104"/>
       <c r="N203" s="10" t="s">
         <v>973</v>
       </c>
@@ -41296,16 +41296,16 @@
         <f t="shared" si="3"/>
         <v>C1</v>
       </c>
-      <c r="F205" s="97" t="s">
+      <c r="F205" s="102" t="s">
         <v>974</v>
       </c>
-      <c r="G205" s="98"/>
-      <c r="H205" s="98"/>
-      <c r="I205" s="98"/>
-      <c r="J205" s="98"/>
-      <c r="K205" s="98"/>
-      <c r="L205" s="98"/>
-      <c r="M205" s="99"/>
+      <c r="G205" s="103"/>
+      <c r="H205" s="103"/>
+      <c r="I205" s="103"/>
+      <c r="J205" s="103"/>
+      <c r="K205" s="103"/>
+      <c r="L205" s="103"/>
+      <c r="M205" s="104"/>
       <c r="N205" s="10" t="s">
         <v>975</v>
       </c>
@@ -41393,10 +41393,10 @@
       <c r="K207" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L207" s="97" t="s">
+      <c r="L207" s="102" t="s">
         <v>976</v>
       </c>
-      <c r="M207" s="99"/>
+      <c r="M207" s="104"/>
       <c r="N207" s="10" t="s">
         <v>977</v>
       </c>
@@ -41465,16 +41465,16 @@
         <f t="shared" si="3"/>
         <v>D2</v>
       </c>
-      <c r="F209" s="97" t="s">
+      <c r="F209" s="102" t="s">
         <v>978</v>
       </c>
-      <c r="G209" s="98"/>
-      <c r="H209" s="98"/>
-      <c r="I209" s="98"/>
-      <c r="J209" s="98"/>
-      <c r="K209" s="98"/>
-      <c r="L209" s="98"/>
-      <c r="M209" s="99"/>
+      <c r="G209" s="103"/>
+      <c r="H209" s="103"/>
+      <c r="I209" s="103"/>
+      <c r="J209" s="103"/>
+      <c r="K209" s="103"/>
+      <c r="L209" s="103"/>
+      <c r="M209" s="104"/>
       <c r="N209" s="10" t="s">
         <v>979</v>
       </c>
@@ -41562,10 +41562,10 @@
       <c r="K211" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L211" s="97" t="s">
+      <c r="L211" s="102" t="s">
         <v>981</v>
       </c>
-      <c r="M211" s="99"/>
+      <c r="M211" s="104"/>
       <c r="N211" s="10" t="s">
         <v>982</v>
       </c>
@@ -41634,16 +41634,16 @@
         <f t="shared" si="3"/>
         <v>E3</v>
       </c>
-      <c r="F213" s="97" t="s">
+      <c r="F213" s="102" t="s">
         <v>983</v>
       </c>
-      <c r="G213" s="98"/>
-      <c r="H213" s="98"/>
-      <c r="I213" s="98"/>
-      <c r="J213" s="98"/>
-      <c r="K213" s="98"/>
-      <c r="L213" s="98"/>
-      <c r="M213" s="99"/>
+      <c r="G213" s="103"/>
+      <c r="H213" s="103"/>
+      <c r="I213" s="103"/>
+      <c r="J213" s="103"/>
+      <c r="K213" s="103"/>
+      <c r="L213" s="103"/>
+      <c r="M213" s="104"/>
       <c r="N213" s="10" t="s">
         <v>984</v>
       </c>
@@ -41731,10 +41731,10 @@
       <c r="K215" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L215" s="97" t="s">
+      <c r="L215" s="102" t="s">
         <v>986</v>
       </c>
-      <c r="M215" s="99"/>
+      <c r="M215" s="104"/>
       <c r="N215" s="10" t="s">
         <v>987</v>
       </c>
@@ -41803,16 +41803,16 @@
         <f t="shared" si="3"/>
         <v>F1</v>
       </c>
-      <c r="F217" s="97" t="s">
+      <c r="F217" s="102" t="s">
         <v>988</v>
       </c>
-      <c r="G217" s="98"/>
-      <c r="H217" s="98"/>
-      <c r="I217" s="98"/>
-      <c r="J217" s="98"/>
-      <c r="K217" s="98"/>
-      <c r="L217" s="98"/>
-      <c r="M217" s="99"/>
+      <c r="G217" s="103"/>
+      <c r="H217" s="103"/>
+      <c r="I217" s="103"/>
+      <c r="J217" s="103"/>
+      <c r="K217" s="103"/>
+      <c r="L217" s="103"/>
+      <c r="M217" s="104"/>
       <c r="N217" s="10" t="s">
         <v>989</v>
       </c>
@@ -41900,10 +41900,10 @@
       <c r="K219" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L219" s="97" t="s">
+      <c r="L219" s="102" t="s">
         <v>991</v>
       </c>
-      <c r="M219" s="99"/>
+      <c r="M219" s="104"/>
       <c r="N219" s="10" t="s">
         <v>992</v>
       </c>
@@ -41972,16 +41972,16 @@
         <f t="shared" si="3"/>
         <v>FF</v>
       </c>
-      <c r="F221" s="97" t="s">
+      <c r="F221" s="102" t="s">
         <v>993</v>
       </c>
-      <c r="G221" s="98"/>
-      <c r="H221" s="98"/>
-      <c r="I221" s="98"/>
-      <c r="J221" s="98"/>
-      <c r="K221" s="98"/>
-      <c r="L221" s="98"/>
-      <c r="M221" s="99"/>
+      <c r="G221" s="103"/>
+      <c r="H221" s="103"/>
+      <c r="I221" s="103"/>
+      <c r="J221" s="103"/>
+      <c r="K221" s="103"/>
+      <c r="L221" s="103"/>
+      <c r="M221" s="104"/>
       <c r="N221" s="10" t="s">
         <v>994</v>
       </c>
@@ -42069,10 +42069,10 @@
       <c r="K223" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L223" s="97" t="s">
+      <c r="L223" s="102" t="s">
         <v>995</v>
       </c>
-      <c r="M223" s="99"/>
+      <c r="M223" s="104"/>
       <c r="N223" s="10" t="s">
         <v>996</v>
       </c>
@@ -42141,16 +42141,16 @@
         <f t="shared" si="3"/>
         <v>0A</v>
       </c>
-      <c r="F225" s="97" t="s">
+      <c r="F225" s="102" t="s">
         <v>997</v>
       </c>
-      <c r="G225" s="98"/>
-      <c r="H225" s="98"/>
-      <c r="I225" s="98"/>
-      <c r="J225" s="98"/>
-      <c r="K225" s="98"/>
-      <c r="L225" s="98"/>
-      <c r="M225" s="99"/>
+      <c r="G225" s="103"/>
+      <c r="H225" s="103"/>
+      <c r="I225" s="103"/>
+      <c r="J225" s="103"/>
+      <c r="K225" s="103"/>
+      <c r="L225" s="103"/>
+      <c r="M225" s="104"/>
       <c r="N225" s="10" t="s">
         <v>998</v>
       </c>
@@ -42238,10 +42238,10 @@
       <c r="K227" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L227" s="97" t="s">
+      <c r="L227" s="102" t="s">
         <v>999</v>
       </c>
-      <c r="M227" s="99"/>
+      <c r="M227" s="104"/>
       <c r="N227" s="10" t="s">
         <v>1000</v>
       </c>
@@ -42310,16 +42310,16 @@
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="F229" s="97" t="s">
+      <c r="F229" s="102" t="s">
         <v>1001</v>
       </c>
-      <c r="G229" s="98"/>
-      <c r="H229" s="98"/>
-      <c r="I229" s="98"/>
-      <c r="J229" s="98"/>
-      <c r="K229" s="98"/>
-      <c r="L229" s="98"/>
-      <c r="M229" s="99"/>
+      <c r="G229" s="103"/>
+      <c r="H229" s="103"/>
+      <c r="I229" s="103"/>
+      <c r="J229" s="103"/>
+      <c r="K229" s="103"/>
+      <c r="L229" s="103"/>
+      <c r="M229" s="104"/>
       <c r="N229" s="10" t="s">
         <v>1002</v>
       </c>
@@ -42407,10 +42407,10 @@
       <c r="K231" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L231" s="97" t="s">
+      <c r="L231" s="102" t="s">
         <v>1004</v>
       </c>
-      <c r="M231" s="99"/>
+      <c r="M231" s="104"/>
       <c r="N231" s="10" t="s">
         <v>1005</v>
       </c>
@@ -42479,16 +42479,16 @@
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="F233" s="97" t="s">
+      <c r="F233" s="102" t="s">
         <v>1006</v>
       </c>
-      <c r="G233" s="98"/>
-      <c r="H233" s="98"/>
-      <c r="I233" s="98"/>
-      <c r="J233" s="98"/>
-      <c r="K233" s="98"/>
-      <c r="L233" s="98"/>
-      <c r="M233" s="99"/>
+      <c r="G233" s="103"/>
+      <c r="H233" s="103"/>
+      <c r="I233" s="103"/>
+      <c r="J233" s="103"/>
+      <c r="K233" s="103"/>
+      <c r="L233" s="103"/>
+      <c r="M233" s="104"/>
       <c r="N233" s="10" t="s">
         <v>1007</v>
       </c>
@@ -42576,10 +42576,10 @@
       <c r="K235" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L235" s="97" t="s">
+      <c r="L235" s="102" t="s">
         <v>1008</v>
       </c>
-      <c r="M235" s="99"/>
+      <c r="M235" s="104"/>
       <c r="N235" s="10" t="s">
         <v>1009</v>
       </c>
@@ -42648,16 +42648,16 @@
         <f t="shared" ref="E237:E261" si="4">BIN2HEX(P237,2)</f>
         <v>18</v>
       </c>
-      <c r="F237" s="97" t="s">
+      <c r="F237" s="102" t="s">
         <v>1010</v>
       </c>
-      <c r="G237" s="98"/>
-      <c r="H237" s="98"/>
-      <c r="I237" s="98"/>
-      <c r="J237" s="98"/>
-      <c r="K237" s="98"/>
-      <c r="L237" s="98"/>
-      <c r="M237" s="99"/>
+      <c r="G237" s="103"/>
+      <c r="H237" s="103"/>
+      <c r="I237" s="103"/>
+      <c r="J237" s="103"/>
+      <c r="K237" s="103"/>
+      <c r="L237" s="103"/>
+      <c r="M237" s="104"/>
       <c r="N237" s="10" t="s">
         <v>1011</v>
       </c>
@@ -42745,10 +42745,10 @@
       <c r="K239" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L239" s="97" t="s">
+      <c r="L239" s="102" t="s">
         <v>1012</v>
       </c>
-      <c r="M239" s="99"/>
+      <c r="M239" s="104"/>
       <c r="N239" s="10" t="s">
         <v>1013</v>
       </c>
@@ -42817,16 +42817,16 @@
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="F241" s="97" t="s">
+      <c r="F241" s="102" t="s">
         <v>1014</v>
       </c>
-      <c r="G241" s="98"/>
-      <c r="H241" s="98"/>
-      <c r="I241" s="98"/>
-      <c r="J241" s="98"/>
-      <c r="K241" s="98"/>
-      <c r="L241" s="98"/>
-      <c r="M241" s="99"/>
+      <c r="G241" s="103"/>
+      <c r="H241" s="103"/>
+      <c r="I241" s="103"/>
+      <c r="J241" s="103"/>
+      <c r="K241" s="103"/>
+      <c r="L241" s="103"/>
+      <c r="M241" s="104"/>
       <c r="N241" s="10" t="s">
         <v>1015</v>
       </c>
@@ -42914,10 +42914,10 @@
       <c r="K243" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L243" s="97" t="s">
+      <c r="L243" s="102" t="s">
         <v>1017</v>
       </c>
-      <c r="M243" s="99"/>
+      <c r="M243" s="104"/>
       <c r="N243" s="10" t="s">
         <v>1018</v>
       </c>
@@ -42986,16 +42986,16 @@
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="F245" s="97" t="s">
+      <c r="F245" s="102" t="s">
         <v>1019</v>
       </c>
-      <c r="G245" s="98"/>
-      <c r="H245" s="98"/>
-      <c r="I245" s="98"/>
-      <c r="J245" s="98"/>
-      <c r="K245" s="98"/>
-      <c r="L245" s="98"/>
-      <c r="M245" s="99"/>
+      <c r="G245" s="103"/>
+      <c r="H245" s="103"/>
+      <c r="I245" s="103"/>
+      <c r="J245" s="103"/>
+      <c r="K245" s="103"/>
+      <c r="L245" s="103"/>
+      <c r="M245" s="104"/>
       <c r="N245" s="10" t="s">
         <v>1020</v>
       </c>
@@ -43083,10 +43083,10 @@
       <c r="K247" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L247" s="97" t="s">
+      <c r="L247" s="102" t="s">
         <v>1022</v>
       </c>
-      <c r="M247" s="99"/>
+      <c r="M247" s="104"/>
       <c r="N247" s="10" t="s">
         <v>1023</v>
       </c>
@@ -43155,16 +43155,16 @@
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="F249" s="97" t="s">
+      <c r="F249" s="102" t="s">
         <v>1024</v>
       </c>
-      <c r="G249" s="98"/>
-      <c r="H249" s="98"/>
-      <c r="I249" s="98"/>
-      <c r="J249" s="98"/>
-      <c r="K249" s="98"/>
-      <c r="L249" s="98"/>
-      <c r="M249" s="99"/>
+      <c r="G249" s="103"/>
+      <c r="H249" s="103"/>
+      <c r="I249" s="103"/>
+      <c r="J249" s="103"/>
+      <c r="K249" s="103"/>
+      <c r="L249" s="103"/>
+      <c r="M249" s="104"/>
       <c r="N249" s="10" t="s">
         <v>1025</v>
       </c>
@@ -43252,10 +43252,10 @@
       <c r="K251" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L251" s="97" t="s">
+      <c r="L251" s="102" t="s">
         <v>1026</v>
       </c>
-      <c r="M251" s="99"/>
+      <c r="M251" s="104"/>
       <c r="N251" s="10" t="s">
         <v>1027</v>
       </c>
@@ -43324,16 +43324,16 @@
         <f t="shared" si="4"/>
         <v>0D</v>
       </c>
-      <c r="F253" s="97" t="s">
+      <c r="F253" s="102" t="s">
         <v>1028</v>
       </c>
-      <c r="G253" s="98"/>
-      <c r="H253" s="98"/>
-      <c r="I253" s="98"/>
-      <c r="J253" s="98"/>
-      <c r="K253" s="98"/>
-      <c r="L253" s="98"/>
-      <c r="M253" s="99"/>
+      <c r="G253" s="103"/>
+      <c r="H253" s="103"/>
+      <c r="I253" s="103"/>
+      <c r="J253" s="103"/>
+      <c r="K253" s="103"/>
+      <c r="L253" s="103"/>
+      <c r="M253" s="104"/>
       <c r="N253" s="10" t="s">
         <v>1029</v>
       </c>
@@ -43421,10 +43421,10 @@
       <c r="K255" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L255" s="97" t="s">
+      <c r="L255" s="102" t="s">
         <v>1030</v>
       </c>
-      <c r="M255" s="99"/>
+      <c r="M255" s="104"/>
       <c r="N255" s="10" t="s">
         <v>1031</v>
       </c>
@@ -43493,16 +43493,16 @@
         <f t="shared" si="4"/>
         <v>08</v>
       </c>
-      <c r="F257" s="97" t="s">
+      <c r="F257" s="102" t="s">
         <v>1032</v>
       </c>
-      <c r="G257" s="98"/>
-      <c r="H257" s="98"/>
-      <c r="I257" s="98"/>
-      <c r="J257" s="98"/>
-      <c r="K257" s="98"/>
-      <c r="L257" s="98"/>
-      <c r="M257" s="99"/>
+      <c r="G257" s="103"/>
+      <c r="H257" s="103"/>
+      <c r="I257" s="103"/>
+      <c r="J257" s="103"/>
+      <c r="K257" s="103"/>
+      <c r="L257" s="103"/>
+      <c r="M257" s="104"/>
       <c r="N257" s="10" t="s">
         <v>1033</v>
       </c>
@@ -43590,10 +43590,10 @@
       <c r="K259" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L259" s="97" t="s">
+      <c r="L259" s="102" t="s">
         <v>1034</v>
       </c>
-      <c r="M259" s="99"/>
+      <c r="M259" s="104"/>
       <c r="N259" s="10" t="s">
         <v>1035</v>
       </c>
@@ -43663,16 +43663,16 @@
         <f t="shared" si="4"/>
         <v>04</v>
       </c>
-      <c r="F261" s="97" t="s">
+      <c r="F261" s="102" t="s">
         <v>1036</v>
       </c>
-      <c r="G261" s="98"/>
-      <c r="H261" s="98"/>
-      <c r="I261" s="98"/>
-      <c r="J261" s="98"/>
-      <c r="K261" s="98"/>
-      <c r="L261" s="98"/>
-      <c r="M261" s="99"/>
+      <c r="G261" s="103"/>
+      <c r="H261" s="103"/>
+      <c r="I261" s="103"/>
+      <c r="J261" s="103"/>
+      <c r="K261" s="103"/>
+      <c r="L261" s="103"/>
+      <c r="M261" s="104"/>
       <c r="N261" s="10" t="s">
         <v>1037</v>
       </c>
@@ -44769,16 +44769,16 @@
         <f>BIN2HEX(P289,2)</f>
         <v>00</v>
       </c>
-      <c r="F289" s="100" t="s">
+      <c r="F289" s="99" t="s">
         <v>1038</v>
       </c>
-      <c r="G289" s="101"/>
-      <c r="H289" s="101"/>
-      <c r="I289" s="101"/>
-      <c r="J289" s="101"/>
-      <c r="K289" s="101"/>
-      <c r="L289" s="101"/>
-      <c r="M289" s="102"/>
+      <c r="G289" s="100"/>
+      <c r="H289" s="100"/>
+      <c r="I289" s="100"/>
+      <c r="J289" s="100"/>
+      <c r="K289" s="100"/>
+      <c r="L289" s="100"/>
+      <c r="M289" s="101"/>
       <c r="N289" s="10" t="s">
         <v>1039</v>
       </c>
@@ -47198,21 +47198,21 @@
       <c r="V350" s="9"/>
     </row>
     <row r="351" spans="1:22" s="1" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A351" s="104" t="s">
+      <c r="A351" s="117" t="s">
         <v>1040</v>
       </c>
-      <c r="B351" s="104"/>
-      <c r="C351" s="104"/>
-      <c r="D351" s="104"/>
-      <c r="E351" s="104"/>
-      <c r="F351" s="104"/>
-      <c r="G351" s="104"/>
-      <c r="H351" s="104"/>
-      <c r="I351" s="104"/>
-      <c r="J351" s="104"/>
-      <c r="K351" s="104"/>
-      <c r="L351" s="104"/>
-      <c r="M351" s="104"/>
+      <c r="B351" s="117"/>
+      <c r="C351" s="117"/>
+      <c r="D351" s="117"/>
+      <c r="E351" s="117"/>
+      <c r="F351" s="117"/>
+      <c r="G351" s="117"/>
+      <c r="H351" s="117"/>
+      <c r="I351" s="117"/>
+      <c r="J351" s="117"/>
+      <c r="K351" s="117"/>
+      <c r="L351" s="117"/>
+      <c r="M351" s="117"/>
       <c r="N351" s="54"/>
       <c r="O351" s="54"/>
       <c r="P351" s="54"/>
@@ -47353,14 +47353,14 @@
       <c r="G354" s="12" t="s">
         <v>1054</v>
       </c>
-      <c r="H354" s="97" t="s">
+      <c r="H354" s="102" t="s">
         <v>1055</v>
       </c>
-      <c r="I354" s="98"/>
-      <c r="J354" s="98"/>
-      <c r="K354" s="98"/>
-      <c r="L354" s="98"/>
-      <c r="M354" s="99"/>
+      <c r="I354" s="103"/>
+      <c r="J354" s="103"/>
+      <c r="K354" s="103"/>
+      <c r="L354" s="103"/>
+      <c r="M354" s="104"/>
       <c r="N354" s="25" t="s">
         <v>1056</v>
       </c>
@@ -47398,13 +47398,13 @@
         <v>1058</v>
       </c>
       <c r="H355" s="31"/>
-      <c r="I355" s="109" t="s">
+      <c r="I355" s="98" t="s">
         <v>1059</v>
       </c>
-      <c r="J355" s="109"/>
-      <c r="K355" s="109"/>
-      <c r="L355" s="109"/>
-      <c r="M355" s="109"/>
+      <c r="J355" s="98"/>
+      <c r="K355" s="98"/>
+      <c r="L355" s="98"/>
+      <c r="M355" s="98"/>
       <c r="N355" s="10"/>
       <c r="O355" s="9"/>
       <c r="P355" s="9"/>
@@ -47436,12 +47436,12 @@
         <f>BIN2HEX(P356,2)</f>
         <v>0F</v>
       </c>
-      <c r="F356" s="147" t="s">
+      <c r="F356" s="129" t="s">
         <v>1060</v>
       </c>
-      <c r="G356" s="148"/>
-      <c r="H356" s="148"/>
-      <c r="I356" s="149"/>
+      <c r="G356" s="130"/>
+      <c r="H356" s="130"/>
+      <c r="I356" s="131"/>
       <c r="J356" s="9" t="s">
         <v>1061</v>
       </c>
@@ -47525,18 +47525,18 @@
         <f>BIN2HEX(P358,2)</f>
         <v>70</v>
       </c>
-      <c r="F358" s="147" t="s">
+      <c r="F358" s="129" t="s">
         <v>1068</v>
       </c>
-      <c r="G358" s="148"/>
-      <c r="H358" s="148"/>
-      <c r="I358" s="149"/>
-      <c r="J358" s="147" t="s">
+      <c r="G358" s="130"/>
+      <c r="H358" s="130"/>
+      <c r="I358" s="131"/>
+      <c r="J358" s="129" t="s">
         <v>1069</v>
       </c>
-      <c r="K358" s="148"/>
-      <c r="L358" s="148"/>
-      <c r="M358" s="149"/>
+      <c r="K358" s="130"/>
+      <c r="L358" s="130"/>
+      <c r="M358" s="131"/>
       <c r="N358" s="10" t="s">
         <v>1070</v>
       </c>
@@ -47606,20 +47606,20 @@
         <f>BIN2HEX(P360,2)</f>
         <v>D0</v>
       </c>
-      <c r="F360" s="128" t="s">
+      <c r="F360" s="132" t="s">
         <v>1072</v>
       </c>
-      <c r="G360" s="129"/>
+      <c r="G360" s="134"/>
       <c r="H360" s="78" t="s">
         <v>1073</v>
       </c>
-      <c r="I360" s="147" t="s">
+      <c r="I360" s="129" t="s">
         <v>1074</v>
       </c>
-      <c r="J360" s="148"/>
-      <c r="K360" s="148"/>
-      <c r="L360" s="148"/>
-      <c r="M360" s="149"/>
+      <c r="J360" s="130"/>
+      <c r="K360" s="130"/>
+      <c r="L360" s="130"/>
+      <c r="M360" s="131"/>
       <c r="N360" s="10" t="s">
         <v>1075</v>
       </c>
@@ -47691,20 +47691,20 @@
         <f>BIN2HEX(P362,2)</f>
         <v>9F</v>
       </c>
-      <c r="F362" s="140" t="s">
+      <c r="F362" s="147" t="s">
         <v>1077</v>
       </c>
-      <c r="G362" s="141"/>
-      <c r="H362" s="142"/>
+      <c r="G362" s="148"/>
+      <c r="H362" s="149"/>
       <c r="I362" s="81" t="s">
         <v>1078</v>
       </c>
-      <c r="J362" s="132" t="s">
+      <c r="J362" s="150" t="s">
         <v>1079</v>
       </c>
-      <c r="K362" s="133"/>
-      <c r="L362" s="133"/>
-      <c r="M362" s="134"/>
+      <c r="K362" s="151"/>
+      <c r="L362" s="151"/>
+      <c r="M362" s="152"/>
       <c r="N362" s="10" t="s">
         <v>1080</v>
       </c>
@@ -47735,14 +47735,14 @@
       <c r="C363" s="19"/>
       <c r="D363" s="20"/>
       <c r="E363" s="16"/>
-      <c r="F363" s="109"/>
-      <c r="G363" s="109"/>
-      <c r="H363" s="109"/>
-      <c r="I363" s="109"/>
-      <c r="J363" s="109"/>
-      <c r="K363" s="109"/>
-      <c r="L363" s="109"/>
-      <c r="M363" s="109"/>
+      <c r="F363" s="98"/>
+      <c r="G363" s="98"/>
+      <c r="H363" s="98"/>
+      <c r="I363" s="98"/>
+      <c r="J363" s="98"/>
+      <c r="K363" s="98"/>
+      <c r="L363" s="98"/>
+      <c r="M363" s="98"/>
       <c r="N363" s="10"/>
       <c r="O363" s="10"/>
       <c r="P363" s="10"/>
@@ -47774,18 +47774,18 @@
         <f>BIN2HEX(P364,2)</f>
         <v>E0</v>
       </c>
-      <c r="F364" s="128" t="s">
+      <c r="F364" s="132" t="s">
         <v>1082</v>
       </c>
-      <c r="G364" s="129"/>
-      <c r="H364" s="147" t="s">
+      <c r="G364" s="134"/>
+      <c r="H364" s="129" t="s">
         <v>1083</v>
       </c>
-      <c r="I364" s="148"/>
-      <c r="J364" s="148"/>
-      <c r="K364" s="148"/>
-      <c r="L364" s="148"/>
-      <c r="M364" s="149"/>
+      <c r="I364" s="130"/>
+      <c r="J364" s="130"/>
+      <c r="K364" s="130"/>
+      <c r="L364" s="130"/>
+      <c r="M364" s="131"/>
       <c r="N364" s="10" t="s">
         <v>1084</v>
       </c>
@@ -47857,18 +47857,18 @@
         <f>BIN2HEX(P366,2)</f>
         <v>E0</v>
       </c>
-      <c r="F366" s="126" t="s">
+      <c r="F366" s="138" t="s">
         <v>1086</v>
       </c>
-      <c r="G366" s="127"/>
-      <c r="H366" s="147" t="s">
+      <c r="G366" s="140"/>
+      <c r="H366" s="129" t="s">
         <v>1087</v>
       </c>
-      <c r="I366" s="148"/>
-      <c r="J366" s="148"/>
-      <c r="K366" s="148"/>
-      <c r="L366" s="148"/>
-      <c r="M366" s="149"/>
+      <c r="I366" s="130"/>
+      <c r="J366" s="130"/>
+      <c r="K366" s="130"/>
+      <c r="L366" s="130"/>
+      <c r="M366" s="131"/>
       <c r="N366" s="10" t="s">
         <v>1088</v>
       </c>
@@ -47940,20 +47940,20 @@
         <f>BIN2HEX(P368,2)</f>
         <v>FF</v>
       </c>
-      <c r="F368" s="126" t="s">
+      <c r="F368" s="138" t="s">
         <v>1089</v>
       </c>
-      <c r="G368" s="127"/>
-      <c r="H368" s="128" t="s">
+      <c r="G368" s="140"/>
+      <c r="H368" s="132" t="s">
         <v>1090</v>
       </c>
-      <c r="I368" s="130"/>
-      <c r="J368" s="129"/>
-      <c r="K368" s="128" t="s">
+      <c r="I368" s="133"/>
+      <c r="J368" s="134"/>
+      <c r="K368" s="132" t="s">
         <v>1091</v>
       </c>
-      <c r="L368" s="130"/>
-      <c r="M368" s="129"/>
+      <c r="L368" s="133"/>
+      <c r="M368" s="134"/>
       <c r="N368" s="10" t="s">
         <v>1092</v>
       </c>
@@ -47988,16 +47988,16 @@
         <v>1085</v>
       </c>
       <c r="G369" s="96"/>
-      <c r="H369" s="109" t="s">
+      <c r="H369" s="98" t="s">
         <v>1093</v>
       </c>
-      <c r="I369" s="109"/>
-      <c r="J369" s="109"/>
-      <c r="K369" s="109" t="s">
+      <c r="I369" s="98"/>
+      <c r="J369" s="98"/>
+      <c r="K369" s="98" t="s">
         <v>1094</v>
       </c>
-      <c r="L369" s="109"/>
-      <c r="M369" s="109"/>
+      <c r="L369" s="98"/>
+      <c r="M369" s="98"/>
       <c r="N369" s="10"/>
       <c r="O369" s="10"/>
       <c r="P369" s="10"/>
@@ -48029,20 +48029,20 @@
         <f>BIN2HEX(P370,2)</f>
         <v>FF</v>
       </c>
-      <c r="F370" s="126" t="s">
+      <c r="F370" s="138" t="s">
         <v>1095</v>
       </c>
-      <c r="G370" s="127"/>
-      <c r="H370" s="126" t="s">
+      <c r="G370" s="140"/>
+      <c r="H370" s="138" t="s">
         <v>1096</v>
       </c>
-      <c r="I370" s="131"/>
-      <c r="J370" s="127"/>
-      <c r="K370" s="126" t="s">
+      <c r="I370" s="139"/>
+      <c r="J370" s="140"/>
+      <c r="K370" s="138" t="s">
         <v>1097</v>
       </c>
-      <c r="L370" s="131"/>
-      <c r="M370" s="127"/>
+      <c r="L370" s="139"/>
+      <c r="M370" s="140"/>
       <c r="N370" s="10" t="s">
         <v>1098</v>
       </c>
@@ -48077,16 +48077,16 @@
         <v>1085</v>
       </c>
       <c r="G371" s="96"/>
-      <c r="H371" s="109" t="s">
+      <c r="H371" s="98" t="s">
         <v>1093</v>
       </c>
-      <c r="I371" s="109"/>
-      <c r="J371" s="109"/>
-      <c r="K371" s="109" t="s">
+      <c r="I371" s="98"/>
+      <c r="J371" s="98"/>
+      <c r="K371" s="98" t="s">
         <v>1094</v>
       </c>
-      <c r="L371" s="109"/>
-      <c r="M371" s="109"/>
+      <c r="L371" s="98"/>
+      <c r="M371" s="98"/>
       <c r="N371" s="10"/>
       <c r="O371" s="10"/>
       <c r="P371" s="10"/>
@@ -48121,19 +48121,19 @@
       <c r="F372" s="79" t="s">
         <v>1099</v>
       </c>
-      <c r="G372" s="128" t="s">
+      <c r="G372" s="132" t="s">
         <v>1100</v>
       </c>
-      <c r="H372" s="130"/>
-      <c r="I372" s="129"/>
+      <c r="H372" s="133"/>
+      <c r="I372" s="134"/>
       <c r="J372" s="12" t="s">
         <v>1101</v>
       </c>
-      <c r="K372" s="126" t="s">
+      <c r="K372" s="138" t="s">
         <v>1102</v>
       </c>
-      <c r="L372" s="131"/>
-      <c r="M372" s="127"/>
+      <c r="L372" s="139"/>
+      <c r="M372" s="140"/>
       <c r="N372" s="10" t="s">
         <v>1103</v>
       </c>
@@ -48165,13 +48165,13 @@
       <c r="D373" s="20"/>
       <c r="E373" s="16"/>
       <c r="F373" s="31"/>
-      <c r="G373" s="106"/>
-      <c r="H373" s="107"/>
-      <c r="I373" s="108"/>
+      <c r="G373" s="105"/>
+      <c r="H373" s="106"/>
+      <c r="I373" s="107"/>
       <c r="J373" s="31"/>
-      <c r="K373" s="106"/>
-      <c r="L373" s="107"/>
-      <c r="M373" s="108"/>
+      <c r="K373" s="105"/>
+      <c r="L373" s="106"/>
+      <c r="M373" s="107"/>
       <c r="N373" s="10"/>
       <c r="O373" s="10"/>
       <c r="P373" s="10"/>
@@ -48312,10 +48312,10 @@
         <f>BIN2HEX(P376,2)</f>
         <v>FF</v>
       </c>
-      <c r="F376" s="126" t="s">
+      <c r="F376" s="138" t="s">
         <v>1122</v>
       </c>
-      <c r="G376" s="127"/>
+      <c r="G376" s="140"/>
       <c r="H376" s="12" t="s">
         <v>1123</v>
       </c>
@@ -48417,16 +48417,16 @@
         <f>BIN2HEX(P378,2)</f>
         <v>FF</v>
       </c>
-      <c r="F378" s="137" t="s">
+      <c r="F378" s="126" t="s">
         <v>1136</v>
       </c>
-      <c r="G378" s="138"/>
-      <c r="H378" s="138"/>
-      <c r="I378" s="138"/>
-      <c r="J378" s="138"/>
-      <c r="K378" s="138"/>
-      <c r="L378" s="138"/>
-      <c r="M378" s="139"/>
+      <c r="G378" s="127"/>
+      <c r="H378" s="127"/>
+      <c r="I378" s="127"/>
+      <c r="J378" s="127"/>
+      <c r="K378" s="127"/>
+      <c r="L378" s="127"/>
+      <c r="M378" s="128"/>
       <c r="N378" s="10" t="s">
         <v>1137</v>
       </c>
@@ -48498,16 +48498,16 @@
         <f>BIN2HEX(P380,2)</f>
         <v>FF</v>
       </c>
-      <c r="F380" s="137" t="s">
+      <c r="F380" s="126" t="s">
         <v>1139</v>
       </c>
-      <c r="G380" s="138"/>
-      <c r="H380" s="138"/>
-      <c r="I380" s="138"/>
-      <c r="J380" s="138"/>
-      <c r="K380" s="138"/>
-      <c r="L380" s="138"/>
-      <c r="M380" s="139"/>
+      <c r="G380" s="127"/>
+      <c r="H380" s="127"/>
+      <c r="I380" s="127"/>
+      <c r="J380" s="127"/>
+      <c r="K380" s="127"/>
+      <c r="L380" s="127"/>
+      <c r="M380" s="128"/>
       <c r="N380" s="10" t="s">
         <v>1140</v>
       </c>
@@ -48577,16 +48577,16 @@
         <f>BIN2HEX(P382,2)</f>
         <v>FF</v>
       </c>
-      <c r="F382" s="137" t="s">
+      <c r="F382" s="126" t="s">
         <v>1141</v>
       </c>
-      <c r="G382" s="138"/>
-      <c r="H382" s="138"/>
-      <c r="I382" s="138"/>
-      <c r="J382" s="138"/>
-      <c r="K382" s="138"/>
-      <c r="L382" s="138"/>
-      <c r="M382" s="139"/>
+      <c r="G382" s="127"/>
+      <c r="H382" s="127"/>
+      <c r="I382" s="127"/>
+      <c r="J382" s="127"/>
+      <c r="K382" s="127"/>
+      <c r="L382" s="127"/>
+      <c r="M382" s="128"/>
       <c r="N382" s="10" t="s">
         <v>1142</v>
       </c>
@@ -48658,16 +48658,16 @@
         <f>BIN2HEX(P384,2)</f>
         <v>FF</v>
       </c>
-      <c r="F384" s="137" t="s">
+      <c r="F384" s="126" t="s">
         <v>1144</v>
       </c>
-      <c r="G384" s="138"/>
-      <c r="H384" s="138"/>
-      <c r="I384" s="138"/>
-      <c r="J384" s="138"/>
-      <c r="K384" s="138"/>
-      <c r="L384" s="138"/>
-      <c r="M384" s="139"/>
+      <c r="G384" s="127"/>
+      <c r="H384" s="127"/>
+      <c r="I384" s="127"/>
+      <c r="J384" s="127"/>
+      <c r="K384" s="127"/>
+      <c r="L384" s="127"/>
+      <c r="M384" s="128"/>
       <c r="N384" s="10" t="s">
         <v>1145</v>
       </c>
@@ -48737,16 +48737,16 @@
         <f>BIN2HEX(P386,2)</f>
         <v>FF</v>
       </c>
-      <c r="F386" s="137" t="s">
+      <c r="F386" s="126" t="s">
         <v>1146</v>
       </c>
-      <c r="G386" s="138"/>
-      <c r="H386" s="138"/>
-      <c r="I386" s="138"/>
-      <c r="J386" s="138"/>
-      <c r="K386" s="138"/>
-      <c r="L386" s="138"/>
-      <c r="M386" s="139"/>
+      <c r="G386" s="127"/>
+      <c r="H386" s="127"/>
+      <c r="I386" s="127"/>
+      <c r="J386" s="127"/>
+      <c r="K386" s="127"/>
+      <c r="L386" s="127"/>
+      <c r="M386" s="128"/>
       <c r="N386" s="10" t="s">
         <v>1147</v>
       </c>
@@ -48818,16 +48818,16 @@
         <f>BIN2HEX(P388,2)</f>
         <v>FF</v>
       </c>
-      <c r="F388" s="137" t="s">
+      <c r="F388" s="126" t="s">
         <v>1149</v>
       </c>
-      <c r="G388" s="138"/>
-      <c r="H388" s="138"/>
-      <c r="I388" s="138"/>
-      <c r="J388" s="138"/>
-      <c r="K388" s="138"/>
-      <c r="L388" s="138"/>
-      <c r="M388" s="139"/>
+      <c r="G388" s="127"/>
+      <c r="H388" s="127"/>
+      <c r="I388" s="127"/>
+      <c r="J388" s="127"/>
+      <c r="K388" s="127"/>
+      <c r="L388" s="127"/>
+      <c r="M388" s="128"/>
       <c r="N388" s="10" t="s">
         <v>1150</v>
       </c>
@@ -48897,16 +48897,16 @@
         <f>BIN2HEX(P390,2)</f>
         <v>FF</v>
       </c>
-      <c r="F390" s="137" t="s">
+      <c r="F390" s="126" t="s">
         <v>1151</v>
       </c>
-      <c r="G390" s="138"/>
-      <c r="H390" s="138"/>
-      <c r="I390" s="138"/>
-      <c r="J390" s="138"/>
-      <c r="K390" s="138"/>
-      <c r="L390" s="138"/>
-      <c r="M390" s="139"/>
+      <c r="G390" s="127"/>
+      <c r="H390" s="127"/>
+      <c r="I390" s="127"/>
+      <c r="J390" s="127"/>
+      <c r="K390" s="127"/>
+      <c r="L390" s="127"/>
+      <c r="M390" s="128"/>
       <c r="N390" s="10" t="s">
         <v>1152</v>
       </c>
@@ -48978,16 +48978,16 @@
         <f>BIN2HEX(P392,2)</f>
         <v>FF</v>
       </c>
-      <c r="F392" s="137" t="s">
+      <c r="F392" s="126" t="s">
         <v>1154</v>
       </c>
-      <c r="G392" s="138"/>
-      <c r="H392" s="138"/>
-      <c r="I392" s="138"/>
-      <c r="J392" s="138"/>
-      <c r="K392" s="138"/>
-      <c r="L392" s="138"/>
-      <c r="M392" s="139"/>
+      <c r="G392" s="127"/>
+      <c r="H392" s="127"/>
+      <c r="I392" s="127"/>
+      <c r="J392" s="127"/>
+      <c r="K392" s="127"/>
+      <c r="L392" s="127"/>
+      <c r="M392" s="128"/>
       <c r="N392" s="10" t="s">
         <v>1155</v>
       </c>
@@ -49057,16 +49057,16 @@
         <f>BIN2HEX(P394,2)</f>
         <v>FF</v>
       </c>
-      <c r="F394" s="137" t="s">
+      <c r="F394" s="126" t="s">
         <v>1156</v>
       </c>
-      <c r="G394" s="138"/>
-      <c r="H394" s="138"/>
-      <c r="I394" s="138"/>
-      <c r="J394" s="138"/>
-      <c r="K394" s="138"/>
-      <c r="L394" s="138"/>
-      <c r="M394" s="139"/>
+      <c r="G394" s="127"/>
+      <c r="H394" s="127"/>
+      <c r="I394" s="127"/>
+      <c r="J394" s="127"/>
+      <c r="K394" s="127"/>
+      <c r="L394" s="127"/>
+      <c r="M394" s="128"/>
       <c r="N394" s="10" t="s">
         <v>1157</v>
       </c>
@@ -49138,16 +49138,16 @@
         <f>BIN2HEX(P396,2)</f>
         <v>FF</v>
       </c>
-      <c r="F396" s="137" t="s">
+      <c r="F396" s="126" t="s">
         <v>1159</v>
       </c>
-      <c r="G396" s="138"/>
-      <c r="H396" s="138"/>
-      <c r="I396" s="138"/>
-      <c r="J396" s="138"/>
-      <c r="K396" s="138"/>
-      <c r="L396" s="138"/>
-      <c r="M396" s="139"/>
+      <c r="G396" s="127"/>
+      <c r="H396" s="127"/>
+      <c r="I396" s="127"/>
+      <c r="J396" s="127"/>
+      <c r="K396" s="127"/>
+      <c r="L396" s="127"/>
+      <c r="M396" s="128"/>
       <c r="N396" s="10" t="s">
         <v>1160</v>
       </c>
@@ -49217,16 +49217,16 @@
         <f>BIN2HEX(P398,2)</f>
         <v>FF</v>
       </c>
-      <c r="F398" s="137" t="s">
+      <c r="F398" s="126" t="s">
         <v>1161</v>
       </c>
-      <c r="G398" s="138"/>
-      <c r="H398" s="138"/>
-      <c r="I398" s="138"/>
-      <c r="J398" s="138"/>
-      <c r="K398" s="138"/>
-      <c r="L398" s="138"/>
-      <c r="M398" s="139"/>
+      <c r="G398" s="127"/>
+      <c r="H398" s="127"/>
+      <c r="I398" s="127"/>
+      <c r="J398" s="127"/>
+      <c r="K398" s="127"/>
+      <c r="L398" s="127"/>
+      <c r="M398" s="128"/>
       <c r="N398" s="10" t="s">
         <v>1162</v>
       </c>
@@ -49298,16 +49298,16 @@
         <f>BIN2HEX(P400,2)</f>
         <v>FF</v>
       </c>
-      <c r="F400" s="137" t="s">
+      <c r="F400" s="126" t="s">
         <v>1164</v>
       </c>
-      <c r="G400" s="138"/>
-      <c r="H400" s="138"/>
-      <c r="I400" s="138"/>
-      <c r="J400" s="138"/>
-      <c r="K400" s="138"/>
-      <c r="L400" s="138"/>
-      <c r="M400" s="139"/>
+      <c r="G400" s="127"/>
+      <c r="H400" s="127"/>
+      <c r="I400" s="127"/>
+      <c r="J400" s="127"/>
+      <c r="K400" s="127"/>
+      <c r="L400" s="127"/>
+      <c r="M400" s="128"/>
       <c r="N400" s="10" t="s">
         <v>1165</v>
       </c>
@@ -49377,16 +49377,16 @@
         <f>BIN2HEX(P402,2)</f>
         <v>FF</v>
       </c>
-      <c r="F402" s="137" t="s">
+      <c r="F402" s="126" t="s">
         <v>1166</v>
       </c>
-      <c r="G402" s="138"/>
-      <c r="H402" s="138"/>
-      <c r="I402" s="138"/>
-      <c r="J402" s="138"/>
-      <c r="K402" s="138"/>
-      <c r="L402" s="138"/>
-      <c r="M402" s="139"/>
+      <c r="G402" s="127"/>
+      <c r="H402" s="127"/>
+      <c r="I402" s="127"/>
+      <c r="J402" s="127"/>
+      <c r="K402" s="127"/>
+      <c r="L402" s="127"/>
+      <c r="M402" s="128"/>
       <c r="N402" s="10" t="s">
         <v>1167</v>
       </c>
@@ -49458,16 +49458,16 @@
         <f>BIN2HEX(P404,2)</f>
         <v>FF</v>
       </c>
-      <c r="F404" s="137" t="s">
+      <c r="F404" s="126" t="s">
         <v>1169</v>
       </c>
-      <c r="G404" s="138"/>
-      <c r="H404" s="138"/>
-      <c r="I404" s="138"/>
-      <c r="J404" s="138"/>
-      <c r="K404" s="138"/>
-      <c r="L404" s="138"/>
-      <c r="M404" s="139"/>
+      <c r="G404" s="127"/>
+      <c r="H404" s="127"/>
+      <c r="I404" s="127"/>
+      <c r="J404" s="127"/>
+      <c r="K404" s="127"/>
+      <c r="L404" s="127"/>
+      <c r="M404" s="128"/>
       <c r="N404" s="10" t="s">
         <v>1170</v>
       </c>
@@ -49540,19 +49540,19 @@
       <c r="F406" s="12" t="s">
         <v>1171</v>
       </c>
-      <c r="G406" s="126" t="s">
+      <c r="G406" s="138" t="s">
         <v>1172</v>
       </c>
-      <c r="H406" s="131"/>
-      <c r="I406" s="127"/>
+      <c r="H406" s="139"/>
+      <c r="I406" s="140"/>
       <c r="J406" s="12" t="s">
         <v>1173</v>
       </c>
-      <c r="K406" s="126" t="s">
+      <c r="K406" s="138" t="s">
         <v>1174</v>
       </c>
-      <c r="L406" s="131"/>
-      <c r="M406" s="127"/>
+      <c r="L406" s="139"/>
+      <c r="M406" s="140"/>
       <c r="N406" s="10" t="s">
         <v>1175</v>
       </c>
@@ -49622,16 +49622,16 @@
         <f>BIN2HEX(P408,2)</f>
         <v>FF</v>
       </c>
-      <c r="F408" s="137" t="s">
+      <c r="F408" s="126" t="s">
         <v>1176</v>
       </c>
-      <c r="G408" s="138"/>
-      <c r="H408" s="138"/>
-      <c r="I408" s="138"/>
-      <c r="J408" s="138"/>
-      <c r="K408" s="138"/>
-      <c r="L408" s="138"/>
-      <c r="M408" s="139"/>
+      <c r="G408" s="127"/>
+      <c r="H408" s="127"/>
+      <c r="I408" s="127"/>
+      <c r="J408" s="127"/>
+      <c r="K408" s="127"/>
+      <c r="L408" s="127"/>
+      <c r="M408" s="128"/>
       <c r="N408" s="10" t="s">
         <v>1177</v>
       </c>
@@ -49701,18 +49701,18 @@
         <f>BIN2HEX(P410,2)</f>
         <v>FF</v>
       </c>
-      <c r="F410" s="137" t="s">
+      <c r="F410" s="126" t="s">
         <v>1178</v>
       </c>
-      <c r="G410" s="138"/>
-      <c r="H410" s="138"/>
-      <c r="I410" s="139"/>
-      <c r="J410" s="137" t="s">
+      <c r="G410" s="127"/>
+      <c r="H410" s="127"/>
+      <c r="I410" s="128"/>
+      <c r="J410" s="126" t="s">
         <v>1179</v>
       </c>
-      <c r="K410" s="138"/>
-      <c r="L410" s="138"/>
-      <c r="M410" s="139"/>
+      <c r="K410" s="127"/>
+      <c r="L410" s="127"/>
+      <c r="M410" s="128"/>
       <c r="N410" s="10" t="s">
         <v>1180</v>
       </c>
@@ -49782,16 +49782,16 @@
         <f>BIN2HEX(P412,2)</f>
         <v>FF</v>
       </c>
-      <c r="F412" s="137" t="s">
+      <c r="F412" s="126" t="s">
         <v>1181</v>
       </c>
-      <c r="G412" s="138"/>
-      <c r="H412" s="138"/>
-      <c r="I412" s="138"/>
-      <c r="J412" s="138"/>
-      <c r="K412" s="138"/>
-      <c r="L412" s="138"/>
-      <c r="M412" s="139"/>
+      <c r="G412" s="127"/>
+      <c r="H412" s="127"/>
+      <c r="I412" s="127"/>
+      <c r="J412" s="127"/>
+      <c r="K412" s="127"/>
+      <c r="L412" s="127"/>
+      <c r="M412" s="128"/>
       <c r="N412" s="10" t="s">
         <v>1182</v>
       </c>
@@ -49861,16 +49861,16 @@
         <f>BIN2HEX(P414,2)</f>
         <v>FF</v>
       </c>
-      <c r="F414" s="137" t="s">
+      <c r="F414" s="126" t="s">
         <v>1183</v>
       </c>
-      <c r="G414" s="138"/>
-      <c r="H414" s="138"/>
-      <c r="I414" s="138"/>
-      <c r="J414" s="138"/>
-      <c r="K414" s="138"/>
-      <c r="L414" s="138"/>
-      <c r="M414" s="139"/>
+      <c r="G414" s="127"/>
+      <c r="H414" s="127"/>
+      <c r="I414" s="127"/>
+      <c r="J414" s="127"/>
+      <c r="K414" s="127"/>
+      <c r="L414" s="127"/>
+      <c r="M414" s="128"/>
       <c r="N414" s="10" t="s">
         <v>1184</v>
       </c>
@@ -49940,18 +49940,18 @@
         <f>BIN2HEX(P416,2)</f>
         <v>FF</v>
       </c>
-      <c r="F416" s="137" t="s">
+      <c r="F416" s="126" t="s">
         <v>1185</v>
       </c>
-      <c r="G416" s="138"/>
-      <c r="H416" s="138"/>
-      <c r="I416" s="139"/>
-      <c r="J416" s="137" t="s">
+      <c r="G416" s="127"/>
+      <c r="H416" s="127"/>
+      <c r="I416" s="128"/>
+      <c r="J416" s="126" t="s">
         <v>1186</v>
       </c>
-      <c r="K416" s="138"/>
-      <c r="L416" s="138"/>
-      <c r="M416" s="139"/>
+      <c r="K416" s="127"/>
+      <c r="L416" s="127"/>
+      <c r="M416" s="128"/>
       <c r="N416" s="10" t="s">
         <v>1187</v>
       </c>
@@ -50021,16 +50021,16 @@
         <f>BIN2HEX(P418,2)</f>
         <v>FF</v>
       </c>
-      <c r="F418" s="137" t="s">
+      <c r="F418" s="126" t="s">
         <v>1188</v>
       </c>
-      <c r="G418" s="138"/>
-      <c r="H418" s="138"/>
-      <c r="I418" s="138"/>
-      <c r="J418" s="138"/>
-      <c r="K418" s="138"/>
-      <c r="L418" s="138"/>
-      <c r="M418" s="139"/>
+      <c r="G418" s="127"/>
+      <c r="H418" s="127"/>
+      <c r="I418" s="127"/>
+      <c r="J418" s="127"/>
+      <c r="K418" s="127"/>
+      <c r="L418" s="127"/>
+      <c r="M418" s="128"/>
       <c r="N418" s="10" t="s">
         <v>1189</v>
       </c>
@@ -50061,14 +50061,14 @@
       <c r="C419" s="19"/>
       <c r="D419" s="20"/>
       <c r="E419" s="16"/>
-      <c r="F419" s="109"/>
-      <c r="G419" s="109"/>
-      <c r="H419" s="109"/>
-      <c r="I419" s="109"/>
-      <c r="J419" s="109"/>
-      <c r="K419" s="109"/>
-      <c r="L419" s="109"/>
-      <c r="M419" s="109"/>
+      <c r="F419" s="98"/>
+      <c r="G419" s="98"/>
+      <c r="H419" s="98"/>
+      <c r="I419" s="98"/>
+      <c r="J419" s="98"/>
+      <c r="K419" s="98"/>
+      <c r="L419" s="98"/>
+      <c r="M419" s="98"/>
       <c r="N419" s="10"/>
       <c r="O419" s="9"/>
       <c r="P419" s="9"/>
@@ -50079,7 +50079,7 @@
       <c r="U419" s="9"/>
       <c r="V419" s="9"/>
     </row>
-    <row r="420" spans="1:22" ht="20.25" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:22" ht="20.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A420" s="16" t="str">
         <f>DEC2HEX(B420,2)</f>
         <v>D0</v>
@@ -50100,16 +50100,16 @@
         <f>BIN2HEX(P420,2)</f>
         <v>FF</v>
       </c>
-      <c r="F420" s="119" t="s">
+      <c r="F420" s="114" t="s">
         <v>1190</v>
       </c>
-      <c r="G420" s="120"/>
-      <c r="H420" s="120"/>
-      <c r="I420" s="120"/>
-      <c r="J420" s="120"/>
-      <c r="K420" s="120"/>
-      <c r="L420" s="120"/>
-      <c r="M420" s="121"/>
+      <c r="G420" s="115"/>
+      <c r="H420" s="115"/>
+      <c r="I420" s="115"/>
+      <c r="J420" s="115"/>
+      <c r="K420" s="115"/>
+      <c r="L420" s="115"/>
+      <c r="M420" s="116"/>
       <c r="N420" s="10" t="s">
         <v>1191</v>
       </c>
@@ -50134,7 +50134,7 @@
       <c r="U420" s="9"/>
       <c r="V420" s="9"/>
     </row>
-    <row r="421" spans="1:22" ht="25.5" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:22" ht="25.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A421" s="16"/>
       <c r="B421" s="16"/>
       <c r="C421" s="19"/>
@@ -50158,7 +50158,7 @@
       <c r="U421" s="9"/>
       <c r="V421" s="9"/>
     </row>
-    <row r="422" spans="1:22" ht="20.25" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:22" ht="20.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A422" s="16" t="str">
         <f>DEC2HEX(B422,2)</f>
         <v>D1</v>
@@ -50179,18 +50179,18 @@
         <f>BIN2HEX(P422,2)</f>
         <v>FF</v>
       </c>
-      <c r="F422" s="119" t="s">
+      <c r="F422" s="114" t="s">
         <v>1192</v>
       </c>
-      <c r="G422" s="120"/>
-      <c r="H422" s="120"/>
-      <c r="I422" s="121"/>
-      <c r="J422" s="119" t="s">
+      <c r="G422" s="115"/>
+      <c r="H422" s="115"/>
+      <c r="I422" s="116"/>
+      <c r="J422" s="114" t="s">
         <v>1193</v>
       </c>
-      <c r="K422" s="120"/>
-      <c r="L422" s="120"/>
-      <c r="M422" s="121"/>
+      <c r="K422" s="115"/>
+      <c r="L422" s="115"/>
+      <c r="M422" s="116"/>
       <c r="N422" s="10" t="s">
         <v>1194</v>
       </c>
@@ -50215,7 +50215,7 @@
       <c r="U422" s="9"/>
       <c r="V422" s="9"/>
     </row>
-    <row r="423" spans="1:22" ht="26.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:22" ht="26.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A423" s="16"/>
       <c r="B423" s="16"/>
       <c r="C423" s="19"/>
@@ -50239,7 +50239,7 @@
       <c r="U423" s="9"/>
       <c r="V423" s="9"/>
     </row>
-    <row r="424" spans="1:22" ht="20.25" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:22" ht="20.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A424" s="16" t="str">
         <f>DEC2HEX(B424,2)</f>
         <v>D2</v>
@@ -50260,16 +50260,16 @@
         <f>BIN2HEX(P424,2)</f>
         <v>FF</v>
       </c>
-      <c r="F424" s="119" t="s">
+      <c r="F424" s="114" t="s">
         <v>1195</v>
       </c>
-      <c r="G424" s="120"/>
-      <c r="H424" s="120"/>
-      <c r="I424" s="120"/>
-      <c r="J424" s="120"/>
-      <c r="K424" s="120"/>
-      <c r="L424" s="120"/>
-      <c r="M424" s="121"/>
+      <c r="G424" s="115"/>
+      <c r="H424" s="115"/>
+      <c r="I424" s="115"/>
+      <c r="J424" s="115"/>
+      <c r="K424" s="115"/>
+      <c r="L424" s="115"/>
+      <c r="M424" s="116"/>
       <c r="N424" s="10" t="s">
         <v>1196</v>
       </c>
@@ -50294,7 +50294,7 @@
       <c r="U424" s="9"/>
       <c r="V424" s="9"/>
     </row>
-    <row r="425" spans="1:22" ht="25.5" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:22" ht="25.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A425" s="16"/>
       <c r="B425" s="16"/>
       <c r="C425" s="19"/>
@@ -50318,7 +50318,7 @@
       <c r="U425" s="9"/>
       <c r="V425" s="9"/>
     </row>
-    <row r="426" spans="1:22" ht="20.25" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:22" ht="20.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A426" s="16" t="str">
         <f>DEC2HEX(B426,2)</f>
         <v>D3</v>
@@ -50339,16 +50339,16 @@
         <f>BIN2HEX(P426,2)</f>
         <v>FF</v>
       </c>
-      <c r="F426" s="119" t="s">
+      <c r="F426" s="114" t="s">
         <v>1197</v>
       </c>
-      <c r="G426" s="120"/>
-      <c r="H426" s="120"/>
-      <c r="I426" s="120"/>
-      <c r="J426" s="120"/>
-      <c r="K426" s="120"/>
-      <c r="L426" s="120"/>
-      <c r="M426" s="121"/>
+      <c r="G426" s="115"/>
+      <c r="H426" s="115"/>
+      <c r="I426" s="115"/>
+      <c r="J426" s="115"/>
+      <c r="K426" s="115"/>
+      <c r="L426" s="115"/>
+      <c r="M426" s="116"/>
       <c r="N426" s="10" t="s">
         <v>1198</v>
       </c>
@@ -50373,7 +50373,7 @@
       <c r="U426" s="9"/>
       <c r="V426" s="9"/>
     </row>
-    <row r="427" spans="1:22" ht="24" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:22" ht="24" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A427" s="16"/>
       <c r="B427" s="16"/>
       <c r="C427" s="19"/>
@@ -50397,7 +50397,7 @@
       <c r="U427" s="9"/>
       <c r="V427" s="9"/>
     </row>
-    <row r="428" spans="1:22" ht="20.25" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:22" ht="20.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A428" s="16" t="str">
         <f>DEC2HEX(B428,2)</f>
         <v>D4</v>
@@ -50418,18 +50418,18 @@
         <f>BIN2HEX(P428,2)</f>
         <v>FF</v>
       </c>
-      <c r="F428" s="119" t="s">
+      <c r="F428" s="114" t="s">
         <v>1199</v>
       </c>
-      <c r="G428" s="120"/>
-      <c r="H428" s="120"/>
-      <c r="I428" s="121"/>
-      <c r="J428" s="119" t="s">
+      <c r="G428" s="115"/>
+      <c r="H428" s="115"/>
+      <c r="I428" s="116"/>
+      <c r="J428" s="114" t="s">
         <v>1200</v>
       </c>
-      <c r="K428" s="120"/>
-      <c r="L428" s="120"/>
-      <c r="M428" s="121"/>
+      <c r="K428" s="115"/>
+      <c r="L428" s="115"/>
+      <c r="M428" s="116"/>
       <c r="N428" s="10" t="s">
         <v>1201</v>
       </c>
@@ -50454,7 +50454,7 @@
       <c r="U428" s="9"/>
       <c r="V428" s="9"/>
     </row>
-    <row r="429" spans="1:22" ht="30" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:22" ht="30" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A429" s="16"/>
       <c r="B429" s="16"/>
       <c r="C429" s="19"/>
@@ -50478,7 +50478,7 @@
       <c r="U429" s="9"/>
       <c r="V429" s="9"/>
     </row>
-    <row r="430" spans="1:22" ht="20.25" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:22" ht="20.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A430" s="16" t="str">
         <f>DEC2HEX(B430,2)</f>
         <v>D5</v>
@@ -50499,16 +50499,16 @@
         <f>BIN2HEX(P430,2)</f>
         <v>FF</v>
       </c>
-      <c r="F430" s="119" t="s">
+      <c r="F430" s="114" t="s">
         <v>1202</v>
       </c>
-      <c r="G430" s="120"/>
-      <c r="H430" s="120"/>
-      <c r="I430" s="120"/>
-      <c r="J430" s="120"/>
-      <c r="K430" s="120"/>
-      <c r="L430" s="120"/>
-      <c r="M430" s="121"/>
+      <c r="G430" s="115"/>
+      <c r="H430" s="115"/>
+      <c r="I430" s="115"/>
+      <c r="J430" s="115"/>
+      <c r="K430" s="115"/>
+      <c r="L430" s="115"/>
+      <c r="M430" s="116"/>
       <c r="N430" s="10" t="s">
         <v>1203</v>
       </c>
@@ -50533,7 +50533,7 @@
       <c r="U430" s="9"/>
       <c r="V430" s="9"/>
     </row>
-    <row r="431" spans="1:22" ht="20.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:22" ht="20.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A431" s="16"/>
       <c r="B431" s="16"/>
       <c r="C431" s="19"/>
@@ -50578,16 +50578,16 @@
         <f>BIN2HEX(P432,2)</f>
         <v>FF</v>
       </c>
-      <c r="F432" s="119" t="s">
+      <c r="F432" s="114" t="s">
         <v>1204</v>
       </c>
-      <c r="G432" s="120"/>
-      <c r="H432" s="120"/>
-      <c r="I432" s="120"/>
-      <c r="J432" s="120"/>
-      <c r="K432" s="120"/>
-      <c r="L432" s="120"/>
-      <c r="M432" s="121"/>
+      <c r="G432" s="115"/>
+      <c r="H432" s="115"/>
+      <c r="I432" s="115"/>
+      <c r="J432" s="115"/>
+      <c r="K432" s="115"/>
+      <c r="L432" s="115"/>
+      <c r="M432" s="116"/>
       <c r="N432" s="10" t="s">
         <v>1205</v>
       </c>
@@ -50657,18 +50657,18 @@
         <f>BIN2HEX(P434,2)</f>
         <v>FF</v>
       </c>
-      <c r="F434" s="119" t="s">
+      <c r="F434" s="114" t="s">
         <v>1206</v>
       </c>
-      <c r="G434" s="120"/>
-      <c r="H434" s="120"/>
-      <c r="I434" s="121"/>
-      <c r="J434" s="119" t="s">
+      <c r="G434" s="115"/>
+      <c r="H434" s="115"/>
+      <c r="I434" s="116"/>
+      <c r="J434" s="114" t="s">
         <v>1207</v>
       </c>
-      <c r="K434" s="120"/>
-      <c r="L434" s="120"/>
-      <c r="M434" s="121"/>
+      <c r="K434" s="115"/>
+      <c r="L434" s="115"/>
+      <c r="M434" s="116"/>
       <c r="N434" s="10" t="s">
         <v>1208</v>
       </c>
@@ -50738,16 +50738,16 @@
         <f>BIN2HEX(P436,2)</f>
         <v>FF</v>
       </c>
-      <c r="F436" s="119" t="s">
+      <c r="F436" s="114" t="s">
         <v>1209</v>
       </c>
-      <c r="G436" s="120"/>
-      <c r="H436" s="120"/>
-      <c r="I436" s="120"/>
-      <c r="J436" s="120"/>
-      <c r="K436" s="120"/>
-      <c r="L436" s="120"/>
-      <c r="M436" s="121"/>
+      <c r="G436" s="115"/>
+      <c r="H436" s="115"/>
+      <c r="I436" s="115"/>
+      <c r="J436" s="115"/>
+      <c r="K436" s="115"/>
+      <c r="L436" s="115"/>
+      <c r="M436" s="116"/>
       <c r="N436" s="10" t="s">
         <v>1210</v>
       </c>
@@ -50817,16 +50817,16 @@
         <f>BIN2HEX(P438,2)</f>
         <v>FF</v>
       </c>
-      <c r="F438" s="119" t="s">
+      <c r="F438" s="114" t="s">
         <v>1211</v>
       </c>
-      <c r="G438" s="120"/>
-      <c r="H438" s="120"/>
-      <c r="I438" s="120"/>
-      <c r="J438" s="120"/>
-      <c r="K438" s="120"/>
-      <c r="L438" s="120"/>
-      <c r="M438" s="121"/>
+      <c r="G438" s="115"/>
+      <c r="H438" s="115"/>
+      <c r="I438" s="115"/>
+      <c r="J438" s="115"/>
+      <c r="K438" s="115"/>
+      <c r="L438" s="115"/>
+      <c r="M438" s="116"/>
       <c r="N438" s="10" t="s">
         <v>1212</v>
       </c>
@@ -50896,18 +50896,18 @@
         <f>BIN2HEX(P440,2)</f>
         <v>FF</v>
       </c>
-      <c r="F440" s="119" t="s">
+      <c r="F440" s="114" t="s">
         <v>1213</v>
       </c>
-      <c r="G440" s="120"/>
-      <c r="H440" s="120"/>
-      <c r="I440" s="121"/>
-      <c r="J440" s="119" t="s">
+      <c r="G440" s="115"/>
+      <c r="H440" s="115"/>
+      <c r="I440" s="116"/>
+      <c r="J440" s="114" t="s">
         <v>1214</v>
       </c>
-      <c r="K440" s="120"/>
-      <c r="L440" s="120"/>
-      <c r="M440" s="121"/>
+      <c r="K440" s="115"/>
+      <c r="L440" s="115"/>
+      <c r="M440" s="116"/>
       <c r="N440" s="10" t="s">
         <v>1215</v>
       </c>
@@ -50977,16 +50977,16 @@
         <f>BIN2HEX(P442,2)</f>
         <v>FF</v>
       </c>
-      <c r="F442" s="119" t="s">
+      <c r="F442" s="114" t="s">
         <v>1216</v>
       </c>
-      <c r="G442" s="120"/>
-      <c r="H442" s="120"/>
-      <c r="I442" s="120"/>
-      <c r="J442" s="120"/>
-      <c r="K442" s="120"/>
-      <c r="L442" s="120"/>
-      <c r="M442" s="121"/>
+      <c r="G442" s="115"/>
+      <c r="H442" s="115"/>
+      <c r="I442" s="115"/>
+      <c r="J442" s="115"/>
+      <c r="K442" s="115"/>
+      <c r="L442" s="115"/>
+      <c r="M442" s="116"/>
       <c r="N442" s="10" t="s">
         <v>1217</v>
       </c>
@@ -51056,16 +51056,16 @@
         <f>BIN2HEX(P444,2)</f>
         <v>FF</v>
       </c>
-      <c r="F444" s="119" t="s">
+      <c r="F444" s="114" t="s">
         <v>1218</v>
       </c>
-      <c r="G444" s="120"/>
-      <c r="H444" s="120"/>
-      <c r="I444" s="120"/>
-      <c r="J444" s="120"/>
-      <c r="K444" s="120"/>
-      <c r="L444" s="120"/>
-      <c r="M444" s="121"/>
+      <c r="G444" s="115"/>
+      <c r="H444" s="115"/>
+      <c r="I444" s="115"/>
+      <c r="J444" s="115"/>
+      <c r="K444" s="115"/>
+      <c r="L444" s="115"/>
+      <c r="M444" s="116"/>
       <c r="N444" s="10" t="s">
         <v>1219</v>
       </c>
@@ -51135,18 +51135,18 @@
         <f>BIN2HEX(P446,2)</f>
         <v>FF</v>
       </c>
-      <c r="F446" s="119" t="s">
+      <c r="F446" s="114" t="s">
         <v>1220</v>
       </c>
-      <c r="G446" s="120"/>
-      <c r="H446" s="120"/>
-      <c r="I446" s="121"/>
-      <c r="J446" s="119" t="s">
+      <c r="G446" s="115"/>
+      <c r="H446" s="115"/>
+      <c r="I446" s="116"/>
+      <c r="J446" s="114" t="s">
         <v>1221</v>
       </c>
-      <c r="K446" s="120"/>
-      <c r="L446" s="120"/>
-      <c r="M446" s="121"/>
+      <c r="K446" s="115"/>
+      <c r="L446" s="115"/>
+      <c r="M446" s="116"/>
       <c r="N446" s="10" t="s">
         <v>1222</v>
       </c>
@@ -51216,16 +51216,16 @@
         <f>BIN2HEX(P448,2)</f>
         <v>FF</v>
       </c>
-      <c r="F448" s="119" t="s">
+      <c r="F448" s="114" t="s">
         <v>1223</v>
       </c>
-      <c r="G448" s="120"/>
-      <c r="H448" s="120"/>
-      <c r="I448" s="120"/>
-      <c r="J448" s="120"/>
-      <c r="K448" s="120"/>
-      <c r="L448" s="120"/>
-      <c r="M448" s="121"/>
+      <c r="G448" s="115"/>
+      <c r="H448" s="115"/>
+      <c r="I448" s="115"/>
+      <c r="J448" s="115"/>
+      <c r="K448" s="115"/>
+      <c r="L448" s="115"/>
+      <c r="M448" s="116"/>
       <c r="N448" s="10" t="s">
         <v>1224</v>
       </c>
@@ -51295,16 +51295,16 @@
         <f>BIN2HEX(P450,2)</f>
         <v>FF</v>
       </c>
-      <c r="F450" s="119" t="s">
+      <c r="F450" s="114" t="s">
         <v>1225</v>
       </c>
-      <c r="G450" s="120"/>
-      <c r="H450" s="120"/>
-      <c r="I450" s="120"/>
-      <c r="J450" s="120"/>
-      <c r="K450" s="120"/>
-      <c r="L450" s="120"/>
-      <c r="M450" s="121"/>
+      <c r="G450" s="115"/>
+      <c r="H450" s="115"/>
+      <c r="I450" s="115"/>
+      <c r="J450" s="115"/>
+      <c r="K450" s="115"/>
+      <c r="L450" s="115"/>
+      <c r="M450" s="116"/>
       <c r="N450" s="10" t="s">
         <v>1226</v>
       </c>
@@ -51374,18 +51374,18 @@
         <f>BIN2HEX(P452,2)</f>
         <v>FF</v>
       </c>
-      <c r="F452" s="119" t="s">
+      <c r="F452" s="114" t="s">
         <v>1227</v>
       </c>
-      <c r="G452" s="120"/>
-      <c r="H452" s="120"/>
-      <c r="I452" s="121"/>
-      <c r="J452" s="119" t="s">
+      <c r="G452" s="115"/>
+      <c r="H452" s="115"/>
+      <c r="I452" s="116"/>
+      <c r="J452" s="114" t="s">
         <v>1228</v>
       </c>
-      <c r="K452" s="120"/>
-      <c r="L452" s="120"/>
-      <c r="M452" s="121"/>
+      <c r="K452" s="115"/>
+      <c r="L452" s="115"/>
+      <c r="M452" s="116"/>
       <c r="N452" s="10" t="s">
         <v>1229</v>
       </c>
@@ -51455,16 +51455,16 @@
         <f>BIN2HEX(P454,2)</f>
         <v>FF</v>
       </c>
-      <c r="F454" s="119" t="s">
+      <c r="F454" s="114" t="s">
         <v>1230</v>
       </c>
-      <c r="G454" s="120"/>
-      <c r="H454" s="120"/>
-      <c r="I454" s="120"/>
-      <c r="J454" s="120"/>
-      <c r="K454" s="120"/>
-      <c r="L454" s="120"/>
-      <c r="M454" s="121"/>
+      <c r="G454" s="115"/>
+      <c r="H454" s="115"/>
+      <c r="I454" s="115"/>
+      <c r="J454" s="115"/>
+      <c r="K454" s="115"/>
+      <c r="L454" s="115"/>
+      <c r="M454" s="116"/>
       <c r="N454" s="10" t="s">
         <v>1231</v>
       </c>
@@ -51534,16 +51534,16 @@
         <f>BIN2HEX(P456,2)</f>
         <v>FF</v>
       </c>
-      <c r="F456" s="119" t="s">
+      <c r="F456" s="114" t="s">
         <v>1232</v>
       </c>
-      <c r="G456" s="120"/>
-      <c r="H456" s="120"/>
-      <c r="I456" s="120"/>
-      <c r="J456" s="120"/>
-      <c r="K456" s="120"/>
-      <c r="L456" s="120"/>
-      <c r="M456" s="121"/>
+      <c r="G456" s="115"/>
+      <c r="H456" s="115"/>
+      <c r="I456" s="115"/>
+      <c r="J456" s="115"/>
+      <c r="K456" s="115"/>
+      <c r="L456" s="115"/>
+      <c r="M456" s="116"/>
       <c r="N456" s="10" t="s">
         <v>1233</v>
       </c>
@@ -51613,18 +51613,18 @@
         <f>BIN2HEX(P458,2)</f>
         <v>FF</v>
       </c>
-      <c r="F458" s="119" t="s">
+      <c r="F458" s="114" t="s">
         <v>1234</v>
       </c>
-      <c r="G458" s="120"/>
-      <c r="H458" s="120"/>
-      <c r="I458" s="121"/>
-      <c r="J458" s="119" t="s">
+      <c r="G458" s="115"/>
+      <c r="H458" s="115"/>
+      <c r="I458" s="116"/>
+      <c r="J458" s="114" t="s">
         <v>1235</v>
       </c>
-      <c r="K458" s="120"/>
-      <c r="L458" s="120"/>
-      <c r="M458" s="121"/>
+      <c r="K458" s="115"/>
+      <c r="L458" s="115"/>
+      <c r="M458" s="116"/>
       <c r="N458" s="10" t="s">
         <v>1236</v>
       </c>
@@ -51694,16 +51694,16 @@
         <f>BIN2HEX(P460,2)</f>
         <v>FF</v>
       </c>
-      <c r="F460" s="119" t="s">
+      <c r="F460" s="114" t="s">
         <v>1237</v>
       </c>
-      <c r="G460" s="120"/>
-      <c r="H460" s="120"/>
-      <c r="I460" s="120"/>
-      <c r="J460" s="120"/>
-      <c r="K460" s="120"/>
-      <c r="L460" s="120"/>
-      <c r="M460" s="121"/>
+      <c r="G460" s="115"/>
+      <c r="H460" s="115"/>
+      <c r="I460" s="115"/>
+      <c r="J460" s="115"/>
+      <c r="K460" s="115"/>
+      <c r="L460" s="115"/>
+      <c r="M460" s="116"/>
       <c r="N460" s="10" t="s">
         <v>1238</v>
       </c>
@@ -51773,16 +51773,16 @@
         <f>BIN2HEX(P462,2)</f>
         <v>FF</v>
       </c>
-      <c r="F462" s="119" t="s">
+      <c r="F462" s="114" t="s">
         <v>1239</v>
       </c>
-      <c r="G462" s="120"/>
-      <c r="H462" s="120"/>
-      <c r="I462" s="120"/>
-      <c r="J462" s="120"/>
-      <c r="K462" s="120"/>
-      <c r="L462" s="120"/>
-      <c r="M462" s="121"/>
+      <c r="G462" s="115"/>
+      <c r="H462" s="115"/>
+      <c r="I462" s="115"/>
+      <c r="J462" s="115"/>
+      <c r="K462" s="115"/>
+      <c r="L462" s="115"/>
+      <c r="M462" s="116"/>
       <c r="N462" s="10" t="s">
         <v>1240</v>
       </c>
@@ -51852,18 +51852,18 @@
         <f>BIN2HEX(P464,2)</f>
         <v>FF</v>
       </c>
-      <c r="F464" s="119" t="s">
+      <c r="F464" s="114" t="s">
         <v>1241</v>
       </c>
-      <c r="G464" s="120"/>
-      <c r="H464" s="120"/>
-      <c r="I464" s="121"/>
-      <c r="J464" s="119" t="s">
+      <c r="G464" s="115"/>
+      <c r="H464" s="115"/>
+      <c r="I464" s="116"/>
+      <c r="J464" s="114" t="s">
         <v>1242</v>
       </c>
-      <c r="K464" s="120"/>
-      <c r="L464" s="120"/>
-      <c r="M464" s="121"/>
+      <c r="K464" s="115"/>
+      <c r="L464" s="115"/>
+      <c r="M464" s="116"/>
       <c r="N464" s="10" t="s">
         <v>1243</v>
       </c>
@@ -51933,16 +51933,16 @@
         <f>BIN2HEX(P466,2)</f>
         <v>FF</v>
       </c>
-      <c r="F466" s="119" t="s">
+      <c r="F466" s="114" t="s">
         <v>1244</v>
       </c>
-      <c r="G466" s="120"/>
-      <c r="H466" s="120"/>
-      <c r="I466" s="120"/>
-      <c r="J466" s="120"/>
-      <c r="K466" s="120"/>
-      <c r="L466" s="120"/>
-      <c r="M466" s="121"/>
+      <c r="G466" s="115"/>
+      <c r="H466" s="115"/>
+      <c r="I466" s="115"/>
+      <c r="J466" s="115"/>
+      <c r="K466" s="115"/>
+      <c r="L466" s="115"/>
+      <c r="M466" s="116"/>
       <c r="N466" s="10" t="s">
         <v>1245</v>
       </c>
@@ -52012,16 +52012,16 @@
         <f>BIN2HEX(P468,2)</f>
         <v>FF</v>
       </c>
-      <c r="F468" s="119" t="s">
+      <c r="F468" s="114" t="s">
         <v>1246</v>
       </c>
-      <c r="G468" s="120"/>
-      <c r="H468" s="120"/>
-      <c r="I468" s="120"/>
-      <c r="J468" s="120"/>
-      <c r="K468" s="120"/>
-      <c r="L468" s="120"/>
-      <c r="M468" s="121"/>
+      <c r="G468" s="115"/>
+      <c r="H468" s="115"/>
+      <c r="I468" s="115"/>
+      <c r="J468" s="115"/>
+      <c r="K468" s="115"/>
+      <c r="L468" s="115"/>
+      <c r="M468" s="116"/>
       <c r="N468" s="10" t="s">
         <v>1247</v>
       </c>
@@ -52091,18 +52091,18 @@
         <f>BIN2HEX(P470,2)</f>
         <v>FF</v>
       </c>
-      <c r="F470" s="119" t="s">
+      <c r="F470" s="114" t="s">
         <v>1248</v>
       </c>
-      <c r="G470" s="120"/>
-      <c r="H470" s="120"/>
-      <c r="I470" s="121"/>
-      <c r="J470" s="119" t="s">
+      <c r="G470" s="115"/>
+      <c r="H470" s="115"/>
+      <c r="I470" s="116"/>
+      <c r="J470" s="114" t="s">
         <v>1249</v>
       </c>
-      <c r="K470" s="120"/>
-      <c r="L470" s="120"/>
-      <c r="M470" s="121"/>
+      <c r="K470" s="115"/>
+      <c r="L470" s="115"/>
+      <c r="M470" s="116"/>
       <c r="N470" s="10" t="s">
         <v>1250</v>
       </c>
@@ -52172,16 +52172,16 @@
         <f>BIN2HEX(P472,2)</f>
         <v>FF</v>
       </c>
-      <c r="F472" s="119" t="s">
+      <c r="F472" s="114" t="s">
         <v>1251</v>
       </c>
-      <c r="G472" s="120"/>
-      <c r="H472" s="120"/>
-      <c r="I472" s="120"/>
-      <c r="J472" s="120"/>
-      <c r="K472" s="120"/>
-      <c r="L472" s="120"/>
-      <c r="M472" s="121"/>
+      <c r="G472" s="115"/>
+      <c r="H472" s="115"/>
+      <c r="I472" s="115"/>
+      <c r="J472" s="115"/>
+      <c r="K472" s="115"/>
+      <c r="L472" s="115"/>
+      <c r="M472" s="116"/>
       <c r="N472" s="10" t="s">
         <v>1252</v>
       </c>
@@ -52251,16 +52251,16 @@
         <f>BIN2HEX(P474,2)</f>
         <v>FF</v>
       </c>
-      <c r="F474" s="119" t="s">
+      <c r="F474" s="114" t="s">
         <v>1253</v>
       </c>
-      <c r="G474" s="120"/>
-      <c r="H474" s="120"/>
-      <c r="I474" s="120"/>
-      <c r="J474" s="120"/>
-      <c r="K474" s="120"/>
-      <c r="L474" s="120"/>
-      <c r="M474" s="121"/>
+      <c r="G474" s="115"/>
+      <c r="H474" s="115"/>
+      <c r="I474" s="115"/>
+      <c r="J474" s="115"/>
+      <c r="K474" s="115"/>
+      <c r="L474" s="115"/>
+      <c r="M474" s="116"/>
       <c r="N474" s="10" t="s">
         <v>1254</v>
       </c>
@@ -52330,18 +52330,18 @@
         <f>BIN2HEX(P476,2)</f>
         <v>FF</v>
       </c>
-      <c r="F476" s="119" t="s">
+      <c r="F476" s="114" t="s">
         <v>1255</v>
       </c>
-      <c r="G476" s="120"/>
-      <c r="H476" s="120"/>
-      <c r="I476" s="121"/>
-      <c r="J476" s="119" t="s">
+      <c r="G476" s="115"/>
+      <c r="H476" s="115"/>
+      <c r="I476" s="116"/>
+      <c r="J476" s="114" t="s">
         <v>1256</v>
       </c>
-      <c r="K476" s="120"/>
-      <c r="L476" s="120"/>
-      <c r="M476" s="121"/>
+      <c r="K476" s="115"/>
+      <c r="L476" s="115"/>
+      <c r="M476" s="116"/>
       <c r="N476" s="10" t="s">
         <v>1257</v>
       </c>
@@ -52411,16 +52411,16 @@
         <f>BIN2HEX(P478,2)</f>
         <v>FF</v>
       </c>
-      <c r="F478" s="119" t="s">
+      <c r="F478" s="114" t="s">
         <v>1258</v>
       </c>
-      <c r="G478" s="120"/>
-      <c r="H478" s="120"/>
-      <c r="I478" s="120"/>
-      <c r="J478" s="120"/>
-      <c r="K478" s="120"/>
-      <c r="L478" s="120"/>
-      <c r="M478" s="121"/>
+      <c r="G478" s="115"/>
+      <c r="H478" s="115"/>
+      <c r="I478" s="115"/>
+      <c r="J478" s="115"/>
+      <c r="K478" s="115"/>
+      <c r="L478" s="115"/>
+      <c r="M478" s="116"/>
       <c r="N478" s="10" t="s">
         <v>1259</v>
       </c>
@@ -52489,11 +52489,11 @@
         <f>BIN2HEX(P480,2)</f>
         <v>FF</v>
       </c>
-      <c r="F480" s="150" t="s">
+      <c r="F480" s="135" t="s">
         <v>1260</v>
       </c>
-      <c r="G480" s="151"/>
-      <c r="H480" s="152"/>
+      <c r="G480" s="136"/>
+      <c r="H480" s="137"/>
       <c r="I480" s="33" t="s">
         <v>1261</v>
       </c>
@@ -52590,13 +52590,13 @@
       <c r="H482" s="12" t="s">
         <v>1270</v>
       </c>
-      <c r="I482" s="147" t="s">
+      <c r="I482" s="129" t="s">
         <v>1271</v>
       </c>
-      <c r="J482" s="148"/>
-      <c r="K482" s="148"/>
-      <c r="L482" s="148"/>
-      <c r="M482" s="149"/>
+      <c r="J482" s="130"/>
+      <c r="K482" s="130"/>
+      <c r="L482" s="130"/>
+      <c r="M482" s="131"/>
       <c r="N482" s="10" t="s">
         <v>1272</v>
       </c>
@@ -53792,10 +53792,10 @@
       <c r="K512" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L512" s="97" t="s">
+      <c r="L512" s="102" t="s">
         <v>654</v>
       </c>
-      <c r="M512" s="99"/>
+      <c r="M512" s="104"/>
       <c r="N512" s="25" t="s">
         <v>655</v>
       </c>
@@ -53867,18 +53867,18 @@
         <f>BIN2HEX(P514,2)</f>
         <v>F8</v>
       </c>
-      <c r="F514" s="110" t="s">
+      <c r="F514" s="123" t="s">
         <v>658</v>
       </c>
-      <c r="G514" s="110"/>
-      <c r="H514" s="110"/>
-      <c r="I514" s="110"/>
-      <c r="J514" s="110"/>
-      <c r="K514" s="110" t="s">
+      <c r="G514" s="123"/>
+      <c r="H514" s="123"/>
+      <c r="I514" s="123"/>
+      <c r="J514" s="123"/>
+      <c r="K514" s="123" t="s">
         <v>659</v>
       </c>
-      <c r="L514" s="110"/>
-      <c r="M514" s="110"/>
+      <c r="L514" s="123"/>
+      <c r="M514" s="123"/>
       <c r="N514" s="25" t="s">
         <v>660</v>
       </c>
@@ -53909,18 +53909,18 @@
       <c r="C515" s="19"/>
       <c r="D515" s="20"/>
       <c r="E515" s="16"/>
-      <c r="F515" s="109" t="s">
+      <c r="F515" s="98" t="s">
         <v>662</v>
       </c>
-      <c r="G515" s="109"/>
-      <c r="H515" s="109"/>
-      <c r="I515" s="109"/>
-      <c r="J515" s="109"/>
-      <c r="K515" s="109" t="s">
+      <c r="G515" s="98"/>
+      <c r="H515" s="98"/>
+      <c r="I515" s="98"/>
+      <c r="J515" s="98"/>
+      <c r="K515" s="98" t="s">
         <v>663</v>
       </c>
-      <c r="L515" s="109"/>
-      <c r="M515" s="109"/>
+      <c r="L515" s="98"/>
+      <c r="M515" s="98"/>
       <c r="N515" s="10"/>
       <c r="O515" s="9"/>
       <c r="P515" s="9"/>
@@ -53933,6 +53933,217 @@
     </row>
   </sheetData>
   <mergeCells count="235">
+    <mergeCell ref="F368:G368"/>
+    <mergeCell ref="F364:G364"/>
+    <mergeCell ref="F370:G370"/>
+    <mergeCell ref="H368:J368"/>
+    <mergeCell ref="H370:J370"/>
+    <mergeCell ref="J362:M362"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="F165:M165"/>
+    <mergeCell ref="L167:M167"/>
+    <mergeCell ref="F169:M169"/>
+    <mergeCell ref="L171:M171"/>
+    <mergeCell ref="F173:M173"/>
+    <mergeCell ref="L175:M175"/>
+    <mergeCell ref="F177:M177"/>
+    <mergeCell ref="L179:M179"/>
+    <mergeCell ref="F161:M161"/>
+    <mergeCell ref="L163:M163"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="F109:M109"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="F113:M113"/>
+    <mergeCell ref="F213:M213"/>
+    <mergeCell ref="L215:M215"/>
+    <mergeCell ref="F217:M217"/>
+    <mergeCell ref="L219:M219"/>
+    <mergeCell ref="F221:M221"/>
+    <mergeCell ref="L223:M223"/>
+    <mergeCell ref="F225:M225"/>
+    <mergeCell ref="L227:M227"/>
+    <mergeCell ref="F229:M229"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="F100:G100"/>
+    <mergeCell ref="F55:M55"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="J99:M99"/>
+    <mergeCell ref="F149:M149"/>
+    <mergeCell ref="L151:M151"/>
+    <mergeCell ref="G18:M18"/>
+    <mergeCell ref="F137:M137"/>
+    <mergeCell ref="L139:M139"/>
+    <mergeCell ref="F141:M141"/>
+    <mergeCell ref="L143:M143"/>
+    <mergeCell ref="F66:M66"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="G20:M20"/>
+    <mergeCell ref="F56:M56"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="F117:M117"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="F153:M153"/>
+    <mergeCell ref="L155:M155"/>
+    <mergeCell ref="F157:M157"/>
+    <mergeCell ref="L159:M159"/>
+    <mergeCell ref="L147:M147"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="H100:I100"/>
+    <mergeCell ref="J100:M100"/>
+    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="F73:M73"/>
+    <mergeCell ref="F145:M145"/>
+    <mergeCell ref="F121:M121"/>
+    <mergeCell ref="F63:I63"/>
+    <mergeCell ref="K63:M63"/>
+    <mergeCell ref="F64:I64"/>
+    <mergeCell ref="K64:M64"/>
+    <mergeCell ref="F65:M65"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="F125:M125"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="F129:M129"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="F133:M133"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="L251:M251"/>
+    <mergeCell ref="H371:J371"/>
+    <mergeCell ref="F422:I422"/>
+    <mergeCell ref="J422:M422"/>
+    <mergeCell ref="F382:M382"/>
+    <mergeCell ref="F384:M384"/>
+    <mergeCell ref="F376:G376"/>
+    <mergeCell ref="F377:G377"/>
+    <mergeCell ref="F360:G360"/>
+    <mergeCell ref="F361:G361"/>
+    <mergeCell ref="F386:M386"/>
+    <mergeCell ref="F388:M388"/>
+    <mergeCell ref="F390:M390"/>
+    <mergeCell ref="F392:M392"/>
+    <mergeCell ref="G373:I373"/>
+    <mergeCell ref="K373:M373"/>
+    <mergeCell ref="F253:M253"/>
+    <mergeCell ref="L255:M255"/>
+    <mergeCell ref="F257:M257"/>
+    <mergeCell ref="L259:M259"/>
+    <mergeCell ref="F261:M261"/>
+    <mergeCell ref="G372:I372"/>
+    <mergeCell ref="F362:H362"/>
+    <mergeCell ref="F366:G366"/>
+    <mergeCell ref="J458:M458"/>
+    <mergeCell ref="F181:M181"/>
+    <mergeCell ref="F450:M450"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="F380:M380"/>
+    <mergeCell ref="F394:M394"/>
+    <mergeCell ref="F396:M396"/>
+    <mergeCell ref="F398:M398"/>
+    <mergeCell ref="F400:M400"/>
+    <mergeCell ref="F402:M402"/>
+    <mergeCell ref="A351:M351"/>
+    <mergeCell ref="I355:M355"/>
+    <mergeCell ref="F356:I356"/>
+    <mergeCell ref="F358:I358"/>
+    <mergeCell ref="I360:M360"/>
+    <mergeCell ref="F69:M69"/>
+    <mergeCell ref="F378:M378"/>
+    <mergeCell ref="H366:M366"/>
+    <mergeCell ref="L195:M195"/>
+    <mergeCell ref="F197:M197"/>
+    <mergeCell ref="L199:M199"/>
+    <mergeCell ref="F201:M201"/>
+    <mergeCell ref="F363:M363"/>
+    <mergeCell ref="F444:M444"/>
+    <mergeCell ref="F432:M432"/>
+    <mergeCell ref="F430:M430"/>
+    <mergeCell ref="F446:I446"/>
+    <mergeCell ref="J446:M446"/>
+    <mergeCell ref="F515:J515"/>
+    <mergeCell ref="K515:M515"/>
+    <mergeCell ref="L512:M512"/>
+    <mergeCell ref="L513:M513"/>
+    <mergeCell ref="F514:J514"/>
+    <mergeCell ref="K514:M514"/>
+    <mergeCell ref="F476:I476"/>
+    <mergeCell ref="J476:M476"/>
+    <mergeCell ref="F478:M478"/>
+    <mergeCell ref="F452:I452"/>
+    <mergeCell ref="J452:M452"/>
+    <mergeCell ref="F460:M460"/>
+    <mergeCell ref="F462:M462"/>
+    <mergeCell ref="F464:I464"/>
+    <mergeCell ref="J464:M464"/>
+    <mergeCell ref="F474:M474"/>
+    <mergeCell ref="F454:M454"/>
+    <mergeCell ref="F456:M456"/>
+    <mergeCell ref="F458:I458"/>
+    <mergeCell ref="K406:M406"/>
+    <mergeCell ref="F420:M420"/>
+    <mergeCell ref="F434:I434"/>
+    <mergeCell ref="J434:M434"/>
+    <mergeCell ref="F436:M436"/>
+    <mergeCell ref="F438:M438"/>
+    <mergeCell ref="F440:I440"/>
+    <mergeCell ref="J440:M440"/>
+    <mergeCell ref="F442:M442"/>
+    <mergeCell ref="F424:M424"/>
+    <mergeCell ref="F426:M426"/>
+    <mergeCell ref="J428:M428"/>
+    <mergeCell ref="F249:M249"/>
+    <mergeCell ref="I482:M482"/>
+    <mergeCell ref="H364:M364"/>
+    <mergeCell ref="K368:M368"/>
+    <mergeCell ref="F365:G365"/>
+    <mergeCell ref="F367:G367"/>
+    <mergeCell ref="F369:G369"/>
+    <mergeCell ref="F371:G371"/>
+    <mergeCell ref="H369:J369"/>
+    <mergeCell ref="K369:M369"/>
+    <mergeCell ref="K371:M371"/>
+    <mergeCell ref="F480:H480"/>
+    <mergeCell ref="K370:M370"/>
+    <mergeCell ref="K372:M372"/>
+    <mergeCell ref="F468:M468"/>
+    <mergeCell ref="F470:I470"/>
+    <mergeCell ref="J470:M470"/>
+    <mergeCell ref="F472:M472"/>
+    <mergeCell ref="F448:M448"/>
+    <mergeCell ref="F466:M466"/>
+    <mergeCell ref="F404:M404"/>
+    <mergeCell ref="F418:M418"/>
+    <mergeCell ref="F428:I428"/>
+    <mergeCell ref="G406:I406"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="F105:M105"/>
+    <mergeCell ref="F289:M289"/>
+    <mergeCell ref="G24:M24"/>
+    <mergeCell ref="G19:M19"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="L231:M231"/>
+    <mergeCell ref="F233:M233"/>
+    <mergeCell ref="L235:M235"/>
+    <mergeCell ref="F237:M237"/>
+    <mergeCell ref="L239:M239"/>
+    <mergeCell ref="F241:M241"/>
+    <mergeCell ref="L183:M183"/>
+    <mergeCell ref="F185:M185"/>
+    <mergeCell ref="L187:M187"/>
+    <mergeCell ref="F189:M189"/>
+    <mergeCell ref="L191:M191"/>
+    <mergeCell ref="F193:M193"/>
+    <mergeCell ref="L203:M203"/>
+    <mergeCell ref="F205:M205"/>
+    <mergeCell ref="L207:M207"/>
     <mergeCell ref="I483:M483"/>
     <mergeCell ref="F379:M379"/>
     <mergeCell ref="F383:M383"/>
@@ -53957,217 +54168,6 @@
     <mergeCell ref="L243:M243"/>
     <mergeCell ref="F245:M245"/>
     <mergeCell ref="L247:M247"/>
-    <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="F105:M105"/>
-    <mergeCell ref="F289:M289"/>
-    <mergeCell ref="G24:M24"/>
-    <mergeCell ref="G19:M19"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="L231:M231"/>
-    <mergeCell ref="F233:M233"/>
-    <mergeCell ref="L235:M235"/>
-    <mergeCell ref="F237:M237"/>
-    <mergeCell ref="L239:M239"/>
-    <mergeCell ref="F241:M241"/>
-    <mergeCell ref="L183:M183"/>
-    <mergeCell ref="F185:M185"/>
-    <mergeCell ref="L187:M187"/>
-    <mergeCell ref="F189:M189"/>
-    <mergeCell ref="L191:M191"/>
-    <mergeCell ref="F193:M193"/>
-    <mergeCell ref="L203:M203"/>
-    <mergeCell ref="F205:M205"/>
-    <mergeCell ref="L207:M207"/>
-    <mergeCell ref="F249:M249"/>
-    <mergeCell ref="I482:M482"/>
-    <mergeCell ref="H364:M364"/>
-    <mergeCell ref="K368:M368"/>
-    <mergeCell ref="F365:G365"/>
-    <mergeCell ref="F367:G367"/>
-    <mergeCell ref="F369:G369"/>
-    <mergeCell ref="F371:G371"/>
-    <mergeCell ref="H369:J369"/>
-    <mergeCell ref="K369:M369"/>
-    <mergeCell ref="K371:M371"/>
-    <mergeCell ref="F480:H480"/>
-    <mergeCell ref="K370:M370"/>
-    <mergeCell ref="K372:M372"/>
-    <mergeCell ref="F468:M468"/>
-    <mergeCell ref="F470:I470"/>
-    <mergeCell ref="J470:M470"/>
-    <mergeCell ref="F472:M472"/>
-    <mergeCell ref="F448:M448"/>
-    <mergeCell ref="F466:M466"/>
-    <mergeCell ref="F404:M404"/>
-    <mergeCell ref="F418:M418"/>
-    <mergeCell ref="F428:I428"/>
-    <mergeCell ref="G406:I406"/>
-    <mergeCell ref="K406:M406"/>
-    <mergeCell ref="F420:M420"/>
-    <mergeCell ref="F434:I434"/>
-    <mergeCell ref="J434:M434"/>
-    <mergeCell ref="F436:M436"/>
-    <mergeCell ref="F438:M438"/>
-    <mergeCell ref="F440:I440"/>
-    <mergeCell ref="J440:M440"/>
-    <mergeCell ref="F442:M442"/>
-    <mergeCell ref="F424:M424"/>
-    <mergeCell ref="F426:M426"/>
-    <mergeCell ref="J428:M428"/>
-    <mergeCell ref="F444:M444"/>
-    <mergeCell ref="F432:M432"/>
-    <mergeCell ref="F430:M430"/>
-    <mergeCell ref="F446:I446"/>
-    <mergeCell ref="J446:M446"/>
-    <mergeCell ref="F515:J515"/>
-    <mergeCell ref="K515:M515"/>
-    <mergeCell ref="L512:M512"/>
-    <mergeCell ref="L513:M513"/>
-    <mergeCell ref="F514:J514"/>
-    <mergeCell ref="K514:M514"/>
-    <mergeCell ref="F476:I476"/>
-    <mergeCell ref="J476:M476"/>
-    <mergeCell ref="F478:M478"/>
-    <mergeCell ref="F452:I452"/>
-    <mergeCell ref="J452:M452"/>
-    <mergeCell ref="F460:M460"/>
-    <mergeCell ref="F462:M462"/>
-    <mergeCell ref="F464:I464"/>
-    <mergeCell ref="J464:M464"/>
-    <mergeCell ref="F474:M474"/>
-    <mergeCell ref="F454:M454"/>
-    <mergeCell ref="F456:M456"/>
-    <mergeCell ref="F458:I458"/>
-    <mergeCell ref="J458:M458"/>
-    <mergeCell ref="F181:M181"/>
-    <mergeCell ref="F450:M450"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="F380:M380"/>
-    <mergeCell ref="F394:M394"/>
-    <mergeCell ref="F396:M396"/>
-    <mergeCell ref="F398:M398"/>
-    <mergeCell ref="F400:M400"/>
-    <mergeCell ref="F402:M402"/>
-    <mergeCell ref="A351:M351"/>
-    <mergeCell ref="I355:M355"/>
-    <mergeCell ref="F356:I356"/>
-    <mergeCell ref="F358:I358"/>
-    <mergeCell ref="I360:M360"/>
-    <mergeCell ref="F69:M69"/>
-    <mergeCell ref="F378:M378"/>
-    <mergeCell ref="H366:M366"/>
-    <mergeCell ref="L195:M195"/>
-    <mergeCell ref="F197:M197"/>
-    <mergeCell ref="L199:M199"/>
-    <mergeCell ref="F201:M201"/>
-    <mergeCell ref="F363:M363"/>
-    <mergeCell ref="L251:M251"/>
-    <mergeCell ref="H371:J371"/>
-    <mergeCell ref="F422:I422"/>
-    <mergeCell ref="J422:M422"/>
-    <mergeCell ref="F382:M382"/>
-    <mergeCell ref="F384:M384"/>
-    <mergeCell ref="F376:G376"/>
-    <mergeCell ref="F377:G377"/>
-    <mergeCell ref="F360:G360"/>
-    <mergeCell ref="F361:G361"/>
-    <mergeCell ref="F386:M386"/>
-    <mergeCell ref="F388:M388"/>
-    <mergeCell ref="F390:M390"/>
-    <mergeCell ref="F392:M392"/>
-    <mergeCell ref="G373:I373"/>
-    <mergeCell ref="K373:M373"/>
-    <mergeCell ref="F253:M253"/>
-    <mergeCell ref="L255:M255"/>
-    <mergeCell ref="F257:M257"/>
-    <mergeCell ref="L259:M259"/>
-    <mergeCell ref="F261:M261"/>
-    <mergeCell ref="G372:I372"/>
-    <mergeCell ref="F362:H362"/>
-    <mergeCell ref="F366:G366"/>
-    <mergeCell ref="F153:M153"/>
-    <mergeCell ref="L155:M155"/>
-    <mergeCell ref="F157:M157"/>
-    <mergeCell ref="L159:M159"/>
-    <mergeCell ref="L147:M147"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="H100:I100"/>
-    <mergeCell ref="J100:M100"/>
-    <mergeCell ref="H37:M37"/>
-    <mergeCell ref="F73:M73"/>
-    <mergeCell ref="F145:M145"/>
-    <mergeCell ref="F121:M121"/>
-    <mergeCell ref="F63:I63"/>
-    <mergeCell ref="K63:M63"/>
-    <mergeCell ref="F64:I64"/>
-    <mergeCell ref="K64:M64"/>
-    <mergeCell ref="F65:M65"/>
-    <mergeCell ref="L123:M123"/>
-    <mergeCell ref="F125:M125"/>
-    <mergeCell ref="L127:M127"/>
-    <mergeCell ref="F129:M129"/>
-    <mergeCell ref="L131:M131"/>
-    <mergeCell ref="F133:M133"/>
-    <mergeCell ref="L135:M135"/>
-    <mergeCell ref="F99:G99"/>
-    <mergeCell ref="F100:G100"/>
-    <mergeCell ref="F55:M55"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="J99:M99"/>
-    <mergeCell ref="F149:M149"/>
-    <mergeCell ref="L151:M151"/>
-    <mergeCell ref="G18:M18"/>
-    <mergeCell ref="F137:M137"/>
-    <mergeCell ref="L139:M139"/>
-    <mergeCell ref="F141:M141"/>
-    <mergeCell ref="L143:M143"/>
-    <mergeCell ref="F66:M66"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="G20:M20"/>
-    <mergeCell ref="F56:M56"/>
-    <mergeCell ref="L115:M115"/>
-    <mergeCell ref="F117:M117"/>
-    <mergeCell ref="L119:M119"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="F213:M213"/>
-    <mergeCell ref="L215:M215"/>
-    <mergeCell ref="F217:M217"/>
-    <mergeCell ref="L219:M219"/>
-    <mergeCell ref="F221:M221"/>
-    <mergeCell ref="L223:M223"/>
-    <mergeCell ref="F225:M225"/>
-    <mergeCell ref="L227:M227"/>
-    <mergeCell ref="F229:M229"/>
-    <mergeCell ref="F368:G368"/>
-    <mergeCell ref="F364:G364"/>
-    <mergeCell ref="F370:G370"/>
-    <mergeCell ref="H368:J368"/>
-    <mergeCell ref="H370:J370"/>
-    <mergeCell ref="J362:M362"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="F165:M165"/>
-    <mergeCell ref="L167:M167"/>
-    <mergeCell ref="F169:M169"/>
-    <mergeCell ref="L171:M171"/>
-    <mergeCell ref="F173:M173"/>
-    <mergeCell ref="L175:M175"/>
-    <mergeCell ref="F177:M177"/>
-    <mergeCell ref="L179:M179"/>
-    <mergeCell ref="F161:M161"/>
-    <mergeCell ref="L163:M163"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="I9:M9"/>
-    <mergeCell ref="L103:M103"/>
-    <mergeCell ref="L107:M107"/>
-    <mergeCell ref="F109:M109"/>
-    <mergeCell ref="L111:M111"/>
-    <mergeCell ref="F113:M113"/>
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
   <conditionalFormatting sqref="A4 A6 A8 A10 A12 A14 A16 A18 A20 A22 A24 A26 A28 A30 A32">
@@ -55041,14 +55041,14 @@
       <c r="F5" s="82" t="s">
         <v>1330</v>
       </c>
-      <c r="G5" s="156" t="s">
+      <c r="G5" s="153" t="s">
         <v>1334</v>
       </c>
-      <c r="H5" s="156"/>
-      <c r="I5" s="156" t="s">
+      <c r="H5" s="153"/>
+      <c r="I5" s="153" t="s">
         <v>1335</v>
       </c>
-      <c r="J5" s="156"/>
+      <c r="J5" s="153"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="85" t="s">
@@ -55124,19 +55124,19 @@
       <c r="C8" s="82" t="s">
         <v>1330</v>
       </c>
-      <c r="D8" s="156" t="s">
+      <c r="D8" s="153" t="s">
         <v>1341</v>
       </c>
-      <c r="E8" s="156"/>
-      <c r="F8" s="156"/>
+      <c r="E8" s="153"/>
+      <c r="F8" s="153"/>
       <c r="G8" s="82" t="s">
         <v>1330</v>
       </c>
-      <c r="H8" s="156" t="s">
+      <c r="H8" s="153" t="s">
         <v>1342</v>
       </c>
-      <c r="I8" s="156"/>
-      <c r="J8" s="156"/>
+      <c r="I8" s="153"/>
+      <c r="J8" s="153"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="85" t="s">
@@ -55303,10 +55303,10 @@
       <c r="B14" s="85" t="s">
         <v>1330</v>
       </c>
-      <c r="C14" s="153" t="s">
+      <c r="C14" s="154" t="s">
         <v>1353</v>
       </c>
-      <c r="D14" s="153"/>
+      <c r="D14" s="154"/>
       <c r="E14" s="82" t="s">
         <v>1330</v>
       </c>
@@ -55333,10 +55333,10 @@
       <c r="B15" s="85" t="s">
         <v>1330</v>
       </c>
-      <c r="C15" s="154" t="s">
+      <c r="C15" s="155" t="s">
         <v>1351</v>
       </c>
-      <c r="D15" s="155"/>
+      <c r="D15" s="156"/>
       <c r="E15" s="82" t="s">
         <v>1330</v>
       </c>
@@ -55378,11 +55378,11 @@
       <c r="G16" s="82" t="s">
         <v>1330</v>
       </c>
-      <c r="H16" s="156" t="s">
+      <c r="H16" s="153" t="s">
         <v>1357</v>
       </c>
-      <c r="I16" s="156"/>
-      <c r="J16" s="156"/>
+      <c r="I16" s="153"/>
+      <c r="J16" s="153"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="85" t="s">
@@ -55438,84 +55438,79 @@
       <c r="A23" s="88" t="s">
         <v>1331</v>
       </c>
-      <c r="B23" s="156" t="s">
+      <c r="B23" s="153" t="s">
         <v>1361</v>
       </c>
-      <c r="C23" s="156"/>
-      <c r="D23" s="156"/>
-      <c r="E23" s="156"/>
-      <c r="F23" s="156"/>
-      <c r="G23" s="156"/>
-      <c r="H23" s="156"/>
-      <c r="I23" s="156"/>
+      <c r="C23" s="153"/>
+      <c r="D23" s="153"/>
+      <c r="E23" s="153"/>
+      <c r="F23" s="153"/>
+      <c r="G23" s="153"/>
+      <c r="H23" s="153"/>
+      <c r="I23" s="153"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="90" t="s">
         <v>1347</v>
       </c>
-      <c r="B24" s="156" t="s">
+      <c r="B24" s="153" t="s">
         <v>1362</v>
       </c>
-      <c r="C24" s="156"/>
-      <c r="D24" s="156"/>
-      <c r="E24" s="156"/>
-      <c r="F24" s="156"/>
-      <c r="G24" s="156"/>
-      <c r="H24" s="156"/>
-      <c r="I24" s="156"/>
+      <c r="C24" s="153"/>
+      <c r="D24" s="153"/>
+      <c r="E24" s="153"/>
+      <c r="F24" s="153"/>
+      <c r="G24" s="153"/>
+      <c r="H24" s="153"/>
+      <c r="I24" s="153"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="89" t="s">
         <v>1351</v>
       </c>
-      <c r="B25" s="156" t="s">
+      <c r="B25" s="153" t="s">
         <v>1363</v>
       </c>
-      <c r="C25" s="156"/>
-      <c r="D25" s="156"/>
-      <c r="E25" s="156"/>
-      <c r="F25" s="156"/>
-      <c r="G25" s="156"/>
-      <c r="H25" s="156"/>
-      <c r="I25" s="156"/>
+      <c r="C25" s="153"/>
+      <c r="D25" s="153"/>
+      <c r="E25" s="153"/>
+      <c r="F25" s="153"/>
+      <c r="G25" s="153"/>
+      <c r="H25" s="153"/>
+      <c r="I25" s="153"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="91" t="s">
         <v>1353</v>
       </c>
-      <c r="B26" s="156" t="s">
+      <c r="B26" s="153" t="s">
         <v>1364</v>
       </c>
-      <c r="C26" s="156"/>
-      <c r="D26" s="156"/>
-      <c r="E26" s="156"/>
-      <c r="F26" s="156"/>
-      <c r="G26" s="156"/>
-      <c r="H26" s="156"/>
-      <c r="I26" s="156"/>
+      <c r="C26" s="153"/>
+      <c r="D26" s="153"/>
+      <c r="E26" s="153"/>
+      <c r="F26" s="153"/>
+      <c r="G26" s="153"/>
+      <c r="H26" s="153"/>
+      <c r="I26" s="153"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="92" t="s">
         <v>1360</v>
       </c>
-      <c r="B27" s="156" t="s">
+      <c r="B27" s="153" t="s">
         <v>1365</v>
       </c>
-      <c r="C27" s="156"/>
-      <c r="D27" s="156"/>
-      <c r="E27" s="156"/>
-      <c r="F27" s="156"/>
-      <c r="G27" s="156"/>
-      <c r="H27" s="156"/>
-      <c r="I27" s="156"/>
+      <c r="C27" s="153"/>
+      <c r="D27" s="153"/>
+      <c r="E27" s="153"/>
+      <c r="F27" s="153"/>
+      <c r="G27" s="153"/>
+      <c r="H27" s="153"/>
+      <c r="I27" s="153"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="B27:I27"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="H16:J16"/>
@@ -55526,6 +55521,11 @@
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B27:I27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -56036,6 +56036,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="e658002f-fdfe-4e4b-94aa-0526ee42a8ac">
@@ -56044,15 +56053,6 @@
     <TaxCatchAll xmlns="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -56075,6 +56075,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{331831E3-7004-4AB5-BEC6-833C8F9BB773}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EECFDA25-96CE-4F7C-9F7E-6104807E47AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -56083,12 +56091,4 @@
     <ds:schemaRef ds:uri="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{331831E3-7004-4AB5-BEC6-833C8F9BB773}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>